--- a/record/TSLA_20250223/prediction_results.xlsx
+++ b/record/TSLA_20250223/prediction_results.xlsx
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.38</v>
+        <v>393.34</v>
       </c>
       <c r="C2" t="n">
-        <v>419.49</v>
+        <v>424.72</v>
       </c>
       <c r="D2" t="n">
-        <v>403.79</v>
+        <v>369.54</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>393.43</v>
+        <v>393.8</v>
       </c>
       <c r="C3" t="n">
-        <v>415.33</v>
+        <v>410.01</v>
       </c>
       <c r="D3" t="n">
-        <v>411.27</v>
+        <v>365.72</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.66</v>
+        <v>393.63</v>
       </c>
       <c r="C4" t="n">
-        <v>419.73</v>
+        <v>404.2</v>
       </c>
       <c r="D4" t="n">
-        <v>409.32</v>
+        <v>363.31</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.03</v>
+        <v>393.73</v>
       </c>
       <c r="C5" t="n">
-        <v>425.46</v>
+        <v>422.2</v>
       </c>
       <c r="D5" t="n">
-        <v>417.96</v>
+        <v>369.07</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>392.65</v>
+        <v>393.8</v>
       </c>
       <c r="C6" t="n">
-        <v>434.96</v>
+        <v>417.83</v>
       </c>
       <c r="D6" t="n">
-        <v>418.14</v>
+        <v>368.16</v>
       </c>
     </row>
     <row r="7">
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392.9</v>
+        <v>393.62</v>
       </c>
       <c r="C7" t="n">
-        <v>429.98</v>
+        <v>409.84</v>
       </c>
       <c r="D7" t="n">
-        <v>411.17</v>
+        <v>362.26</v>
       </c>
     </row>
     <row r="8">
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.69</v>
+        <v>393.06</v>
       </c>
       <c r="C8" t="n">
-        <v>423.62</v>
+        <v>401.87</v>
       </c>
       <c r="D8" t="n">
-        <v>401.31</v>
+        <v>354.98</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>394.51</v>
+        <v>392.2</v>
       </c>
       <c r="C9" t="n">
-        <v>411.42</v>
+        <v>402.11</v>
       </c>
       <c r="D9" t="n">
-        <v>392.13</v>
+        <v>349.08</v>
       </c>
     </row>
     <row r="10">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>395.58</v>
+        <v>391.08</v>
       </c>
       <c r="C10" t="n">
-        <v>413.62</v>
+        <v>384.63</v>
       </c>
       <c r="D10" t="n">
-        <v>381.48</v>
+        <v>341.78</v>
       </c>
     </row>
     <row r="11">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395.7</v>
+        <v>390.55</v>
       </c>
       <c r="C11" t="n">
-        <v>415.51</v>
+        <v>397.17</v>
       </c>
       <c r="D11" t="n">
-        <v>387.23</v>
+        <v>348.9</v>
       </c>
     </row>
     <row r="12">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>395.73</v>
+        <v>390.25</v>
       </c>
       <c r="C12" t="n">
-        <v>413.06</v>
+        <v>397.68</v>
       </c>
       <c r="D12" t="n">
-        <v>386.92</v>
+        <v>349.85</v>
       </c>
     </row>
     <row r="13">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.61</v>
+        <v>389.86</v>
       </c>
       <c r="C13" t="n">
-        <v>406.26</v>
+        <v>405.19</v>
       </c>
       <c r="D13" t="n">
-        <v>381.96</v>
+        <v>347.16</v>
       </c>
     </row>
     <row r="14">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.75</v>
+        <v>389.39</v>
       </c>
       <c r="C14" t="n">
-        <v>403.79</v>
+        <v>405.7</v>
       </c>
       <c r="D14" t="n">
-        <v>377.45</v>
+        <v>344.73</v>
       </c>
     </row>
     <row r="15">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>395.84</v>
+        <v>388.92</v>
       </c>
       <c r="C15" t="n">
-        <v>396.79</v>
+        <v>401.61</v>
       </c>
       <c r="D15" t="n">
-        <v>374.3</v>
+        <v>343.31</v>
       </c>
     </row>
     <row r="16">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.8</v>
+        <v>388.87</v>
       </c>
       <c r="C16" t="n">
-        <v>402.24</v>
+        <v>402.94</v>
       </c>
       <c r="D16" t="n">
-        <v>378.48</v>
+        <v>348.04</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>395.83</v>
+        <v>389.05</v>
       </c>
       <c r="C17" t="n">
-        <v>397.65</v>
+        <v>405.19</v>
       </c>
       <c r="D17" t="n">
-        <v>379.57</v>
+        <v>349.72</v>
       </c>
     </row>
     <row r="18">
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>395.71</v>
+        <v>389.72</v>
       </c>
       <c r="C18" t="n">
-        <v>412.98</v>
+        <v>426.73</v>
       </c>
       <c r="D18" t="n">
-        <v>392.14</v>
+        <v>360.54</v>
       </c>
     </row>
     <row r="19">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.6</v>
+        <v>390.56</v>
       </c>
       <c r="C19" t="n">
-        <v>407.96</v>
+        <v>419.4</v>
       </c>
       <c r="D19" t="n">
-        <v>390.93</v>
+        <v>359.88</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>394.83</v>
+        <v>391.53</v>
       </c>
       <c r="C20" t="n">
-        <v>416.36</v>
+        <v>428.69</v>
       </c>
       <c r="D20" t="n">
-        <v>400.35</v>
+        <v>366.58</v>
       </c>
     </row>
     <row r="21">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>394.4</v>
+        <v>392.35</v>
       </c>
       <c r="C21" t="n">
-        <v>420.34</v>
+        <v>434.1</v>
       </c>
       <c r="D21" t="n">
-        <v>402.71</v>
+        <v>365.72</v>
       </c>
     </row>
     <row r="22">
@@ -791,13 +791,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>394.33</v>
+        <v>392.98</v>
       </c>
       <c r="C22" t="n">
-        <v>419.92</v>
+        <v>425.92</v>
       </c>
       <c r="D22" t="n">
-        <v>401.73</v>
+        <v>362.18</v>
       </c>
     </row>
     <row r="23">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>394.25</v>
+        <v>393.49</v>
       </c>
       <c r="C23" t="n">
-        <v>413.22</v>
+        <v>411.22</v>
       </c>
       <c r="D23" t="n">
-        <v>409.56</v>
+        <v>361.14</v>
       </c>
     </row>
     <row r="24">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>394.31</v>
+        <v>393.36</v>
       </c>
       <c r="C24" t="n">
-        <v>418.79</v>
+        <v>403.59</v>
       </c>
       <c r="D24" t="n">
-        <v>407.77</v>
+        <v>359.02</v>
       </c>
     </row>
     <row r="25">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>393.53</v>
+        <v>393.49</v>
       </c>
       <c r="C25" t="n">
-        <v>424.18</v>
+        <v>423.7</v>
       </c>
       <c r="D25" t="n">
-        <v>416.63</v>
+        <v>364.88</v>
       </c>
     </row>
     <row r="26">
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>393.05</v>
+        <v>393.59</v>
       </c>
       <c r="C26" t="n">
-        <v>436.85</v>
+        <v>418.96</v>
       </c>
       <c r="D26" t="n">
-        <v>416.98</v>
+        <v>364.2</v>
       </c>
     </row>
     <row r="27">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>393.27</v>
+        <v>393.43</v>
       </c>
       <c r="C27" t="n">
-        <v>429.68</v>
+        <v>410.57</v>
       </c>
       <c r="D27" t="n">
-        <v>410.12</v>
+        <v>358.62</v>
       </c>
     </row>
     <row r="28">
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.08</v>
+        <v>392.88</v>
       </c>
       <c r="C28" t="n">
-        <v>423.63</v>
+        <v>402.05</v>
       </c>
       <c r="D28" t="n">
-        <v>400.34</v>
+        <v>351.65</v>
       </c>
     </row>
     <row r="29">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>394.73</v>
+        <v>392.03</v>
       </c>
       <c r="C29" t="n">
-        <v>411.4</v>
+        <v>402.95</v>
       </c>
       <c r="D29" t="n">
-        <v>391.22</v>
+        <v>345.99</v>
       </c>
     </row>
     <row r="30">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>395.83</v>
+        <v>390.9</v>
       </c>
       <c r="C30" t="n">
-        <v>415.46</v>
+        <v>385.5</v>
       </c>
       <c r="D30" t="n">
-        <v>380.59</v>
+        <v>338.87</v>
       </c>
     </row>
     <row r="31">
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>395.87</v>
+        <v>390.38</v>
       </c>
       <c r="C31" t="n">
-        <v>415.33</v>
+        <v>398.61</v>
       </c>
       <c r="D31" t="n">
-        <v>386.45</v>
+        <v>346.08</v>
       </c>
     </row>
   </sheetData>
@@ -995,13 +995,13 @@
         <v>45001</v>
       </c>
       <c r="B2" t="n">
-        <v>206.89</v>
+        <v>194.28</v>
       </c>
       <c r="C2" t="n">
-        <v>199.15</v>
+        <v>197.7</v>
       </c>
       <c r="D2" t="n">
-        <v>202.46</v>
+        <v>142.65</v>
       </c>
       <c r="E2" t="n">
         <v>209.25</v>
@@ -1012,13 +1012,13 @@
         <v>45002</v>
       </c>
       <c r="B3" t="n">
-        <v>210.7</v>
+        <v>196.48</v>
       </c>
       <c r="C3" t="n">
-        <v>196.98</v>
+        <v>206.01</v>
       </c>
       <c r="D3" t="n">
-        <v>210.3</v>
+        <v>145.75</v>
       </c>
       <c r="E3" t="n">
         <v>214.24</v>
@@ -1029,13 +1029,13 @@
         <v>45005</v>
       </c>
       <c r="B4" t="n">
-        <v>214.64</v>
+        <v>200.4</v>
       </c>
       <c r="C4" t="n">
-        <v>203.75</v>
+        <v>213.01</v>
       </c>
       <c r="D4" t="n">
-        <v>217.62</v>
+        <v>148.79</v>
       </c>
       <c r="E4" t="n">
         <v>202.04</v>
@@ -1046,13 +1046,13 @@
         <v>45006</v>
       </c>
       <c r="B5" t="n">
-        <v>211.51</v>
+        <v>203.23</v>
       </c>
       <c r="C5" t="n">
-        <v>202.61</v>
+        <v>205.84</v>
       </c>
       <c r="D5" t="n">
-        <v>210.04</v>
+        <v>146.75</v>
       </c>
       <c r="E5" t="n">
         <v>208.31</v>
@@ -1063,13 +1063,13 @@
         <v>45007</v>
       </c>
       <c r="B6" t="n">
-        <v>212.72</v>
+        <v>208.41</v>
       </c>
       <c r="C6" t="n">
-        <v>202.24</v>
+        <v>211.43</v>
       </c>
       <c r="D6" t="n">
-        <v>213.53</v>
+        <v>148.03</v>
       </c>
       <c r="E6" t="n">
         <v>197.37</v>
@@ -1080,13 +1080,13 @@
         <v>45008</v>
       </c>
       <c r="B7" t="n">
-        <v>208.63</v>
+        <v>208.67</v>
       </c>
       <c r="C7" t="n">
-        <v>198</v>
+        <v>201.62</v>
       </c>
       <c r="D7" t="n">
-        <v>204.87</v>
+        <v>145.47</v>
       </c>
       <c r="E7" t="n">
         <v>200.86</v>
@@ -1097,13 +1097,13 @@
         <v>45009</v>
       </c>
       <c r="B8" t="n">
-        <v>206.03</v>
+        <v>204.72</v>
       </c>
       <c r="C8" t="n">
-        <v>196.84</v>
+        <v>206.35</v>
       </c>
       <c r="D8" t="n">
-        <v>203.09</v>
+        <v>145.75</v>
       </c>
       <c r="E8" t="n">
         <v>202.07</v>
@@ -1114,13 +1114,13 @@
         <v>45012</v>
       </c>
       <c r="B9" t="n">
-        <v>204.21</v>
+        <v>197.93</v>
       </c>
       <c r="C9" t="n">
-        <v>197.48</v>
+        <v>205.29</v>
       </c>
       <c r="D9" t="n">
-        <v>201.82</v>
+        <v>146.04</v>
       </c>
       <c r="E9" t="n">
         <v>196.88</v>
@@ -1131,13 +1131,13 @@
         <v>45013</v>
       </c>
       <c r="B10" t="n">
-        <v>200.74</v>
+        <v>187.47</v>
       </c>
       <c r="C10" t="n">
-        <v>194.72</v>
+        <v>204.79</v>
       </c>
       <c r="D10" t="n">
-        <v>195.8</v>
+        <v>144.27</v>
       </c>
       <c r="E10" t="n">
         <v>207.63</v>
@@ -1148,13 +1148,13 @@
         <v>45014</v>
       </c>
       <c r="B11" t="n">
-        <v>202.66</v>
+        <v>185.02</v>
       </c>
       <c r="C11" t="n">
-        <v>201.37</v>
+        <v>212.88</v>
       </c>
       <c r="D11" t="n">
-        <v>199.69</v>
+        <v>147.22</v>
       </c>
       <c r="E11" t="n">
         <v>205.71</v>
@@ -1165,13 +1165,13 @@
         <v>45015</v>
       </c>
       <c r="B12" t="n">
-        <v>203.87</v>
+        <v>185.8</v>
       </c>
       <c r="C12" t="n">
-        <v>208.45</v>
+        <v>216.05</v>
       </c>
       <c r="D12" t="n">
-        <v>199.54</v>
+        <v>148.03</v>
       </c>
       <c r="E12" t="n">
         <v>202.77</v>
@@ -1182,13 +1182,13 @@
         <v>45016</v>
       </c>
       <c r="B13" t="n">
-        <v>204.21</v>
+        <v>188.64</v>
       </c>
       <c r="C13" t="n">
-        <v>211.66</v>
+        <v>211.7</v>
       </c>
       <c r="D13" t="n">
-        <v>198.53</v>
+        <v>147.82</v>
       </c>
       <c r="E13" t="n">
         <v>190.9</v>
@@ -1199,13 +1199,13 @@
         <v>45019</v>
       </c>
       <c r="B14" t="n">
-        <v>199.41</v>
+        <v>187.33</v>
       </c>
       <c r="C14" t="n">
-        <v>204.62</v>
+        <v>202.07</v>
       </c>
       <c r="D14" t="n">
-        <v>189.68</v>
+        <v>144.41</v>
       </c>
       <c r="E14" t="n">
         <v>197.79</v>
@@ -1216,13 +1216,13 @@
         <v>45020</v>
       </c>
       <c r="B15" t="n">
-        <v>199.09</v>
+        <v>189.45</v>
       </c>
       <c r="C15" t="n">
-        <v>203.65</v>
+        <v>202.05</v>
       </c>
       <c r="D15" t="n">
-        <v>191.04</v>
+        <v>145.74</v>
       </c>
       <c r="E15" t="n">
         <v>193.81</v>
@@ -1233,13 +1233,13 @@
         <v>45021</v>
       </c>
       <c r="B16" t="n">
-        <v>197.1</v>
+        <v>189.39</v>
       </c>
       <c r="C16" t="n">
-        <v>202.44</v>
+        <v>201.7</v>
       </c>
       <c r="D16" t="n">
-        <v>187.16</v>
+        <v>143.8</v>
       </c>
       <c r="E16" t="n">
         <v>187.71</v>
@@ -1250,13 +1250,13 @@
         <v>45022</v>
       </c>
       <c r="B17" t="n">
-        <v>193.36</v>
+        <v>186.95</v>
       </c>
       <c r="C17" t="n">
-        <v>200.27</v>
+        <v>193.56</v>
       </c>
       <c r="D17" t="n">
-        <v>181.61</v>
+        <v>142.11</v>
       </c>
       <c r="E17" t="n">
         <v>182</v>
@@ -1267,13 +1267,13 @@
         <v>45023</v>
       </c>
       <c r="B18" t="n">
-        <v>187.95</v>
+        <v>182.12</v>
       </c>
       <c r="C18" t="n">
-        <v>191.16</v>
+        <v>189.26</v>
       </c>
       <c r="D18" t="n">
-        <v>175.48</v>
+        <v>138.98</v>
       </c>
       <c r="E18" t="n">
         <v>172.92</v>
@@ -1284,13 +1284,13 @@
         <v>45026</v>
       </c>
       <c r="B19" t="n">
-        <v>181.42</v>
+        <v>175.68</v>
       </c>
       <c r="C19" t="n">
-        <v>187.06</v>
+        <v>181.92</v>
       </c>
       <c r="D19" t="n">
-        <v>170.36</v>
+        <v>135.62</v>
       </c>
       <c r="E19" t="n">
         <v>173.44</v>
@@ -1301,13 +1301,13 @@
         <v>45027</v>
       </c>
       <c r="B20" t="n">
-        <v>173.6</v>
+        <v>169.28</v>
       </c>
       <c r="C20" t="n">
-        <v>182.97</v>
+        <v>186.92</v>
       </c>
       <c r="D20" t="n">
-        <v>165.99</v>
+        <v>133.66</v>
       </c>
       <c r="E20" t="n">
         <v>174.48</v>
@@ -1318,13 +1318,13 @@
         <v>45028</v>
       </c>
       <c r="B21" t="n">
-        <v>167.81</v>
+        <v>163.52</v>
       </c>
       <c r="C21" t="n">
-        <v>176.18</v>
+        <v>179.31</v>
       </c>
       <c r="D21" t="n">
-        <v>162.57</v>
+        <v>131.39</v>
       </c>
       <c r="E21" t="n">
         <v>183.26</v>
@@ -1335,13 +1335,13 @@
         <v>45029</v>
       </c>
       <c r="B22" t="n">
-        <v>168.33</v>
+        <v>161.8</v>
       </c>
       <c r="C22" t="n">
-        <v>174.57</v>
+        <v>180.91</v>
       </c>
       <c r="D22" t="n">
-        <v>164.38</v>
+        <v>133.01</v>
       </c>
       <c r="E22" t="n">
         <v>180.45</v>
@@ -1352,13 +1352,13 @@
         <v>45030</v>
       </c>
       <c r="B23" t="n">
-        <v>168.39</v>
+        <v>161.46</v>
       </c>
       <c r="C23" t="n">
-        <v>174.15</v>
+        <v>177.72</v>
       </c>
       <c r="D23" t="n">
-        <v>161.97</v>
+        <v>132.45</v>
       </c>
       <c r="E23" t="n">
         <v>184.13</v>
@@ -1369,13 +1369,13 @@
         <v>45033</v>
       </c>
       <c r="B24" t="n">
-        <v>172.68</v>
+        <v>163.55</v>
       </c>
       <c r="C24" t="n">
-        <v>178.01</v>
+        <v>184.18</v>
       </c>
       <c r="D24" t="n">
-        <v>163.94</v>
+        <v>133.98</v>
       </c>
       <c r="E24" t="n">
         <v>180.13</v>
@@ -1386,13 +1386,13 @@
         <v>45034</v>
       </c>
       <c r="B25" t="n">
-        <v>173.65</v>
+        <v>166.01</v>
       </c>
       <c r="C25" t="n">
-        <v>175.83</v>
+        <v>182.85</v>
       </c>
       <c r="D25" t="n">
-        <v>162.08</v>
+        <v>133.64</v>
       </c>
       <c r="E25" t="n">
         <v>183.25</v>
@@ -1403,13 +1403,13 @@
         <v>45035</v>
       </c>
       <c r="B26" t="n">
-        <v>179.26</v>
+        <v>170.53</v>
       </c>
       <c r="C26" t="n">
-        <v>180.22</v>
+        <v>188.09</v>
       </c>
       <c r="D26" t="n">
-        <v>166.81</v>
+        <v>136.38</v>
       </c>
       <c r="E26" t="n">
         <v>197.58</v>
@@ -1420,13 +1420,13 @@
         <v>45036</v>
       </c>
       <c r="B27" t="n">
-        <v>185.31</v>
+        <v>176.35</v>
       </c>
       <c r="C27" t="n">
-        <v>190.74</v>
+        <v>195.68</v>
       </c>
       <c r="D27" t="n">
-        <v>174.55</v>
+        <v>140.66</v>
       </c>
       <c r="E27" t="n">
         <v>191.15</v>
@@ -1437,13 +1437,13 @@
         <v>45037</v>
       </c>
       <c r="B28" t="n">
-        <v>189</v>
+        <v>185.48</v>
       </c>
       <c r="C28" t="n">
-        <v>193.04</v>
+        <v>195.72</v>
       </c>
       <c r="D28" t="n">
-        <v>176.17</v>
+        <v>140.97</v>
       </c>
       <c r="E28" t="n">
         <v>192.22</v>
@@ -1454,13 +1454,13 @@
         <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>190.94</v>
+        <v>197.73</v>
       </c>
       <c r="C29" t="n">
-        <v>186.71</v>
+        <v>196.88</v>
       </c>
       <c r="D29" t="n">
-        <v>178.83</v>
+        <v>142.57</v>
       </c>
       <c r="E29" t="n">
         <v>190.41</v>
@@ -1471,13 +1471,13 @@
         <v>45041</v>
       </c>
       <c r="B30" t="n">
-        <v>191</v>
+        <v>206.9</v>
       </c>
       <c r="C30" t="n">
-        <v>190.29</v>
+        <v>186.84</v>
       </c>
       <c r="D30" t="n">
-        <v>179.53</v>
+        <v>142.28</v>
       </c>
       <c r="E30" t="n">
         <v>191.81</v>
@@ -1488,13 +1488,13 @@
         <v>45042</v>
       </c>
       <c r="B31" t="n">
-        <v>191.94</v>
+        <v>210.59</v>
       </c>
       <c r="C31" t="n">
-        <v>195.43</v>
+        <v>191.92</v>
       </c>
       <c r="D31" t="n">
-        <v>182.42</v>
+        <v>142.49</v>
       </c>
       <c r="E31" t="n">
         <v>189.19</v>
@@ -1505,13 +1505,13 @@
         <v>45043</v>
       </c>
       <c r="B32" t="n">
-        <v>191.9</v>
+        <v>211.78</v>
       </c>
       <c r="C32" t="n">
-        <v>189.84</v>
+        <v>186.6</v>
       </c>
       <c r="D32" t="n">
-        <v>181.89</v>
+        <v>140.93</v>
       </c>
       <c r="E32" t="n">
         <v>193.88</v>
@@ -1522,13 +1522,13 @@
         <v>45044</v>
       </c>
       <c r="B33" t="n">
-        <v>194.54</v>
+        <v>213.18</v>
       </c>
       <c r="C33" t="n">
-        <v>193.42</v>
+        <v>194.18</v>
       </c>
       <c r="D33" t="n">
-        <v>187.24</v>
+        <v>142.03</v>
       </c>
       <c r="E33" t="n">
         <v>195.28</v>
@@ -1539,13 +1539,13 @@
         <v>45047</v>
       </c>
       <c r="B34" t="n">
-        <v>197.09</v>
+        <v>214.52</v>
       </c>
       <c r="C34" t="n">
-        <v>198.33</v>
+        <v>193.8</v>
       </c>
       <c r="D34" t="n">
-        <v>190.35</v>
+        <v>143.19</v>
       </c>
       <c r="E34" t="n">
         <v>207.46</v>
@@ -1556,13 +1556,13 @@
         <v>45048</v>
       </c>
       <c r="B35" t="n">
-        <v>202.72</v>
+        <v>216.84</v>
       </c>
       <c r="C35" t="n">
-        <v>205.67</v>
+        <v>200.55</v>
       </c>
       <c r="D35" t="n">
-        <v>198.51</v>
+        <v>146.79</v>
       </c>
       <c r="E35" t="n">
         <v>194.77</v>
@@ -1573,13 +1573,13 @@
         <v>45049</v>
       </c>
       <c r="B36" t="n">
-        <v>200.48</v>
+        <v>216.61</v>
       </c>
       <c r="C36" t="n">
-        <v>196.41</v>
+        <v>192.69</v>
       </c>
       <c r="D36" t="n">
-        <v>191.06</v>
+        <v>144.45</v>
       </c>
       <c r="E36" t="n">
         <v>192.58</v>
@@ -1590,13 +1590,13 @@
         <v>45050</v>
       </c>
       <c r="B37" t="n">
-        <v>197.06</v>
+        <v>214.32</v>
       </c>
       <c r="C37" t="n">
-        <v>188.78</v>
+        <v>187.16</v>
       </c>
       <c r="D37" t="n">
-        <v>185.87</v>
+        <v>142.14</v>
       </c>
       <c r="E37" t="n">
         <v>185.52</v>
@@ -1607,13 +1607,13 @@
         <v>45051</v>
       </c>
       <c r="B38" t="n">
-        <v>192.5</v>
+        <v>210.51</v>
       </c>
       <c r="C38" t="n">
-        <v>181.73</v>
+        <v>174.13</v>
       </c>
       <c r="D38" t="n">
-        <v>179.06</v>
+        <v>140.48</v>
       </c>
       <c r="E38" t="n">
         <v>185.06</v>
@@ -1624,13 +1624,13 @@
         <v>45054</v>
       </c>
       <c r="B39" t="n">
-        <v>188.09</v>
+        <v>205.59</v>
       </c>
       <c r="C39" t="n">
-        <v>179.43</v>
+        <v>173.49</v>
       </c>
       <c r="D39" t="n">
-        <v>173.99</v>
+        <v>138.93</v>
       </c>
       <c r="E39" t="n">
         <v>184.51</v>
@@ -1641,13 +1641,13 @@
         <v>45055</v>
       </c>
       <c r="B40" t="n">
-        <v>183.25</v>
+        <v>199.31</v>
       </c>
       <c r="C40" t="n">
-        <v>176.55</v>
+        <v>171.05</v>
       </c>
       <c r="D40" t="n">
-        <v>169.89</v>
+        <v>137.96</v>
       </c>
       <c r="E40" t="n">
         <v>186.79</v>
@@ -1658,13 +1658,13 @@
         <v>45056</v>
       </c>
       <c r="B41" t="n">
-        <v>178.05</v>
+        <v>191.42</v>
       </c>
       <c r="C41" t="n">
-        <v>170.1</v>
+        <v>180.69</v>
       </c>
       <c r="D41" t="n">
-        <v>166.29</v>
+        <v>137.82</v>
       </c>
       <c r="E41" t="n">
         <v>180.54</v>
@@ -1675,13 +1675,13 @@
         <v>45057</v>
       </c>
       <c r="B42" t="n">
-        <v>172.95</v>
+        <v>181.72</v>
       </c>
       <c r="C42" t="n">
-        <v>168.94</v>
+        <v>173.94</v>
       </c>
       <c r="D42" t="n">
-        <v>161.67</v>
+        <v>135.99</v>
       </c>
       <c r="E42" t="n">
         <v>185.9</v>
@@ -1692,13 +1692,13 @@
         <v>45058</v>
       </c>
       <c r="B43" t="n">
-        <v>172.08</v>
+        <v>173.33</v>
       </c>
       <c r="C43" t="n">
-        <v>168.16</v>
+        <v>178.39</v>
       </c>
       <c r="D43" t="n">
-        <v>161.09</v>
+        <v>136.08</v>
       </c>
       <c r="E43" t="n">
         <v>185</v>
@@ -1709,13 +1709,13 @@
         <v>45061</v>
       </c>
       <c r="B44" t="n">
-        <v>173.62</v>
+        <v>168.28</v>
       </c>
       <c r="C44" t="n">
-        <v>169.75</v>
+        <v>177.7</v>
       </c>
       <c r="D44" t="n">
-        <v>161.02</v>
+        <v>136.52</v>
       </c>
       <c r="E44" t="n">
         <v>187.04</v>
@@ -1726,13 +1726,13 @@
         <v>45062</v>
       </c>
       <c r="B45" t="n">
-        <v>178.2</v>
+        <v>166.68</v>
       </c>
       <c r="C45" t="n">
-        <v>172.78</v>
+        <v>185.61</v>
       </c>
       <c r="D45" t="n">
-        <v>162.48</v>
+        <v>137.8</v>
       </c>
       <c r="E45" t="n">
         <v>184.31</v>
@@ -1743,13 +1743,13 @@
         <v>45063</v>
       </c>
       <c r="B46" t="n">
-        <v>182.71</v>
+        <v>168.3</v>
       </c>
       <c r="C46" t="n">
-        <v>177.26</v>
+        <v>187.78</v>
       </c>
       <c r="D46" t="n">
-        <v>164.27</v>
+        <v>139.68</v>
       </c>
       <c r="E46" t="n">
         <v>180.59</v>
@@ -1760,13 +1760,13 @@
         <v>45064</v>
       </c>
       <c r="B47" t="n">
-        <v>180.75</v>
+        <v>169.6</v>
       </c>
       <c r="C47" t="n">
-        <v>175.33</v>
+        <v>175.39</v>
       </c>
       <c r="D47" t="n">
-        <v>158.03</v>
+        <v>137.4</v>
       </c>
       <c r="E47" t="n">
         <v>162.99</v>
@@ -1777,13 +1777,13 @@
         <v>45065</v>
       </c>
       <c r="B48" t="n">
-        <v>173.24</v>
+        <v>166.74</v>
       </c>
       <c r="C48" t="n">
-        <v>171.96</v>
+        <v>162.59</v>
       </c>
       <c r="D48" t="n">
-        <v>151.95</v>
+        <v>133.92</v>
       </c>
       <c r="E48" t="n">
         <v>165.08</v>
@@ -1794,13 +1794,13 @@
         <v>45068</v>
       </c>
       <c r="B49" t="n">
-        <v>164.8</v>
+        <v>162.85</v>
       </c>
       <c r="C49" t="n">
-        <v>171.55</v>
+        <v>166.85</v>
       </c>
       <c r="D49" t="n">
-        <v>148.57</v>
+        <v>132.55</v>
       </c>
       <c r="E49" t="n">
         <v>162.55</v>
@@ -1811,13 +1811,13 @@
         <v>45069</v>
       </c>
       <c r="B50" t="n">
-        <v>157.17</v>
+        <v>158.3</v>
       </c>
       <c r="C50" t="n">
-        <v>171.01</v>
+        <v>167.97</v>
       </c>
       <c r="D50" t="n">
-        <v>145.5</v>
+        <v>130</v>
       </c>
       <c r="E50" t="n">
         <v>160.67</v>
@@ -1828,13 +1828,13 @@
         <v>45070</v>
       </c>
       <c r="B51" t="n">
-        <v>151.19</v>
+        <v>153.67</v>
       </c>
       <c r="C51" t="n">
-        <v>167.76</v>
+        <v>166.17</v>
       </c>
       <c r="D51" t="n">
-        <v>142.05</v>
+        <v>127.49</v>
       </c>
       <c r="E51" t="n">
         <v>153.75</v>
@@ -1845,13 +1845,13 @@
         <v>45071</v>
       </c>
       <c r="B52" t="n">
-        <v>147.74</v>
+        <v>149.59</v>
       </c>
       <c r="C52" t="n">
-        <v>158.55</v>
+        <v>160.43</v>
       </c>
       <c r="D52" t="n">
-        <v>138.2</v>
+        <v>125.13</v>
       </c>
       <c r="E52" t="n">
         <v>160.19</v>
@@ -1862,13 +1862,13 @@
         <v>45072</v>
       </c>
       <c r="B53" t="n">
-        <v>144.71</v>
+        <v>147.55</v>
       </c>
       <c r="C53" t="n">
-        <v>157.31</v>
+        <v>157.99</v>
       </c>
       <c r="D53" t="n">
-        <v>137.59</v>
+        <v>124.09</v>
       </c>
       <c r="E53" t="n">
         <v>164.31</v>
@@ -1879,13 +1879,13 @@
         <v>45075</v>
       </c>
       <c r="B54" t="n">
-        <v>145.06</v>
+        <v>147.05</v>
       </c>
       <c r="C54" t="n">
-        <v>154.07</v>
+        <v>160.3</v>
       </c>
       <c r="D54" t="n">
-        <v>138.57</v>
+        <v>124.09</v>
       </c>
       <c r="E54" t="n">
         <v>161.83</v>
@@ -1896,13 +1896,13 @@
         <v>45076</v>
       </c>
       <c r="B55" t="n">
-        <v>145.63</v>
+        <v>147.19</v>
       </c>
       <c r="C55" t="n">
-        <v>157.02</v>
+        <v>158.14</v>
       </c>
       <c r="D55" t="n">
-        <v>136.66</v>
+        <v>122.97</v>
       </c>
       <c r="E55" t="n">
         <v>160.31</v>
@@ -1913,13 +1913,13 @@
         <v>45077</v>
       </c>
       <c r="B56" t="n">
-        <v>149.25</v>
+        <v>148.06</v>
       </c>
       <c r="C56" t="n">
-        <v>155.01</v>
+        <v>162.31</v>
       </c>
       <c r="D56" t="n">
-        <v>137.64</v>
+        <v>123.72</v>
       </c>
       <c r="E56" t="n">
         <v>160.61</v>
@@ -1930,13 +1930,13 @@
         <v>45078</v>
       </c>
       <c r="B57" t="n">
-        <v>150.52</v>
+        <v>149.46</v>
       </c>
       <c r="C57" t="n">
-        <v>154.61</v>
+        <v>160.39</v>
       </c>
       <c r="D57" t="n">
-        <v>137.9</v>
+        <v>125.09</v>
       </c>
       <c r="E57" t="n">
         <v>161.2</v>
@@ -1947,13 +1947,13 @@
         <v>45079</v>
       </c>
       <c r="B58" t="n">
-        <v>151.96</v>
+        <v>151.59</v>
       </c>
       <c r="C58" t="n">
-        <v>155.27</v>
+        <v>158.61</v>
       </c>
       <c r="D58" t="n">
-        <v>139.93</v>
+        <v>127.51</v>
       </c>
       <c r="E58" t="n">
         <v>170.06</v>
@@ -1964,13 +1964,13 @@
         <v>45082</v>
       </c>
       <c r="B59" t="n">
-        <v>157.2</v>
+        <v>154.33</v>
       </c>
       <c r="C59" t="n">
-        <v>159.74</v>
+        <v>164.36</v>
       </c>
       <c r="D59" t="n">
-        <v>145.77</v>
+        <v>130.63</v>
       </c>
       <c r="E59" t="n">
         <v>171.79</v>
@@ -1981,13 +1981,13 @@
         <v>45083</v>
       </c>
       <c r="B60" t="n">
-        <v>163.76</v>
+        <v>158.05</v>
       </c>
       <c r="C60" t="n">
-        <v>166.96</v>
+        <v>175.7</v>
       </c>
       <c r="D60" t="n">
-        <v>151.11</v>
+        <v>133.16</v>
       </c>
       <c r="E60" t="n">
         <v>169.15</v>
@@ -1998,13 +1998,13 @@
         <v>45084</v>
       </c>
       <c r="B61" t="n">
-        <v>168.63</v>
+        <v>165.24</v>
       </c>
       <c r="C61" t="n">
-        <v>165.49</v>
+        <v>174.83</v>
       </c>
       <c r="D61" t="n">
-        <v>152.19</v>
+        <v>133.51</v>
       </c>
       <c r="E61" t="n">
         <v>168.54</v>
@@ -2015,13 +2015,13 @@
         <v>45085</v>
       </c>
       <c r="B62" t="n">
-        <v>172.14</v>
+        <v>179.17</v>
       </c>
       <c r="C62" t="n">
-        <v>161.7</v>
+        <v>170.7</v>
       </c>
       <c r="D62" t="n">
-        <v>155.35</v>
+        <v>133.42</v>
       </c>
       <c r="E62" t="n">
         <v>172.08</v>
@@ -2032,13 +2032,13 @@
         <v>45086</v>
       </c>
       <c r="B63" t="n">
-        <v>176.32</v>
+        <v>193.12</v>
       </c>
       <c r="C63" t="n">
-        <v>164.36</v>
+        <v>172.23</v>
       </c>
       <c r="D63" t="n">
-        <v>160.63</v>
+        <v>134.84</v>
       </c>
       <c r="E63" t="n">
         <v>167.98</v>
@@ -2049,13 +2049,13 @@
         <v>45089</v>
       </c>
       <c r="B64" t="n">
-        <v>177.36</v>
+        <v>201.75</v>
       </c>
       <c r="C64" t="n">
-        <v>166.28</v>
+        <v>166.52</v>
       </c>
       <c r="D64" t="n">
-        <v>160.53</v>
+        <v>133.8</v>
       </c>
       <c r="E64" t="n">
         <v>166.35</v>
@@ -2066,13 +2066,13 @@
         <v>45090</v>
       </c>
       <c r="B65" t="n">
-        <v>176.21</v>
+        <v>204.12</v>
       </c>
       <c r="C65" t="n">
-        <v>159.64</v>
+        <v>162.81</v>
       </c>
       <c r="D65" t="n">
-        <v>158.87</v>
+        <v>132.6</v>
       </c>
       <c r="E65" t="n">
         <v>166.52</v>
@@ -2083,13 +2083,13 @@
         <v>45091</v>
       </c>
       <c r="B66" t="n">
-        <v>176.21</v>
+        <v>204.17</v>
       </c>
       <c r="C66" t="n">
-        <v>155.93</v>
+        <v>155.49</v>
       </c>
       <c r="D66" t="n">
-        <v>158.79</v>
+        <v>131.23</v>
       </c>
       <c r="E66" t="n">
         <v>173.86</v>
@@ -2100,13 +2100,13 @@
         <v>45092</v>
       </c>
       <c r="B67" t="n">
-        <v>179.95</v>
+        <v>205.22</v>
       </c>
       <c r="C67" t="n">
-        <v>158.31</v>
+        <v>168.35</v>
       </c>
       <c r="D67" t="n">
-        <v>165.16</v>
+        <v>133.72</v>
       </c>
       <c r="E67" t="n">
         <v>176.89</v>
@@ -2117,13 +2117,13 @@
         <v>45093</v>
       </c>
       <c r="B68" t="n">
-        <v>184.1</v>
+        <v>206.87</v>
       </c>
       <c r="C68" t="n">
-        <v>168.99</v>
+        <v>174.34</v>
       </c>
       <c r="D68" t="n">
-        <v>169.45</v>
+        <v>136.15</v>
       </c>
       <c r="E68" t="n">
         <v>180.14</v>
@@ -2134,13 +2134,13 @@
         <v>45096</v>
       </c>
       <c r="B69" t="n">
-        <v>188.55</v>
+        <v>208.96</v>
       </c>
       <c r="C69" t="n">
-        <v>169.47</v>
+        <v>181.12</v>
       </c>
       <c r="D69" t="n">
-        <v>173.61</v>
+        <v>137.35</v>
       </c>
       <c r="E69" t="n">
         <v>188.87</v>
@@ -2151,13 +2151,13 @@
         <v>45097</v>
       </c>
       <c r="B70" t="n">
-        <v>192.66</v>
+        <v>211.57</v>
       </c>
       <c r="C70" t="n">
-        <v>174.43</v>
+        <v>185.55</v>
       </c>
       <c r="D70" t="n">
-        <v>179.38</v>
+        <v>139.66</v>
       </c>
       <c r="E70" t="n">
         <v>185.77</v>
@@ -2168,13 +2168,13 @@
         <v>45098</v>
       </c>
       <c r="B71" t="n">
-        <v>194.93</v>
+        <v>213.6</v>
       </c>
       <c r="C71" t="n">
-        <v>177.15</v>
+        <v>189.86</v>
       </c>
       <c r="D71" t="n">
-        <v>180.12</v>
+        <v>140.99</v>
       </c>
       <c r="E71" t="n">
         <v>182.9</v>
@@ -2185,13 +2185,13 @@
         <v>45099</v>
       </c>
       <c r="B72" t="n">
-        <v>195.71</v>
+        <v>214.41</v>
       </c>
       <c r="C72" t="n">
-        <v>180.08</v>
+        <v>189.8</v>
       </c>
       <c r="D72" t="n">
-        <v>179.56</v>
+        <v>141.69</v>
       </c>
       <c r="E72" t="n">
         <v>184.47</v>
@@ -2202,13 +2202,13 @@
         <v>45100</v>
       </c>
       <c r="B73" t="n">
-        <v>196.28</v>
+        <v>214.85</v>
       </c>
       <c r="C73" t="n">
-        <v>176.42</v>
+        <v>193.33</v>
       </c>
       <c r="D73" t="n">
-        <v>180.68</v>
+        <v>142.86</v>
       </c>
       <c r="E73" t="n">
         <v>193.17</v>
@@ -2219,13 +2219,13 @@
         <v>45103</v>
       </c>
       <c r="B74" t="n">
-        <v>199.28</v>
+        <v>216.36</v>
       </c>
       <c r="C74" t="n">
-        <v>179.96</v>
+        <v>201.16</v>
       </c>
       <c r="D74" t="n">
-        <v>187.07</v>
+        <v>145.52</v>
       </c>
       <c r="E74" t="n">
         <v>201.16</v>
@@ -2236,13 +2236,13 @@
         <v>45104</v>
       </c>
       <c r="B75" t="n">
-        <v>203.59</v>
+        <v>218.68</v>
       </c>
       <c r="C75" t="n">
-        <v>181.73</v>
+        <v>210.33</v>
       </c>
       <c r="D75" t="n">
-        <v>193.6</v>
+        <v>147.79</v>
       </c>
       <c r="E75" t="n">
         <v>203.93</v>
@@ -2253,13 +2253,13 @@
         <v>45105</v>
       </c>
       <c r="B76" t="n">
-        <v>208.06</v>
+        <v>221.44</v>
       </c>
       <c r="C76" t="n">
-        <v>191.69</v>
+        <v>212.6</v>
       </c>
       <c r="D76" t="n">
-        <v>199.3</v>
+        <v>149.79</v>
       </c>
       <c r="E76" t="n">
         <v>207.52</v>
@@ -2270,13 +2270,13 @@
         <v>45106</v>
       </c>
       <c r="B77" t="n">
-        <v>212.27</v>
+        <v>224.36</v>
       </c>
       <c r="C77" t="n">
-        <v>197.52</v>
+        <v>216.31</v>
       </c>
       <c r="D77" t="n">
-        <v>204.54</v>
+        <v>151.51</v>
       </c>
       <c r="E77" t="n">
         <v>213.97</v>
@@ -2287,13 +2287,13 @@
         <v>45107</v>
       </c>
       <c r="B78" t="n">
-        <v>217.27</v>
+        <v>227.82</v>
       </c>
       <c r="C78" t="n">
-        <v>206.45</v>
+        <v>221.27</v>
       </c>
       <c r="D78" t="n">
-        <v>211.8</v>
+        <v>153.48</v>
       </c>
       <c r="E78" t="n">
         <v>217.61</v>
@@ -2304,13 +2304,13 @@
         <v>45110</v>
       </c>
       <c r="B79" t="n">
-        <v>222.44</v>
+        <v>231.43</v>
       </c>
       <c r="C79" t="n">
-        <v>211.13</v>
+        <v>226.61</v>
       </c>
       <c r="D79" t="n">
-        <v>217.77</v>
+        <v>155.01</v>
       </c>
       <c r="E79" t="n">
         <v>221.31</v>
@@ -2321,13 +2321,13 @@
         <v>45111</v>
       </c>
       <c r="B80" t="n">
-        <v>227.16</v>
+        <v>234.9</v>
       </c>
       <c r="C80" t="n">
-        <v>219.32</v>
+        <v>227.81</v>
       </c>
       <c r="D80" t="n">
-        <v>223.32</v>
+        <v>156.38</v>
       </c>
       <c r="E80" t="n">
         <v>224.57</v>
@@ -2338,13 +2338,13 @@
         <v>45112</v>
       </c>
       <c r="B81" t="n">
-        <v>230.98</v>
+        <v>238.56</v>
       </c>
       <c r="C81" t="n">
-        <v>222.81</v>
+        <v>230.77</v>
       </c>
       <c r="D81" t="n">
-        <v>229.08</v>
+        <v>158.71</v>
       </c>
       <c r="E81" t="n">
         <v>234.86</v>
@@ -2355,13 +2355,13 @@
         <v>45113</v>
       </c>
       <c r="B82" t="n">
-        <v>234.85</v>
+        <v>242.93</v>
       </c>
       <c r="C82" t="n">
-        <v>229.5</v>
+        <v>237.48</v>
       </c>
       <c r="D82" t="n">
-        <v>236.08</v>
+        <v>161.83</v>
       </c>
       <c r="E82" t="n">
         <v>244.4</v>
@@ -2372,13 +2372,13 @@
         <v>45114</v>
       </c>
       <c r="B83" t="n">
-        <v>239.07</v>
+        <v>248.2</v>
       </c>
       <c r="C83" t="n">
-        <v>235.6</v>
+        <v>246.84</v>
       </c>
       <c r="D83" t="n">
-        <v>244.07</v>
+        <v>164.93</v>
       </c>
       <c r="E83" t="n">
         <v>249.83</v>
@@ -2389,13 +2389,13 @@
         <v>45117</v>
       </c>
       <c r="B84" t="n">
-        <v>243.14</v>
+        <v>253.93</v>
       </c>
       <c r="C84" t="n">
-        <v>243.87</v>
+        <v>251.66</v>
       </c>
       <c r="D84" t="n">
-        <v>251.13</v>
+        <v>167.41</v>
       </c>
       <c r="E84" t="n">
         <v>258.71</v>
@@ -2406,13 +2406,13 @@
         <v>45118</v>
       </c>
       <c r="B85" t="n">
-        <v>248.06</v>
+        <v>260.91</v>
       </c>
       <c r="C85" t="n">
-        <v>246.33</v>
+        <v>256.73</v>
       </c>
       <c r="D85" t="n">
-        <v>259.8</v>
+        <v>170.43</v>
       </c>
       <c r="E85" t="n">
         <v>256.79</v>
@@ -2423,13 +2423,13 @@
         <v>45119</v>
       </c>
       <c r="B86" t="n">
-        <v>252.66</v>
+        <v>267.23</v>
       </c>
       <c r="C86" t="n">
-        <v>249.29</v>
+        <v>257.97</v>
       </c>
       <c r="D86" t="n">
-        <v>265.54</v>
+        <v>172.25</v>
       </c>
       <c r="E86" t="n">
         <v>255.9</v>
@@ -2440,13 +2440,13 @@
         <v>45120</v>
       </c>
       <c r="B87" t="n">
-        <v>257.18</v>
+        <v>272.32</v>
       </c>
       <c r="C87" t="n">
-        <v>254.91</v>
+        <v>261.13</v>
       </c>
       <c r="D87" t="n">
-        <v>270.22</v>
+        <v>173.96</v>
       </c>
       <c r="E87" t="n">
         <v>260.54</v>
@@ -2457,13 +2457,13 @@
         <v>45121</v>
       </c>
       <c r="B88" t="n">
-        <v>262.7</v>
+        <v>277.65</v>
       </c>
       <c r="C88" t="n">
-        <v>261.85</v>
+        <v>264.79</v>
       </c>
       <c r="D88" t="n">
-        <v>276.87</v>
+        <v>176.88</v>
       </c>
       <c r="E88" t="n">
         <v>274.45</v>
@@ -2474,13 +2474,13 @@
         <v>45124</v>
       </c>
       <c r="B89" t="n">
-        <v>270.86</v>
+        <v>284.19</v>
       </c>
       <c r="C89" t="n">
-        <v>267.32</v>
+        <v>274.22</v>
       </c>
       <c r="D89" t="n">
-        <v>285.61</v>
+        <v>181.36</v>
       </c>
       <c r="E89" t="n">
         <v>259.46</v>
@@ -2491,13 +2491,13 @@
         <v>45125</v>
       </c>
       <c r="B90" t="n">
-        <v>269.7</v>
+        <v>283.76</v>
       </c>
       <c r="C90" t="n">
-        <v>268.45</v>
+        <v>268.34</v>
       </c>
       <c r="D90" t="n">
-        <v>280.15</v>
+        <v>180.12</v>
       </c>
       <c r="E90" t="n">
         <v>264.61</v>
@@ -2508,13 +2508,13 @@
         <v>45126</v>
       </c>
       <c r="B91" t="n">
-        <v>270.28</v>
+        <v>282.58</v>
       </c>
       <c r="C91" t="n">
-        <v>268.5</v>
+        <v>272.88</v>
       </c>
       <c r="D91" t="n">
-        <v>281.56</v>
+        <v>181.88</v>
       </c>
       <c r="E91" t="n">
         <v>256.6</v>
@@ -2525,13 +2525,13 @@
         <v>45127</v>
       </c>
       <c r="B92" t="n">
-        <v>265.28</v>
+        <v>275.28</v>
       </c>
       <c r="C92" t="n">
-        <v>266.44</v>
+        <v>261.41</v>
       </c>
       <c r="D92" t="n">
-        <v>273.47</v>
+        <v>180.09</v>
       </c>
       <c r="E92" t="n">
         <v>241.05</v>
@@ -2542,13 +2542,13 @@
         <v>45128</v>
       </c>
       <c r="B93" t="n">
-        <v>257.06</v>
+        <v>261.75</v>
       </c>
       <c r="C93" t="n">
-        <v>259.48</v>
+        <v>251.88</v>
       </c>
       <c r="D93" t="n">
-        <v>260.61</v>
+        <v>176.49</v>
       </c>
       <c r="E93" t="n">
         <v>250.21</v>
@@ -2559,13 +2559,13 @@
         <v>45131</v>
       </c>
       <c r="B94" t="n">
-        <v>253.94</v>
+        <v>252.44</v>
       </c>
       <c r="C94" t="n">
-        <v>253.38</v>
+        <v>256.46</v>
       </c>
       <c r="D94" t="n">
-        <v>258.54</v>
+        <v>177.42</v>
       </c>
       <c r="E94" t="n">
         <v>256.24</v>
@@ -2576,13 +2576,13 @@
         <v>45132</v>
       </c>
       <c r="B95" t="n">
-        <v>253.59</v>
+        <v>247.2</v>
       </c>
       <c r="C95" t="n">
-        <v>258.85</v>
+        <v>260.15</v>
       </c>
       <c r="D95" t="n">
-        <v>258.88</v>
+        <v>178.98</v>
       </c>
       <c r="E95" t="n">
         <v>257.5</v>
@@ -2593,13 +2593,13 @@
         <v>45133</v>
       </c>
       <c r="B96" t="n">
-        <v>254.03</v>
+        <v>244.42</v>
       </c>
       <c r="C96" t="n">
-        <v>268.28</v>
+        <v>262.65</v>
       </c>
       <c r="D96" t="n">
-        <v>258.94</v>
+        <v>180.86</v>
       </c>
       <c r="E96" t="n">
         <v>261.77</v>
@@ -2610,13 +2610,13 @@
         <v>45134</v>
       </c>
       <c r="B97" t="n">
-        <v>255.65</v>
+        <v>244.06</v>
       </c>
       <c r="C97" t="n">
-        <v>271.65</v>
+        <v>267.39</v>
       </c>
       <c r="D97" t="n">
-        <v>260.86</v>
+        <v>183.63</v>
       </c>
       <c r="E97" t="n">
         <v>279.82</v>
@@ -2627,13 +2627,13 @@
         <v>45135</v>
       </c>
       <c r="B98" t="n">
-        <v>261.89</v>
+        <v>248.64</v>
       </c>
       <c r="C98" t="n">
-        <v>276.55</v>
+        <v>279.98</v>
       </c>
       <c r="D98" t="n">
-        <v>271.72</v>
+        <v>190.49</v>
       </c>
       <c r="E98" t="n">
         <v>282.48</v>
@@ -2644,13 +2644,13 @@
         <v>45138</v>
       </c>
       <c r="B99" t="n">
-        <v>267.9</v>
+        <v>255.31</v>
       </c>
       <c r="C99" t="n">
-        <v>282.11</v>
+        <v>288.41</v>
       </c>
       <c r="D99" t="n">
-        <v>277.93</v>
+        <v>194.3</v>
       </c>
       <c r="E99" t="n">
         <v>276.54</v>
@@ -2661,13 +2661,13 @@
         <v>45139</v>
       </c>
       <c r="B100" t="n">
-        <v>271.9</v>
+        <v>262.78</v>
       </c>
       <c r="C100" t="n">
-        <v>285.55</v>
+        <v>290.92</v>
       </c>
       <c r="D100" t="n">
-        <v>281.41</v>
+        <v>196.89</v>
       </c>
       <c r="E100" t="n">
         <v>274.43</v>
@@ -2678,13 +2678,13 @@
         <v>45140</v>
       </c>
       <c r="B101" t="n">
-        <v>273.45</v>
+        <v>269.48</v>
       </c>
       <c r="C101" t="n">
-        <v>283.03</v>
+        <v>284.25</v>
       </c>
       <c r="D101" t="n">
-        <v>282.83</v>
+        <v>197.9</v>
       </c>
       <c r="E101" t="n">
         <v>269.61</v>
@@ -2695,13 +2695,13 @@
         <v>45141</v>
       </c>
       <c r="B102" t="n">
-        <v>271.77</v>
+        <v>273.62</v>
       </c>
       <c r="C102" t="n">
-        <v>278.66</v>
+        <v>279.12</v>
       </c>
       <c r="D102" t="n">
-        <v>282.14</v>
+        <v>198.57</v>
       </c>
       <c r="E102" t="n">
         <v>269.79</v>
@@ -2712,13 +2712,13 @@
         <v>45142</v>
       </c>
       <c r="B103" t="n">
-        <v>268.41</v>
+        <v>275.28</v>
       </c>
       <c r="C103" t="n">
-        <v>280.18</v>
+        <v>282.37</v>
       </c>
       <c r="D103" t="n">
-        <v>280.93</v>
+        <v>199.26</v>
       </c>
       <c r="E103" t="n">
         <v>271.99</v>
@@ -2729,13 +2729,13 @@
         <v>45145</v>
       </c>
       <c r="B104" t="n">
-        <v>267.53</v>
+        <v>276.76</v>
       </c>
       <c r="C104" t="n">
-        <v>280.85</v>
+        <v>285.69</v>
       </c>
       <c r="D104" t="n">
-        <v>282.42</v>
+        <v>199.44</v>
       </c>
       <c r="E104" t="n">
         <v>277.9</v>
@@ -2746,13 +2746,13 @@
         <v>45146</v>
       </c>
       <c r="B105" t="n">
-        <v>268.85</v>
+        <v>280.08</v>
       </c>
       <c r="C105" t="n">
-        <v>280.02</v>
+        <v>288.25</v>
       </c>
       <c r="D105" t="n">
-        <v>287.28</v>
+        <v>201.83</v>
       </c>
       <c r="E105" t="n">
         <v>281.38</v>
@@ -2763,13 +2763,13 @@
         <v>45147</v>
       </c>
       <c r="B106" t="n">
-        <v>272.97</v>
+        <v>286.13</v>
       </c>
       <c r="C106" t="n">
-        <v>284.23</v>
+        <v>292.08</v>
       </c>
       <c r="D106" t="n">
-        <v>293.55</v>
+        <v>204.22</v>
       </c>
       <c r="E106" t="n">
         <v>290.38</v>
@@ -2780,13 +2780,13 @@
         <v>45148</v>
       </c>
       <c r="B107" t="n">
-        <v>283.23</v>
+        <v>296.21</v>
       </c>
       <c r="C107" t="n">
-        <v>296.51</v>
+        <v>300.71</v>
       </c>
       <c r="D107" t="n">
-        <v>302.97</v>
+        <v>207.82</v>
       </c>
       <c r="E107" t="n">
         <v>293.34</v>
@@ -2797,13 +2797,13 @@
         <v>45149</v>
       </c>
       <c r="B108" t="n">
-        <v>292.34</v>
+        <v>307.16</v>
       </c>
       <c r="C108" t="n">
-        <v>295.04</v>
+        <v>305.21</v>
       </c>
       <c r="D108" t="n">
-        <v>307.71</v>
+        <v>209.85</v>
       </c>
       <c r="E108" t="n">
         <v>291.26</v>
@@ -2814,13 +2814,13 @@
         <v>45152</v>
       </c>
       <c r="B109" t="n">
-        <v>297.74</v>
+        <v>316.54</v>
       </c>
       <c r="C109" t="n">
-        <v>295.15</v>
+        <v>303.94</v>
       </c>
       <c r="D109" t="n">
-        <v>309.56</v>
+        <v>211.12</v>
       </c>
       <c r="E109" t="n">
         <v>262.9</v>
@@ -2831,13 +2831,13 @@
         <v>45153</v>
       </c>
       <c r="B110" t="n">
-        <v>283.22</v>
+        <v>308.74</v>
       </c>
       <c r="C110" t="n">
-        <v>290.63</v>
+        <v>286.09</v>
       </c>
       <c r="D110" t="n">
-        <v>290.23</v>
+        <v>203.68</v>
       </c>
       <c r="E110" t="n">
         <v>260.02</v>
@@ -2848,13 +2848,13 @@
         <v>45154</v>
       </c>
       <c r="B111" t="n">
-        <v>270.78</v>
+        <v>294.7</v>
       </c>
       <c r="C111" t="n">
-        <v>282.77</v>
+        <v>280.43</v>
       </c>
       <c r="D111" t="n">
-        <v>279.38</v>
+        <v>201.06</v>
       </c>
       <c r="E111" t="n">
         <v>269.06</v>
@@ -2865,13 +2865,13 @@
         <v>45155</v>
       </c>
       <c r="B112" t="n">
-        <v>264.77</v>
+        <v>283.53</v>
       </c>
       <c r="C112" t="n">
-        <v>275.02</v>
+        <v>283.79</v>
       </c>
       <c r="D112" t="n">
-        <v>276.79</v>
+        <v>202.54</v>
       </c>
       <c r="E112" t="n">
         <v>265.28</v>
@@ -2882,13 +2882,13 @@
         <v>45156</v>
       </c>
       <c r="B113" t="n">
-        <v>258.79</v>
+        <v>272.26</v>
       </c>
       <c r="C113" t="n">
-        <v>273.43</v>
+        <v>279.71</v>
       </c>
       <c r="D113" t="n">
-        <v>270.98</v>
+        <v>201.67</v>
       </c>
       <c r="E113" t="n">
         <v>264.35</v>
@@ -2899,13 +2899,13 @@
         <v>45159</v>
       </c>
       <c r="B114" t="n">
-        <v>254.53</v>
+        <v>262.99</v>
       </c>
       <c r="C114" t="n">
-        <v>277.48</v>
+        <v>274.05</v>
       </c>
       <c r="D114" t="n">
-        <v>266.26</v>
+        <v>201</v>
       </c>
       <c r="E114" t="n">
         <v>255.71</v>
@@ -2916,13 +2916,13 @@
         <v>45160</v>
       </c>
       <c r="B115" t="n">
-        <v>249.54</v>
+        <v>253.91</v>
       </c>
       <c r="C115" t="n">
-        <v>271.26</v>
+        <v>265.37</v>
       </c>
       <c r="D115" t="n">
-        <v>258.4</v>
+        <v>198.44</v>
       </c>
       <c r="E115" t="n">
         <v>266.44</v>
@@ -2933,13 +2933,13 @@
         <v>45161</v>
       </c>
       <c r="B116" t="n">
-        <v>249.28</v>
+        <v>249.58</v>
       </c>
       <c r="C116" t="n">
-        <v>263.29</v>
+        <v>267.2</v>
       </c>
       <c r="D116" t="n">
-        <v>259.31</v>
+        <v>200.73</v>
       </c>
       <c r="E116" t="n">
         <v>267.43</v>
@@ -2950,13 +2950,13 @@
         <v>45162</v>
       </c>
       <c r="B117" t="n">
-        <v>249.74</v>
+        <v>246.84</v>
       </c>
       <c r="C117" t="n">
-        <v>263.23</v>
+        <v>266.2</v>
       </c>
       <c r="D117" t="n">
-        <v>258.22</v>
+        <v>201.55</v>
       </c>
       <c r="E117" t="n">
         <v>261.07</v>
@@ -2967,13 +2967,13 @@
         <v>45163</v>
       </c>
       <c r="B118" t="n">
-        <v>250.12</v>
+        <v>245.04</v>
       </c>
       <c r="C118" t="n">
-        <v>263.82</v>
+        <v>264.22</v>
       </c>
       <c r="D118" t="n">
-        <v>255.69</v>
+        <v>201.51</v>
       </c>
       <c r="E118" t="n">
         <v>254.11</v>
@@ -2984,13 +2984,13 @@
         <v>45166</v>
       </c>
       <c r="B119" t="n">
-        <v>247.18</v>
+        <v>241.44</v>
       </c>
       <c r="C119" t="n">
-        <v>264.34</v>
+        <v>255.21</v>
       </c>
       <c r="D119" t="n">
-        <v>247.3</v>
+        <v>198.57</v>
       </c>
       <c r="E119" t="n">
         <v>259.32</v>
@@ -3001,13 +3001,13 @@
         <v>45167</v>
       </c>
       <c r="B120" t="n">
-        <v>247.32</v>
+        <v>239.99</v>
       </c>
       <c r="C120" t="n">
-        <v>262.93</v>
+        <v>256.29</v>
       </c>
       <c r="D120" t="n">
-        <v>248.23</v>
+        <v>201.47</v>
       </c>
       <c r="E120" t="n">
         <v>253.86</v>
@@ -3018,13 +3018,13 @@
         <v>45168</v>
       </c>
       <c r="B121" t="n">
-        <v>243.95</v>
+        <v>237.16</v>
       </c>
       <c r="C121" t="n">
-        <v>256.91</v>
+        <v>251.19</v>
       </c>
       <c r="D121" t="n">
-        <v>241.69</v>
+        <v>198.7</v>
       </c>
       <c r="E121" t="n">
         <v>251.45</v>
@@ -3035,13 +3035,13 @@
         <v>45169</v>
       </c>
       <c r="B122" t="n">
-        <v>240.21</v>
+        <v>234.22</v>
       </c>
       <c r="C122" t="n">
-        <v>254.53</v>
+        <v>242.76</v>
       </c>
       <c r="D122" t="n">
-        <v>236.95</v>
+        <v>196.21</v>
       </c>
       <c r="E122" t="n">
         <v>249.7</v>
@@ -3052,13 +3052,13 @@
         <v>45170</v>
       </c>
       <c r="B123" t="n">
-        <v>236.91</v>
+        <v>231.53</v>
       </c>
       <c r="C123" t="n">
-        <v>246.97</v>
+        <v>243.51</v>
       </c>
       <c r="D123" t="n">
-        <v>233.39</v>
+        <v>194.62</v>
       </c>
       <c r="E123" t="n">
         <v>242.19</v>
@@ -3069,13 +3069,13 @@
         <v>45173</v>
       </c>
       <c r="B124" t="n">
-        <v>234.46</v>
+        <v>229.02</v>
       </c>
       <c r="C124" t="n">
-        <v>241.7</v>
+        <v>239.86</v>
       </c>
       <c r="D124" t="n">
-        <v>229.84</v>
+        <v>192.01</v>
       </c>
       <c r="E124" t="n">
         <v>245.34</v>
@@ -3086,13 +3086,13 @@
         <v>45174</v>
       </c>
       <c r="B125" t="n">
-        <v>233.88</v>
+        <v>227.42</v>
       </c>
       <c r="C125" t="n">
-        <v>239.87</v>
+        <v>240.72</v>
       </c>
       <c r="D125" t="n">
-        <v>229.57</v>
+        <v>192.13</v>
       </c>
       <c r="E125" t="n">
         <v>242.65</v>
@@ -3103,13 +3103,13 @@
         <v>45175</v>
       </c>
       <c r="B126" t="n">
-        <v>231.46</v>
+        <v>225.5</v>
       </c>
       <c r="C126" t="n">
-        <v>231.62</v>
+        <v>233.32</v>
       </c>
       <c r="D126" t="n">
-        <v>224.93</v>
+        <v>189.12</v>
       </c>
       <c r="E126" t="n">
         <v>239.76</v>
@@ -3120,13 +3120,13 @@
         <v>45176</v>
       </c>
       <c r="B127" t="n">
-        <v>229.07</v>
+        <v>223.59</v>
       </c>
       <c r="C127" t="n">
-        <v>228.09</v>
+        <v>230.13</v>
       </c>
       <c r="D127" t="n">
-        <v>221.09</v>
+        <v>186.37</v>
       </c>
       <c r="E127" t="n">
         <v>232.96</v>
@@ -3137,13 +3137,13 @@
         <v>45177</v>
       </c>
       <c r="B128" t="n">
-        <v>226.07</v>
+        <v>221.65</v>
       </c>
       <c r="C128" t="n">
-        <v>227.1</v>
+        <v>230.47</v>
       </c>
       <c r="D128" t="n">
-        <v>216.33</v>
+        <v>183</v>
       </c>
       <c r="E128" t="n">
         <v>225.6</v>
@@ -3154,13 +3154,13 @@
         <v>45180</v>
       </c>
       <c r="B129" t="n">
-        <v>223.07</v>
+        <v>219.74</v>
       </c>
       <c r="C129" t="n">
-        <v>226.77</v>
+        <v>224.79</v>
       </c>
       <c r="D129" t="n">
-        <v>211.98</v>
+        <v>179.81</v>
       </c>
       <c r="E129" t="n">
         <v>219.22</v>
@@ -3171,13 +3171,13 @@
         <v>45181</v>
       </c>
       <c r="B130" t="n">
-        <v>217.52</v>
+        <v>217.28</v>
       </c>
       <c r="C130" t="n">
-        <v>218.56</v>
+        <v>218.93</v>
       </c>
       <c r="D130" t="n">
-        <v>205.78</v>
+        <v>176.42</v>
       </c>
       <c r="E130" t="n">
         <v>215.49</v>
@@ -3188,13 +3188,13 @@
         <v>45182</v>
       </c>
       <c r="B131" t="n">
-        <v>212.09</v>
+        <v>214.79</v>
       </c>
       <c r="C131" t="n">
-        <v>216.13</v>
+        <v>216.96</v>
       </c>
       <c r="D131" t="n">
-        <v>201.39</v>
+        <v>174.39</v>
       </c>
       <c r="E131" t="n">
         <v>231.28</v>
@@ -3205,13 +3205,13 @@
         <v>45183</v>
       </c>
       <c r="B132" t="n">
-        <v>213.53</v>
+        <v>214.18</v>
       </c>
       <c r="C132" t="n">
-        <v>213.83</v>
+        <v>227.29</v>
       </c>
       <c r="D132" t="n">
-        <v>206.35</v>
+        <v>178.28</v>
       </c>
       <c r="E132" t="n">
         <v>233.19</v>
@@ -3222,13 +3222,13 @@
         <v>45184</v>
       </c>
       <c r="B133" t="n">
-        <v>215.99</v>
+        <v>214.33</v>
       </c>
       <c r="C133" t="n">
-        <v>218.3</v>
+        <v>239.35</v>
       </c>
       <c r="D133" t="n">
-        <v>209.52</v>
+        <v>180.55</v>
       </c>
       <c r="E133" t="n">
         <v>236.86</v>
@@ -3239,13 +3239,13 @@
         <v>45187</v>
       </c>
       <c r="B134" t="n">
-        <v>219.19</v>
+        <v>215.21</v>
       </c>
       <c r="C134" t="n">
-        <v>224.52</v>
+        <v>244.26</v>
       </c>
       <c r="D134" t="n">
-        <v>214.39</v>
+        <v>184.3</v>
       </c>
       <c r="E134" t="n">
         <v>230.04</v>
@@ -3256,13 +3256,13 @@
         <v>45188</v>
       </c>
       <c r="B135" t="n">
-        <v>220.14</v>
+        <v>216.58</v>
       </c>
       <c r="C135" t="n">
-        <v>229.96</v>
+        <v>245.03</v>
       </c>
       <c r="D135" t="n">
-        <v>214.73</v>
+        <v>183.64</v>
       </c>
       <c r="E135" t="n">
         <v>238.59</v>
@@ -3273,13 +3273,13 @@
         <v>45189</v>
       </c>
       <c r="B136" t="n">
-        <v>224.36</v>
+        <v>218.76</v>
       </c>
       <c r="C136" t="n">
-        <v>226.05</v>
+        <v>253.15</v>
       </c>
       <c r="D136" t="n">
-        <v>223.06</v>
+        <v>188.1</v>
       </c>
       <c r="E136" t="n">
         <v>238.82</v>
@@ -3290,13 +3290,13 @@
         <v>45190</v>
       </c>
       <c r="B137" t="n">
-        <v>227.85</v>
+        <v>221.74</v>
       </c>
       <c r="C137" t="n">
-        <v>230.01</v>
+        <v>257.29</v>
       </c>
       <c r="D137" t="n">
-        <v>228.84</v>
+        <v>190.22</v>
       </c>
       <c r="E137" t="n">
         <v>257.18</v>
@@ -3307,13 +3307,13 @@
         <v>45191</v>
       </c>
       <c r="B138" t="n">
-        <v>232.95</v>
+        <v>226.09</v>
       </c>
       <c r="C138" t="n">
-        <v>234.42</v>
+        <v>265.56</v>
       </c>
       <c r="D138" t="n">
-        <v>239.82</v>
+        <v>194.82</v>
       </c>
       <c r="E138" t="n">
         <v>256.9</v>
@@ -3324,13 +3324,13 @@
         <v>45194</v>
       </c>
       <c r="B139" t="n">
-        <v>236.21</v>
+        <v>231.24</v>
       </c>
       <c r="C139" t="n">
-        <v>240.31</v>
+        <v>268.01</v>
       </c>
       <c r="D139" t="n">
-        <v>246.53</v>
+        <v>196.97</v>
       </c>
       <c r="E139" t="n">
         <v>258.08</v>
@@ -3341,13 +3341,13 @@
         <v>45195</v>
       </c>
       <c r="B140" t="n">
-        <v>239.06</v>
+        <v>236.6</v>
       </c>
       <c r="C140" t="n">
-        <v>246.21</v>
+        <v>263.17</v>
       </c>
       <c r="D140" t="n">
-        <v>253.76</v>
+        <v>198.98</v>
       </c>
       <c r="E140" t="n">
         <v>245.01</v>
@@ -3358,13 +3358,13 @@
         <v>45196</v>
       </c>
       <c r="B141" t="n">
-        <v>237.9</v>
+        <v>239.41</v>
       </c>
       <c r="C141" t="n">
-        <v>248.25</v>
+        <v>256.83</v>
       </c>
       <c r="D141" t="n">
-        <v>250.91</v>
+        <v>195.47</v>
       </c>
       <c r="E141" t="n">
         <v>256.49</v>
@@ -3375,13 +3375,13 @@
         <v>45197</v>
       </c>
       <c r="B142" t="n">
-        <v>239.49</v>
+        <v>242.41</v>
       </c>
       <c r="C142" t="n">
-        <v>247.92</v>
+        <v>259.17</v>
       </c>
       <c r="D142" t="n">
-        <v>259.06</v>
+        <v>197.36</v>
       </c>
       <c r="E142" t="n">
         <v>251.92</v>
@@ -3392,13 +3392,13 @@
         <v>45198</v>
       </c>
       <c r="B143" t="n">
-        <v>240.33</v>
+        <v>244.71</v>
       </c>
       <c r="C143" t="n">
-        <v>252.66</v>
+        <v>258.51</v>
       </c>
       <c r="D143" t="n">
-        <v>261.9</v>
+        <v>196.73</v>
       </c>
       <c r="E143" t="n">
         <v>251.49</v>
@@ -3409,13 +3409,13 @@
         <v>45201</v>
       </c>
       <c r="B144" t="n">
-        <v>240.93</v>
+        <v>245.96</v>
       </c>
       <c r="C144" t="n">
-        <v>250.92</v>
+        <v>249.1</v>
       </c>
       <c r="D144" t="n">
-        <v>262.6</v>
+        <v>195.59</v>
       </c>
       <c r="E144" t="n">
         <v>248.5</v>
@@ -3426,13 +3426,13 @@
         <v>45202</v>
       </c>
       <c r="B145" t="n">
-        <v>241.04</v>
+        <v>245.79</v>
       </c>
       <c r="C145" t="n">
-        <v>253.39</v>
+        <v>247.63</v>
       </c>
       <c r="D145" t="n">
-        <v>261.53</v>
+        <v>194.64</v>
       </c>
       <c r="E145" t="n">
         <v>273.58</v>
@@ -3443,13 +3443,13 @@
         <v>45203</v>
       </c>
       <c r="B146" t="n">
-        <v>244.94</v>
+        <v>248.73</v>
       </c>
       <c r="C146" t="n">
-        <v>257.84</v>
+        <v>260.19</v>
       </c>
       <c r="D146" t="n">
-        <v>272.84</v>
+        <v>200.62</v>
       </c>
       <c r="E146" t="n">
         <v>267.48</v>
@@ -3460,13 +3460,13 @@
         <v>45204</v>
       </c>
       <c r="B147" t="n">
-        <v>247.18</v>
+        <v>251.14</v>
       </c>
       <c r="C147" t="n">
-        <v>260.78</v>
+        <v>263.82</v>
       </c>
       <c r="D147" t="n">
-        <v>275.03</v>
+        <v>201.57</v>
       </c>
       <c r="E147" t="n">
         <v>271.3</v>
@@ -3477,13 +3477,13 @@
         <v>45205</v>
       </c>
       <c r="B148" t="n">
-        <v>250</v>
+        <v>254.24</v>
       </c>
       <c r="C148" t="n">
-        <v>260.47</v>
+        <v>263.17</v>
       </c>
       <c r="D148" t="n">
-        <v>278.63</v>
+        <v>203.29</v>
       </c>
       <c r="E148" t="n">
         <v>276.04</v>
@@ -3494,13 +3494,13 @@
         <v>45208</v>
       </c>
       <c r="B149" t="n">
-        <v>254.79</v>
+        <v>259.48</v>
       </c>
       <c r="C149" t="n">
-        <v>268.16</v>
+        <v>272.79</v>
       </c>
       <c r="D149" t="n">
-        <v>285.77</v>
+        <v>207.12</v>
       </c>
       <c r="E149" t="n">
         <v>274.39</v>
@@ -3511,13 +3511,13 @@
         <v>45209</v>
       </c>
       <c r="B150" t="n">
-        <v>258.5</v>
+        <v>264.87</v>
       </c>
       <c r="C150" t="n">
-        <v>268.29</v>
+        <v>271.78</v>
       </c>
       <c r="D150" t="n">
-        <v>288.52</v>
+        <v>209.35</v>
       </c>
       <c r="E150" t="n">
         <v>265.28</v>
@@ -3528,13 +3528,13 @@
         <v>45210</v>
       </c>
       <c r="B151" t="n">
-        <v>258.61</v>
+        <v>267.04</v>
       </c>
       <c r="C151" t="n">
-        <v>265.37</v>
+        <v>268.12</v>
       </c>
       <c r="D151" t="n">
-        <v>285.85</v>
+        <v>209.4</v>
       </c>
       <c r="E151" t="n">
         <v>266.5</v>
@@ -3545,13 +3545,13 @@
         <v>45211</v>
       </c>
       <c r="B152" t="n">
-        <v>257.82</v>
+        <v>267.39</v>
       </c>
       <c r="C152" t="n">
-        <v>260.41</v>
+        <v>265.36</v>
       </c>
       <c r="D152" t="n">
-        <v>283.62</v>
+        <v>209.72</v>
       </c>
       <c r="E152" t="n">
         <v>262.59</v>
@@ -3562,13 +3562,13 @@
         <v>45212</v>
       </c>
       <c r="B153" t="n">
-        <v>256.4</v>
+        <v>266</v>
       </c>
       <c r="C153" t="n">
-        <v>261.19</v>
+        <v>265.44</v>
       </c>
       <c r="D153" t="n">
-        <v>281.21</v>
+        <v>209.78</v>
       </c>
       <c r="E153" t="n">
         <v>255.7</v>
@@ -3579,13 +3579,13 @@
         <v>45215</v>
       </c>
       <c r="B154" t="n">
-        <v>251.44</v>
+        <v>259.08</v>
       </c>
       <c r="C154" t="n">
-        <v>253.42</v>
+        <v>254.73</v>
       </c>
       <c r="D154" t="n">
-        <v>269.78</v>
+        <v>205.86</v>
       </c>
       <c r="E154" t="n">
         <v>244.88</v>
@@ -3596,13 +3596,13 @@
         <v>45216</v>
       </c>
       <c r="B155" t="n">
-        <v>246.91</v>
+        <v>250.92</v>
       </c>
       <c r="C155" t="n">
-        <v>250.84</v>
+        <v>251.19</v>
       </c>
       <c r="D155" t="n">
-        <v>261.28</v>
+        <v>202.68</v>
       </c>
       <c r="E155" t="n">
         <v>246.99</v>
@@ -3613,13 +3613,13 @@
         <v>45217</v>
       </c>
       <c r="B156" t="n">
+        <v>243.67</v>
+      </c>
+      <c r="C156" t="n">
         <v>243.08</v>
       </c>
-      <c r="C156" t="n">
-        <v>249.19</v>
-      </c>
       <c r="D156" t="n">
-        <v>253.99</v>
+        <v>199.97</v>
       </c>
       <c r="E156" t="n">
         <v>244.12</v>
@@ -3630,13 +3630,13 @@
         <v>45218</v>
       </c>
       <c r="B157" t="n">
-        <v>240.3</v>
+        <v>237.93</v>
       </c>
       <c r="C157" t="n">
-        <v>247.62</v>
+        <v>243.08</v>
       </c>
       <c r="D157" t="n">
-        <v>248.4</v>
+        <v>198.36</v>
       </c>
       <c r="E157" t="n">
         <v>240.5</v>
@@ -3647,13 +3647,13 @@
         <v>45219</v>
       </c>
       <c r="B158" t="n">
-        <v>237.68</v>
+        <v>233.15</v>
       </c>
       <c r="C158" t="n">
-        <v>244.22</v>
+        <v>239.45</v>
       </c>
       <c r="D158" t="n">
-        <v>240.85</v>
+        <v>195.31</v>
       </c>
       <c r="E158" t="n">
         <v>246.38</v>
@@ -3664,13 +3664,13 @@
         <v>45222</v>
       </c>
       <c r="B159" t="n">
-        <v>237.84</v>
+        <v>230.35</v>
       </c>
       <c r="C159" t="n">
-        <v>246.02</v>
+        <v>244.77</v>
       </c>
       <c r="D159" t="n">
-        <v>239.53</v>
+        <v>195.54</v>
       </c>
       <c r="E159" t="n">
         <v>250.22</v>
@@ -3681,13 +3681,13 @@
         <v>45223</v>
       </c>
       <c r="B160" t="n">
-        <v>237.38</v>
+        <v>228.64</v>
       </c>
       <c r="C160" t="n">
-        <v>246.45</v>
+        <v>249.59</v>
       </c>
       <c r="D160" t="n">
-        <v>237.56</v>
+        <v>197.01</v>
       </c>
       <c r="E160" t="n">
         <v>251.6</v>
@@ -3698,13 +3698,13 @@
         <v>45224</v>
       </c>
       <c r="B161" t="n">
-        <v>238.53</v>
+        <v>228.25</v>
       </c>
       <c r="C161" t="n">
-        <v>250.28</v>
+        <v>253</v>
       </c>
       <c r="D161" t="n">
-        <v>238.88</v>
+        <v>199.2</v>
       </c>
       <c r="E161" t="n">
         <v>246.53</v>
@@ -3715,13 +3715,13 @@
         <v>45225</v>
       </c>
       <c r="B162" t="n">
-        <v>237.83</v>
+        <v>227.96</v>
       </c>
       <c r="C162" t="n">
-        <v>247.16</v>
+        <v>245.86</v>
       </c>
       <c r="D162" t="n">
-        <v>236.05</v>
+        <v>198.3</v>
       </c>
       <c r="E162" t="n">
         <v>261.16</v>
@@ -3732,13 +3732,13 @@
         <v>45226</v>
       </c>
       <c r="B163" t="n">
-        <v>241.97</v>
+        <v>229.9</v>
       </c>
       <c r="C163" t="n">
-        <v>255.51</v>
+        <v>259.32</v>
       </c>
       <c r="D163" t="n">
-        <v>246.21</v>
+        <v>204.82</v>
       </c>
       <c r="E163" t="n">
         <v>260.05</v>
@@ -3749,13 +3749,13 @@
         <v>45229</v>
       </c>
       <c r="B164" t="n">
-        <v>245.05</v>
+        <v>232.9</v>
       </c>
       <c r="C164" t="n">
-        <v>257.58</v>
+        <v>260.56</v>
       </c>
       <c r="D164" t="n">
-        <v>251.98</v>
+        <v>207.66</v>
       </c>
       <c r="E164" t="n">
         <v>260.53</v>
@@ -3766,13 +3766,13 @@
         <v>45230</v>
       </c>
       <c r="B165" t="n">
-        <v>248.11</v>
+        <v>237.11</v>
       </c>
       <c r="C165" t="n">
-        <v>262.86</v>
+        <v>266.17</v>
       </c>
       <c r="D165" t="n">
-        <v>258.88</v>
+        <v>210.38</v>
       </c>
       <c r="E165" t="n">
         <v>259.67</v>
@@ -3783,13 +3783,13 @@
         <v>45231</v>
       </c>
       <c r="B166" t="n">
-        <v>249.89</v>
+        <v>242.91</v>
       </c>
       <c r="C166" t="n">
-        <v>262.18</v>
+        <v>267.06</v>
       </c>
       <c r="D166" t="n">
-        <v>262.16</v>
+        <v>210.43</v>
       </c>
       <c r="E166" t="n">
         <v>263.62</v>
@@ -3800,13 +3800,13 @@
         <v>45232</v>
       </c>
       <c r="B167" t="n">
-        <v>252.31</v>
+        <v>249.44</v>
       </c>
       <c r="C167" t="n">
-        <v>267.67</v>
+        <v>267.95</v>
       </c>
       <c r="D167" t="n">
-        <v>269.1</v>
+        <v>212.1</v>
       </c>
       <c r="E167" t="n">
         <v>262.99</v>
@@ -3817,13 +3817,13 @@
         <v>45233</v>
       </c>
       <c r="B168" t="n">
-        <v>254.29</v>
+        <v>256.21</v>
       </c>
       <c r="C168" t="n">
-        <v>272.17</v>
+        <v>270.61</v>
       </c>
       <c r="D168" t="n">
-        <v>274.11</v>
+        <v>212.09</v>
       </c>
       <c r="E168" t="n">
         <v>258.87</v>
@@ -3834,13 +3834,13 @@
         <v>45236</v>
       </c>
       <c r="B169" t="n">
-        <v>254.88</v>
+        <v>261.57</v>
       </c>
       <c r="C169" t="n">
-        <v>272.11</v>
+        <v>269.3</v>
       </c>
       <c r="D169" t="n">
-        <v>274.39</v>
+        <v>209.17</v>
       </c>
       <c r="E169" t="n">
         <v>251.12</v>
@@ -3851,13 +3851,13 @@
         <v>45237</v>
       </c>
       <c r="B170" t="n">
-        <v>250.63</v>
+        <v>260.46</v>
       </c>
       <c r="C170" t="n">
-        <v>261.34</v>
+        <v>258.03</v>
       </c>
       <c r="D170" t="n">
-        <v>265.92</v>
+        <v>203.84</v>
       </c>
       <c r="E170" t="n">
         <v>253.92</v>
@@ -3868,13 +3868,13 @@
         <v>45238</v>
       </c>
       <c r="B171" t="n">
-        <v>247.63</v>
+        <v>257.04</v>
       </c>
       <c r="C171" t="n">
-        <v>262.31</v>
+        <v>248.86</v>
       </c>
       <c r="D171" t="n">
-        <v>261.52</v>
+        <v>200.91</v>
       </c>
       <c r="E171" t="n">
         <v>254.85</v>
@@ -3885,13 +3885,13 @@
         <v>45239</v>
       </c>
       <c r="B172" t="n">
-        <v>246.38</v>
+        <v>253.62</v>
       </c>
       <c r="C172" t="n">
-        <v>258.9</v>
+        <v>249.33</v>
       </c>
       <c r="D172" t="n">
-        <v>259.77</v>
+        <v>199.33</v>
       </c>
       <c r="E172" t="n">
         <v>242.68</v>
@@ -3902,13 +3902,13 @@
         <v>45240</v>
       </c>
       <c r="B173" t="n">
-        <v>241.34</v>
+        <v>246.64</v>
       </c>
       <c r="C173" t="n">
-        <v>257.15</v>
+        <v>242.98</v>
       </c>
       <c r="D173" t="n">
-        <v>248.7</v>
+        <v>193.46</v>
       </c>
       <c r="E173" t="n">
         <v>220.11</v>
@@ -3919,13 +3919,13 @@
         <v>45243</v>
       </c>
       <c r="B174" t="n">
-        <v>234.25</v>
+        <v>238.72</v>
       </c>
       <c r="C174" t="n">
-        <v>248.14</v>
+        <v>232.68</v>
       </c>
       <c r="D174" t="n">
-        <v>237.43</v>
+        <v>187.93</v>
       </c>
       <c r="E174" t="n">
         <v>211.99</v>
@@ -3936,13 +3936,13 @@
         <v>45244</v>
       </c>
       <c r="B175" t="n">
-        <v>227.64</v>
+        <v>232.18</v>
       </c>
       <c r="C175" t="n">
-        <v>243.3</v>
+        <v>225.41</v>
       </c>
       <c r="D175" t="n">
-        <v>228.05</v>
+        <v>184.27</v>
       </c>
       <c r="E175" t="n">
         <v>212.08</v>
@@ -3953,13 +3953,13 @@
         <v>45245</v>
       </c>
       <c r="B176" t="n">
-        <v>221.54</v>
+        <v>226.75</v>
       </c>
       <c r="C176" t="n">
-        <v>238.57</v>
+        <v>225.78</v>
       </c>
       <c r="D176" t="n">
-        <v>221.06</v>
+        <v>182.16</v>
       </c>
       <c r="E176" t="n">
         <v>216.52</v>
@@ -3970,13 +3970,13 @@
         <v>45246</v>
       </c>
       <c r="B177" t="n">
-        <v>215.52</v>
+        <v>222.29</v>
       </c>
       <c r="C177" t="n">
-        <v>237.05</v>
+        <v>219.84</v>
       </c>
       <c r="D177" t="n">
-        <v>214.63</v>
+        <v>181.16</v>
       </c>
       <c r="E177" t="n">
         <v>212.42</v>
@@ -3987,13 +3987,13 @@
         <v>45247</v>
       </c>
       <c r="B178" t="n">
-        <v>209.6</v>
+        <v>218.46</v>
       </c>
       <c r="C178" t="n">
-        <v>227.2</v>
+        <v>215.06</v>
       </c>
       <c r="D178" t="n">
-        <v>207.52</v>
+        <v>179.04</v>
       </c>
       <c r="E178" t="n">
         <v>205.76</v>
@@ -4004,13 +4004,13 @@
         <v>45250</v>
       </c>
       <c r="B179" t="n">
-        <v>203.78</v>
+        <v>214.9</v>
       </c>
       <c r="C179" t="n">
-        <v>220.94</v>
+        <v>207.41</v>
       </c>
       <c r="D179" t="n">
-        <v>200.3</v>
+        <v>176.63</v>
       </c>
       <c r="E179" t="n">
         <v>207.3</v>
@@ -4021,13 +4021,13 @@
         <v>45251</v>
       </c>
       <c r="B180" t="n">
-        <v>199.41</v>
+        <v>211.85</v>
       </c>
       <c r="C180" t="n">
-        <v>206.08</v>
+        <v>204.93</v>
       </c>
       <c r="D180" t="n">
-        <v>195.57</v>
+        <v>175.68</v>
       </c>
       <c r="E180" t="n">
         <v>197.36</v>
@@ -4038,13 +4038,13 @@
         <v>45252</v>
       </c>
       <c r="B181" t="n">
-        <v>195.37</v>
+        <v>208.65</v>
       </c>
       <c r="C181" t="n">
-        <v>204.32</v>
+        <v>194.41</v>
       </c>
       <c r="D181" t="n">
-        <v>188.68</v>
+        <v>172.39</v>
       </c>
       <c r="E181" t="n">
         <v>200.84</v>
@@ -4055,13 +4055,13 @@
         <v>45253</v>
       </c>
       <c r="B182" t="n">
-        <v>192.91</v>
+        <v>205.86</v>
       </c>
       <c r="C182" t="n">
-        <v>201.22</v>
+        <v>195.78</v>
       </c>
       <c r="D182" t="n">
-        <v>185.82</v>
+        <v>171.74</v>
       </c>
       <c r="E182" t="n">
         <v>205.66</v>
@@ -4072,13 +4072,13 @@
         <v>45254</v>
       </c>
       <c r="B183" t="n">
-        <v>193.05</v>
+        <v>204.31</v>
       </c>
       <c r="C183" t="n">
-        <v>202.42</v>
+        <v>198.64</v>
       </c>
       <c r="D183" t="n">
-        <v>186.2</v>
+        <v>173.17</v>
       </c>
       <c r="E183" t="n">
         <v>218.51</v>
@@ -4089,13 +4089,13 @@
         <v>45257</v>
       </c>
       <c r="B184" t="n">
-        <v>197.39</v>
+        <v>204.45</v>
       </c>
       <c r="C184" t="n">
-        <v>203.48</v>
+        <v>218.1</v>
       </c>
       <c r="D184" t="n">
-        <v>195.29</v>
+        <v>179.6</v>
       </c>
       <c r="E184" t="n">
         <v>219.96</v>
@@ -4106,13 +4106,13 @@
         <v>45258</v>
       </c>
       <c r="B185" t="n">
-        <v>202.7</v>
+        <v>205.37</v>
       </c>
       <c r="C185" t="n">
-        <v>216.4</v>
+        <v>224.99</v>
       </c>
       <c r="D185" t="n">
-        <v>201.18</v>
+        <v>182.99</v>
       </c>
       <c r="E185" t="n">
         <v>219.27</v>
@@ -4123,13 +4123,13 @@
         <v>45259</v>
       </c>
       <c r="B186" t="n">
-        <v>207.39</v>
+        <v>207.15</v>
       </c>
       <c r="C186" t="n">
-        <v>226.96</v>
+        <v>230.57</v>
       </c>
       <c r="D186" t="n">
-        <v>205.85</v>
+        <v>184.57</v>
       </c>
       <c r="E186" t="n">
         <v>222.18</v>
@@ -4140,13 +4140,13 @@
         <v>45260</v>
       </c>
       <c r="B187" t="n">
-        <v>211.89</v>
+        <v>210.35</v>
       </c>
       <c r="C187" t="n">
-        <v>229.95</v>
+        <v>233.52</v>
       </c>
       <c r="D187" t="n">
-        <v>211.21</v>
+        <v>185.17</v>
       </c>
       <c r="E187" t="n">
         <v>222.11</v>
@@ -4157,13 +4157,13 @@
         <v>45261</v>
       </c>
       <c r="B188" t="n">
-        <v>216.81</v>
+        <v>214.92</v>
       </c>
       <c r="C188" t="n">
-        <v>228.3</v>
+        <v>233.87</v>
       </c>
       <c r="D188" t="n">
-        <v>217.13</v>
+        <v>184.93</v>
       </c>
       <c r="E188" t="n">
         <v>209.98</v>
@@ -4174,13 +4174,13 @@
         <v>45264</v>
       </c>
       <c r="B189" t="n">
-        <v>216.81</v>
+        <v>219.8</v>
       </c>
       <c r="C189" t="n">
-        <v>231.66</v>
+        <v>222.87</v>
       </c>
       <c r="D189" t="n">
-        <v>213.29</v>
+        <v>180.08</v>
       </c>
       <c r="E189" t="n">
         <v>214.65</v>
@@ -4191,13 +4191,13 @@
         <v>45265</v>
       </c>
       <c r="B190" t="n">
-        <v>216.82</v>
+        <v>221.69</v>
       </c>
       <c r="C190" t="n">
-        <v>227.97</v>
+        <v>220.41</v>
       </c>
       <c r="D190" t="n">
-        <v>214.83</v>
+        <v>178.57</v>
       </c>
       <c r="E190" t="n">
         <v>223.71</v>
@@ -4208,13 +4208,13 @@
         <v>45266</v>
       </c>
       <c r="B191" t="n">
-        <v>219.18</v>
+        <v>223.35</v>
       </c>
       <c r="C191" t="n">
-        <v>227.22</v>
+        <v>224.46</v>
       </c>
       <c r="D191" t="n">
-        <v>222.77</v>
+        <v>181.09</v>
       </c>
       <c r="E191" t="n">
         <v>237.41</v>
@@ -4225,13 +4225,13 @@
         <v>45267</v>
       </c>
       <c r="B192" t="n">
-        <v>223.15</v>
+        <v>225.56</v>
       </c>
       <c r="C192" t="n">
-        <v>226.41</v>
+        <v>228.54</v>
       </c>
       <c r="D192" t="n">
-        <v>231.1</v>
+        <v>183</v>
       </c>
       <c r="E192" t="n">
         <v>242.84</v>
@@ -4242,13 +4242,13 @@
         <v>45268</v>
       </c>
       <c r="B193" t="n">
-        <v>227.56</v>
+        <v>228.09</v>
       </c>
       <c r="C193" t="n">
-        <v>240.53</v>
+        <v>237.8</v>
       </c>
       <c r="D193" t="n">
-        <v>238.64</v>
+        <v>184.34</v>
       </c>
       <c r="E193" t="n">
         <v>233.59</v>
@@ -4259,13 +4259,13 @@
         <v>45271</v>
       </c>
       <c r="B194" t="n">
-        <v>228.4</v>
+        <v>229.46</v>
       </c>
       <c r="C194" t="n">
-        <v>237.01</v>
+        <v>230.46</v>
       </c>
       <c r="D194" t="n">
-        <v>236.71</v>
+        <v>181.83</v>
       </c>
       <c r="E194" t="n">
         <v>234.3</v>
@@ -4276,13 +4276,13 @@
         <v>45272</v>
       </c>
       <c r="B195" t="n">
-        <v>230.11</v>
+        <v>230.35</v>
       </c>
       <c r="C195" t="n">
-        <v>239.42</v>
+        <v>229.77</v>
       </c>
       <c r="D195" t="n">
-        <v>239.58</v>
+        <v>181.63</v>
       </c>
       <c r="E195" t="n">
         <v>235.6</v>
@@ -4293,13 +4293,13 @@
         <v>45273</v>
       </c>
       <c r="B196" t="n">
-        <v>231.66</v>
+        <v>231.04</v>
       </c>
       <c r="C196" t="n">
-        <v>236.84</v>
+        <v>224.38</v>
       </c>
       <c r="D196" t="n">
-        <v>242.24</v>
+        <v>182.53</v>
       </c>
       <c r="E196" t="n">
         <v>241.2</v>
@@ -4310,13 +4310,13 @@
         <v>45274</v>
       </c>
       <c r="B197" t="n">
-        <v>234.21</v>
+        <v>232.32</v>
       </c>
       <c r="C197" t="n">
-        <v>245.19</v>
+        <v>234.88</v>
       </c>
       <c r="D197" t="n">
-        <v>247.97</v>
+        <v>185.13</v>
       </c>
       <c r="E197" t="n">
         <v>234.21</v>
@@ -4327,13 +4327,13 @@
         <v>45275</v>
       </c>
       <c r="B198" t="n">
-        <v>233.91</v>
+        <v>232.5</v>
       </c>
       <c r="C198" t="n">
-        <v>243.03</v>
+        <v>233.46</v>
       </c>
       <c r="D198" t="n">
-        <v>245.67</v>
+        <v>185.02</v>
       </c>
       <c r="E198" t="n">
         <v>235.45</v>
@@ -4344,13 +4344,13 @@
         <v>45278</v>
       </c>
       <c r="B199" t="n">
-        <v>233.65</v>
+        <v>232.35</v>
       </c>
       <c r="C199" t="n">
-        <v>239.15</v>
+        <v>240.32</v>
       </c>
       <c r="D199" t="n">
-        <v>245.32</v>
+        <v>186.23</v>
       </c>
       <c r="E199" t="n">
         <v>236.08</v>
@@ -4361,13 +4361,13 @@
         <v>45279</v>
       </c>
       <c r="B200" t="n">
-        <v>232.12</v>
+        <v>230.85</v>
       </c>
       <c r="C200" t="n">
-        <v>228.83</v>
+        <v>231.65</v>
       </c>
       <c r="D200" t="n">
-        <v>240.12</v>
+        <v>184.6</v>
       </c>
       <c r="E200" t="n">
         <v>246.72</v>
@@ -4378,13 +4378,13 @@
         <v>45280</v>
       </c>
       <c r="B201" t="n">
-        <v>234.71</v>
+        <v>231.58</v>
       </c>
       <c r="C201" t="n">
-        <v>231.82</v>
+        <v>245.19</v>
       </c>
       <c r="D201" t="n">
-        <v>249.1</v>
+        <v>189.14</v>
       </c>
       <c r="E201" t="n">
         <v>244.14</v>
@@ -4395,13 +4395,13 @@
         <v>45281</v>
       </c>
       <c r="B202" t="n">
-        <v>236.23</v>
+        <v>232.33</v>
       </c>
       <c r="C202" t="n">
-        <v>233.42</v>
+        <v>239.87</v>
       </c>
       <c r="D202" t="n">
-        <v>250.47</v>
+        <v>189.66</v>
       </c>
       <c r="E202" t="n">
         <v>240.08</v>
@@ -4412,13 +4412,13 @@
         <v>45282</v>
       </c>
       <c r="B203" t="n">
-        <v>236.99</v>
+        <v>232.27</v>
       </c>
       <c r="C203" t="n">
-        <v>237.8</v>
+        <v>235.64</v>
       </c>
       <c r="D203" t="n">
-        <v>247.56</v>
+        <v>188</v>
       </c>
       <c r="E203" t="n">
         <v>238.83</v>
@@ -4429,13 +4429,13 @@
         <v>45285</v>
       </c>
       <c r="B204" t="n">
-        <v>237.26</v>
+        <v>231.62</v>
       </c>
       <c r="C204" t="n">
-        <v>236.07</v>
+        <v>229.99</v>
       </c>
       <c r="D204" t="n">
-        <v>243.74</v>
+        <v>187.54</v>
       </c>
       <c r="E204" t="n">
         <v>235.58</v>
@@ -4446,13 +4446,13 @@
         <v>45286</v>
       </c>
       <c r="B205" t="n">
-        <v>235.51</v>
+        <v>229.47</v>
       </c>
       <c r="C205" t="n">
-        <v>233.04</v>
+        <v>228.68</v>
       </c>
       <c r="D205" t="n">
-        <v>236.27</v>
+        <v>185.33</v>
       </c>
       <c r="E205" t="n">
         <v>238.72</v>
@@ -4463,13 +4463,13 @@
         <v>45287</v>
       </c>
       <c r="B206" t="n">
-        <v>234.57</v>
+        <v>227.8</v>
       </c>
       <c r="C206" t="n">
-        <v>231.2</v>
+        <v>228.79</v>
       </c>
       <c r="D206" t="n">
-        <v>234.7</v>
+        <v>185.61</v>
       </c>
       <c r="E206" t="n">
         <v>239.37</v>
@@ -4480,13 +4480,13 @@
         <v>45288</v>
       </c>
       <c r="B207" t="n">
-        <v>233.53</v>
+        <v>226.34</v>
       </c>
       <c r="C207" t="n">
-        <v>232.19</v>
+        <v>234.81</v>
       </c>
       <c r="D207" t="n">
-        <v>232.38</v>
+        <v>184.76</v>
       </c>
       <c r="E207" t="n">
         <v>242.64</v>
@@ -4497,13 +4497,13 @@
         <v>45289</v>
       </c>
       <c r="B208" t="n">
-        <v>235.96</v>
+        <v>226.61</v>
       </c>
       <c r="C208" t="n">
-        <v>239.98</v>
+        <v>244.46</v>
       </c>
       <c r="D208" t="n">
-        <v>236.96</v>
+        <v>186.27</v>
       </c>
       <c r="E208" t="n">
         <v>243.84</v>
@@ -4514,13 +4514,13 @@
         <v>45292</v>
       </c>
       <c r="B209" t="n">
-        <v>238.69</v>
+        <v>227.76</v>
       </c>
       <c r="C209" t="n">
-        <v>243.62</v>
+        <v>251.3</v>
       </c>
       <c r="D209" t="n">
-        <v>240.24</v>
+        <v>188.12</v>
       </c>
       <c r="E209" t="n">
         <v>239.74</v>
@@ -4531,13 +4531,13 @@
         <v>45293</v>
       </c>
       <c r="B210" t="n">
-        <v>239.03</v>
+        <v>228.48</v>
       </c>
       <c r="C210" t="n">
-        <v>241.47</v>
+        <v>243.91</v>
       </c>
       <c r="D210" t="n">
-        <v>238.57</v>
+        <v>187.71</v>
       </c>
       <c r="E210" t="n">
         <v>237.01</v>
@@ -4548,13 +4548,13 @@
         <v>45294</v>
       </c>
       <c r="B211" t="n">
-        <v>236.49</v>
+        <v>227.72</v>
       </c>
       <c r="C211" t="n">
-        <v>235.11</v>
+        <v>234.2</v>
       </c>
       <c r="D211" t="n">
-        <v>231.78</v>
+        <v>184.67</v>
       </c>
       <c r="E211" t="n">
         <v>239.29</v>
@@ -4565,13 +4565,13 @@
         <v>45295</v>
       </c>
       <c r="B212" t="n">
-        <v>236.95</v>
+        <v>227.76</v>
       </c>
       <c r="C212" t="n">
-        <v>238.49</v>
+        <v>238.01</v>
       </c>
       <c r="D212" t="n">
-        <v>233.02</v>
+        <v>184.58</v>
       </c>
       <c r="E212" t="n">
         <v>251.05</v>
@@ -4582,13 +4582,13 @@
         <v>45296</v>
       </c>
       <c r="B213" t="n">
-        <v>241.57</v>
+        <v>230.19</v>
       </c>
       <c r="C213" t="n">
-        <v>246.12</v>
+        <v>255.4</v>
       </c>
       <c r="D213" t="n">
-        <v>243.23</v>
+        <v>188.99</v>
       </c>
       <c r="E213" t="n">
         <v>253.5</v>
@@ -4599,13 +4599,13 @@
         <v>45299</v>
       </c>
       <c r="B214" t="n">
-        <v>246.12</v>
+        <v>233.63</v>
       </c>
       <c r="C214" t="n">
-        <v>252.53</v>
+        <v>261.2</v>
       </c>
       <c r="D214" t="n">
-        <v>250.48</v>
+        <v>191.96</v>
       </c>
       <c r="E214" t="n">
         <v>252.08</v>
@@ -4616,13 +4616,13 @@
         <v>45300</v>
       </c>
       <c r="B215" t="n">
-        <v>248.15</v>
+        <v>237.68</v>
       </c>
       <c r="C215" t="n">
-        <v>252.77</v>
+        <v>262.42</v>
       </c>
       <c r="D215" t="n">
-        <v>253.52</v>
+        <v>193.47</v>
       </c>
       <c r="E215" t="n">
         <v>257.22</v>
@@ -4633,13 +4633,13 @@
         <v>45301</v>
       </c>
       <c r="B216" t="n">
-        <v>251.15</v>
+        <v>243.03</v>
       </c>
       <c r="C216" t="n">
-        <v>257.57</v>
+        <v>266.47</v>
       </c>
       <c r="D216" t="n">
-        <v>259.99</v>
+        <v>195.34</v>
       </c>
       <c r="E216" t="n">
         <v>247.14</v>
@@ -4650,13 +4650,13 @@
         <v>45302</v>
       </c>
       <c r="B217" t="n">
-        <v>249.28</v>
+        <v>245.8</v>
       </c>
       <c r="C217" t="n">
-        <v>257.92</v>
+        <v>264.42</v>
       </c>
       <c r="D217" t="n">
-        <v>255.29</v>
+        <v>191.99</v>
       </c>
       <c r="E217" t="n">
         <v>254.5</v>
@@ -4667,13 +4667,13 @@
         <v>45303</v>
       </c>
       <c r="B218" t="n">
-        <v>250.19</v>
+        <v>249.01</v>
       </c>
       <c r="C218" t="n">
-        <v>259.05</v>
+        <v>267.16</v>
       </c>
       <c r="D218" t="n">
-        <v>260.93</v>
+        <v>193.61</v>
       </c>
       <c r="E218" t="n">
         <v>252.54</v>
@@ -4684,13 +4684,13 @@
         <v>45306</v>
       </c>
       <c r="B219" t="n">
-        <v>250.5</v>
+        <v>251.8</v>
       </c>
       <c r="C219" t="n">
-        <v>256.07</v>
+        <v>267.21</v>
       </c>
       <c r="D219" t="n">
-        <v>263.33</v>
+        <v>193.71</v>
       </c>
       <c r="E219" t="n">
         <v>256.61</v>
@@ -4701,13 +4701,13 @@
         <v>45307</v>
       </c>
       <c r="B220" t="n">
-        <v>251.92</v>
+        <v>255.62</v>
       </c>
       <c r="C220" t="n">
-        <v>258.58</v>
+        <v>272.24</v>
       </c>
       <c r="D220" t="n">
-        <v>269.39</v>
+        <v>196.35</v>
       </c>
       <c r="E220" t="n">
         <v>261.44</v>
@@ -4718,13 +4718,13 @@
         <v>45308</v>
       </c>
       <c r="B221" t="n">
-        <v>254.49</v>
+        <v>260.95</v>
       </c>
       <c r="C221" t="n">
-        <v>263.75</v>
+        <v>279.46</v>
       </c>
       <c r="D221" t="n">
-        <v>275.16</v>
+        <v>198.5</v>
       </c>
       <c r="E221" t="n">
         <v>253.18</v>
@@ -4735,13 +4735,13 @@
         <v>45309</v>
       </c>
       <c r="B222" t="n">
-        <v>251.78</v>
+        <v>261.18</v>
       </c>
       <c r="C222" t="n">
-        <v>265.55</v>
+        <v>269.78</v>
       </c>
       <c r="D222" t="n">
-        <v>268.09</v>
+        <v>195.15</v>
       </c>
       <c r="E222" t="n">
         <v>248.48</v>
@@ -4752,13 +4752,13 @@
         <v>45310</v>
       </c>
       <c r="B223" t="n">
-        <v>246.63</v>
+        <v>255.85</v>
       </c>
       <c r="C223" t="n">
-        <v>258.07</v>
+        <v>255.47</v>
       </c>
       <c r="D223" t="n">
-        <v>257.89</v>
+        <v>190.68</v>
       </c>
       <c r="E223" t="n">
         <v>248.42</v>
@@ -4769,13 +4769,13 @@
         <v>45313</v>
       </c>
       <c r="B224" t="n">
-        <v>242.9</v>
+        <v>249.9</v>
       </c>
       <c r="C224" t="n">
-        <v>250.52</v>
+        <v>251.86</v>
       </c>
       <c r="D224" t="n">
-        <v>252.05</v>
+        <v>188.57</v>
       </c>
       <c r="E224" t="n">
         <v>238.45</v>
@@ -4786,13 +4786,13 @@
         <v>45314</v>
       </c>
       <c r="B225" t="n">
-        <v>238.39</v>
+        <v>242.78</v>
       </c>
       <c r="C225" t="n">
-        <v>242.67</v>
+        <v>246.54</v>
       </c>
       <c r="D225" t="n">
-        <v>243.8</v>
+        <v>185.65</v>
       </c>
       <c r="E225" t="n">
         <v>237.93</v>
@@ -4803,13 +4803,13 @@
         <v>45315</v>
       </c>
       <c r="B226" t="n">
-        <v>234.86</v>
+        <v>236.82</v>
       </c>
       <c r="C226" t="n">
-        <v>244.66</v>
+        <v>242.86</v>
       </c>
       <c r="D226" t="n">
-        <v>237.44</v>
+        <v>183.83</v>
       </c>
       <c r="E226" t="n">
         <v>237.49</v>
@@ -4820,13 +4820,13 @@
         <v>45316</v>
       </c>
       <c r="B227" t="n">
-        <v>231.35</v>
+        <v>231.84</v>
       </c>
       <c r="C227" t="n">
-        <v>238.29</v>
+        <v>242.93</v>
       </c>
       <c r="D227" t="n">
-        <v>231.57</v>
+        <v>183.28</v>
       </c>
       <c r="E227" t="n">
         <v>240.45</v>
@@ -4837,13 +4837,13 @@
         <v>45317</v>
       </c>
       <c r="B228" t="n">
-        <v>229.37</v>
+        <v>228.26</v>
       </c>
       <c r="C228" t="n">
-        <v>238.83</v>
+        <v>244.81</v>
       </c>
       <c r="D228" t="n">
-        <v>227.72</v>
+        <v>182.28</v>
       </c>
       <c r="E228" t="n">
         <v>234.96</v>
@@ -4854,13 +4854,13 @@
         <v>45320</v>
       </c>
       <c r="B229" t="n">
-        <v>226.6</v>
+        <v>224.92</v>
       </c>
       <c r="C229" t="n">
-        <v>233.55</v>
+        <v>236.06</v>
       </c>
       <c r="D229" t="n">
-        <v>222.25</v>
+        <v>180.31</v>
       </c>
       <c r="E229" t="n">
         <v>233.94</v>
@@ -4871,13 +4871,13 @@
         <v>45321</v>
       </c>
       <c r="B230" t="n">
-        <v>223.29</v>
+        <v>221.9</v>
       </c>
       <c r="C230" t="n">
-        <v>233.86</v>
+        <v>233.15</v>
       </c>
       <c r="D230" t="n">
-        <v>216.78</v>
+        <v>178.7</v>
       </c>
       <c r="E230" t="n">
         <v>227.22</v>
@@ -4888,13 +4888,13 @@
         <v>45322</v>
       </c>
       <c r="B231" t="n">
-        <v>220.04</v>
+        <v>219.21</v>
       </c>
       <c r="C231" t="n">
-        <v>222.12</v>
+        <v>229.07</v>
       </c>
       <c r="D231" t="n">
-        <v>211.97</v>
+        <v>176.76</v>
       </c>
       <c r="E231" t="n">
         <v>218.89</v>
@@ -4905,13 +4905,13 @@
         <v>45323</v>
       </c>
       <c r="B232" t="n">
-        <v>215.12</v>
+        <v>216.5</v>
       </c>
       <c r="C232" t="n">
-        <v>218.42</v>
+        <v>224.06</v>
       </c>
       <c r="D232" t="n">
-        <v>206.01</v>
+        <v>175.25</v>
       </c>
       <c r="E232" t="n">
         <v>219.91</v>
@@ -4922,13 +4922,13 @@
         <v>45324</v>
       </c>
       <c r="B233" t="n">
-        <v>211.92</v>
+        <v>214.4</v>
       </c>
       <c r="C233" t="n">
-        <v>212.34</v>
+        <v>215.29</v>
       </c>
       <c r="D233" t="n">
-        <v>202.37</v>
+        <v>174.08</v>
       </c>
       <c r="E233" t="n">
         <v>215.55</v>
@@ -4939,13 +4939,13 @@
         <v>45327</v>
       </c>
       <c r="B234" t="n">
-        <v>207.68</v>
+        <v>212.28</v>
       </c>
       <c r="C234" t="n">
-        <v>214.45</v>
+        <v>214.33</v>
       </c>
       <c r="D234" t="n">
-        <v>197.27</v>
+        <v>171.45</v>
       </c>
       <c r="E234" t="n">
         <v>211.88</v>
@@ -4956,13 +4956,13 @@
         <v>45328</v>
       </c>
       <c r="B235" t="n">
-        <v>202.82</v>
+        <v>210.15</v>
       </c>
       <c r="C235" t="n">
-        <v>210.92</v>
+        <v>214.41</v>
       </c>
       <c r="D235" t="n">
-        <v>192.67</v>
+        <v>169.29</v>
       </c>
       <c r="E235" t="n">
         <v>212.19</v>
@@ -4973,13 +4973,13 @@
         <v>45329</v>
       </c>
       <c r="B236" t="n">
-        <v>198.86</v>
+        <v>208.2</v>
       </c>
       <c r="C236" t="n">
-        <v>208.11</v>
+        <v>208.36</v>
       </c>
       <c r="D236" t="n">
-        <v>189.18</v>
+        <v>166.81</v>
       </c>
       <c r="E236" t="n">
         <v>208.8</v>
@@ -4990,13 +4990,13 @@
         <v>45330</v>
       </c>
       <c r="B237" t="n">
-        <v>195.74</v>
+        <v>206.14</v>
       </c>
       <c r="C237" t="n">
-        <v>200.96</v>
+        <v>203.92</v>
       </c>
       <c r="D237" t="n">
-        <v>185.82</v>
+        <v>164.43</v>
       </c>
       <c r="E237" t="n">
         <v>209.14</v>
@@ -5007,13 +5007,13 @@
         <v>45331</v>
       </c>
       <c r="B238" t="n">
-        <v>193.06</v>
+        <v>204.05</v>
       </c>
       <c r="C238" t="n">
-        <v>198.18</v>
+        <v>205.91</v>
       </c>
       <c r="D238" t="n">
-        <v>182.66</v>
+        <v>162.13</v>
       </c>
       <c r="E238" t="n">
         <v>207.83</v>
@@ -5024,13 +5024,13 @@
         <v>45334</v>
       </c>
       <c r="B239" t="n">
-        <v>190.64</v>
+        <v>201.87</v>
       </c>
       <c r="C239" t="n">
-        <v>195.48</v>
+        <v>205.17</v>
       </c>
       <c r="D239" t="n">
-        <v>179.88</v>
+        <v>160.13</v>
       </c>
       <c r="E239" t="n">
         <v>182.63</v>
@@ -5041,13 +5041,13 @@
         <v>45335</v>
       </c>
       <c r="B240" t="n">
-        <v>185.66</v>
+        <v>198.79</v>
       </c>
       <c r="C240" t="n">
-        <v>195.3</v>
+        <v>198.85</v>
       </c>
       <c r="D240" t="n">
-        <v>173.73</v>
+        <v>154.46</v>
       </c>
       <c r="E240" t="n">
         <v>183.25</v>
@@ -5058,13 +5058,13 @@
         <v>45336</v>
       </c>
       <c r="B241" t="n">
-        <v>180.99</v>
+        <v>195.49</v>
       </c>
       <c r="C241" t="n">
-        <v>193.4</v>
+        <v>197.18</v>
       </c>
       <c r="D241" t="n">
-        <v>170.08</v>
+        <v>152.07</v>
       </c>
       <c r="E241" t="n">
         <v>190.93</v>
@@ -5075,13 +5075,13 @@
         <v>45337</v>
       </c>
       <c r="B242" t="n">
-        <v>178.72</v>
+        <v>192.84</v>
       </c>
       <c r="C242" t="n">
-        <v>188.75</v>
+        <v>198.11</v>
       </c>
       <c r="D242" t="n">
-        <v>170.19</v>
+        <v>152.33</v>
       </c>
       <c r="E242" t="n">
         <v>191.59</v>
@@ -5092,13 +5092,13 @@
         <v>45338</v>
       </c>
       <c r="B243" t="n">
-        <v>177.07</v>
+        <v>190.51</v>
       </c>
       <c r="C243" t="n">
-        <v>186.29</v>
+        <v>199.52</v>
       </c>
       <c r="D243" t="n">
-        <v>169.42</v>
+        <v>151.7</v>
       </c>
       <c r="E243" t="n">
         <v>187.29</v>
@@ -5109,13 +5109,13 @@
         <v>45341</v>
       </c>
       <c r="B244" t="n">
-        <v>173.47</v>
+        <v>188.1</v>
       </c>
       <c r="C244" t="n">
-        <v>183.85</v>
+        <v>193.83</v>
       </c>
       <c r="D244" t="n">
-        <v>166.46</v>
+        <v>149.87</v>
       </c>
       <c r="E244" t="n">
         <v>188.86</v>
@@ -5126,13 +5126,13 @@
         <v>45342</v>
       </c>
       <c r="B245" t="n">
-        <v>171.01</v>
+        <v>185.99</v>
       </c>
       <c r="C245" t="n">
-        <v>180.79</v>
+        <v>192.58</v>
       </c>
       <c r="D245" t="n">
-        <v>165.25</v>
+        <v>149.46</v>
       </c>
       <c r="E245" t="n">
         <v>187.91</v>
@@ -5143,13 +5143,13 @@
         <v>45343</v>
       </c>
       <c r="B246" t="n">
-        <v>168.61</v>
+        <v>184.12</v>
       </c>
       <c r="C246" t="n">
-        <v>178.9</v>
+        <v>188.06</v>
       </c>
       <c r="D246" t="n">
-        <v>163.6</v>
+        <v>148.33</v>
       </c>
       <c r="E246" t="n">
         <v>181.06</v>
@@ -5160,13 +5160,13 @@
         <v>45344</v>
       </c>
       <c r="B247" t="n">
-        <v>162.67</v>
+        <v>181.37</v>
       </c>
       <c r="C247" t="n">
-        <v>175.83</v>
+        <v>179.66</v>
       </c>
       <c r="D247" t="n">
-        <v>159.19</v>
+        <v>145.74</v>
       </c>
       <c r="E247" t="n">
         <v>185.1</v>
@@ -5177,13 +5177,13 @@
         <v>45345</v>
       </c>
       <c r="B248" t="n">
-        <v>162.42</v>
+        <v>179.39</v>
       </c>
       <c r="C248" t="n">
-        <v>172.12</v>
+        <v>182.77</v>
       </c>
       <c r="D248" t="n">
-        <v>159.98</v>
+        <v>145.95</v>
       </c>
       <c r="E248" t="n">
         <v>187.58</v>
@@ -5194,13 +5194,13 @@
         <v>45348</v>
       </c>
       <c r="B249" t="n">
-        <v>166.64</v>
+        <v>178.96</v>
       </c>
       <c r="C249" t="n">
-        <v>168.94</v>
+        <v>187.45</v>
       </c>
       <c r="D249" t="n">
-        <v>162.6</v>
+        <v>147.46</v>
       </c>
       <c r="E249" t="n">
         <v>189.56</v>
@@ -5211,13 +5211,13 @@
         <v>45349</v>
       </c>
       <c r="B250" t="n">
-        <v>173.01</v>
+        <v>180.28</v>
       </c>
       <c r="C250" t="n">
-        <v>170.89</v>
+        <v>195.19</v>
       </c>
       <c r="D250" t="n">
-        <v>167.24</v>
+        <v>151.42</v>
       </c>
       <c r="E250" t="n">
         <v>193.57</v>
@@ -5228,13 +5228,13 @@
         <v>45350</v>
       </c>
       <c r="B251" t="n">
-        <v>180.32</v>
+        <v>182.62</v>
       </c>
       <c r="C251" t="n">
-        <v>177.98</v>
+        <v>200.61</v>
       </c>
       <c r="D251" t="n">
-        <v>173.11</v>
+        <v>154.39</v>
       </c>
       <c r="E251" t="n">
         <v>188.13</v>
@@ -5245,13 +5245,13 @@
         <v>45351</v>
       </c>
       <c r="B252" t="n">
-        <v>183.17</v>
+        <v>187.79</v>
       </c>
       <c r="C252" t="n">
-        <v>178.53</v>
+        <v>191.22</v>
       </c>
       <c r="D252" t="n">
-        <v>172.53</v>
+        <v>152.83</v>
       </c>
       <c r="E252" t="n">
         <v>184.02</v>
@@ -5262,13 +5262,13 @@
         <v>45352</v>
       </c>
       <c r="B253" t="n">
-        <v>181.05</v>
+        <v>195.69</v>
       </c>
       <c r="C253" t="n">
-        <v>175.69</v>
+        <v>181.65</v>
       </c>
       <c r="D253" t="n">
-        <v>168.56</v>
+        <v>150.04</v>
       </c>
       <c r="E253" t="n">
         <v>188.71</v>
@@ -5279,13 +5279,13 @@
         <v>45355</v>
       </c>
       <c r="B254" t="n">
-        <v>183.9</v>
+        <v>199.35</v>
       </c>
       <c r="C254" t="n">
-        <v>176.21</v>
+        <v>184.83</v>
       </c>
       <c r="D254" t="n">
-        <v>173.02</v>
+        <v>150.31</v>
       </c>
       <c r="E254" t="n">
         <v>200.45</v>
@@ -5296,13 +5296,13 @@
         <v>45356</v>
       </c>
       <c r="B255" t="n">
-        <v>189.71</v>
+        <v>202.16</v>
       </c>
       <c r="C255" t="n">
-        <v>188.66</v>
+        <v>195.37</v>
       </c>
       <c r="D255" t="n">
-        <v>182.08</v>
+        <v>153.9</v>
       </c>
       <c r="E255" t="n">
         <v>199.95</v>
@@ -5313,13 +5313,13 @@
         <v>45357</v>
       </c>
       <c r="B256" t="n">
-        <v>193.71</v>
+        <v>205.16</v>
       </c>
       <c r="C256" t="n">
-        <v>196.77</v>
+        <v>194.73</v>
       </c>
       <c r="D256" t="n">
-        <v>186.94</v>
+        <v>156.16</v>
       </c>
       <c r="E256" t="n">
         <v>193.76</v>
@@ -5330,13 +5330,13 @@
         <v>45358</v>
       </c>
       <c r="B257" t="n">
-        <v>194.5</v>
+        <v>208.2</v>
       </c>
       <c r="C257" t="n">
-        <v>193.35</v>
+        <v>189.03</v>
       </c>
       <c r="D257" t="n">
-        <v>185.4</v>
+        <v>155.43</v>
       </c>
       <c r="E257" t="n">
         <v>194.77</v>
@@ -5347,13 +5347,13 @@
         <v>45359</v>
       </c>
       <c r="B258" t="n">
-        <v>195.38</v>
+        <v>209.9</v>
       </c>
       <c r="C258" t="n">
-        <v>189.15</v>
+        <v>184.24</v>
       </c>
       <c r="D258" t="n">
-        <v>186.61</v>
+        <v>155.03</v>
       </c>
       <c r="E258" t="n">
         <v>197.41</v>
@@ -5364,13 +5364,13 @@
         <v>45362</v>
       </c>
       <c r="B259" t="n">
-        <v>196.86</v>
+        <v>211.2</v>
       </c>
       <c r="C259" t="n">
-        <v>195.67</v>
+        <v>190.94</v>
       </c>
       <c r="D259" t="n">
-        <v>190.51</v>
+        <v>156.35</v>
       </c>
       <c r="E259" t="n">
         <v>191.97</v>
@@ -5381,13 +5381,13 @@
         <v>45363</v>
       </c>
       <c r="B260" t="n">
-        <v>196.42</v>
+        <v>211.39</v>
       </c>
       <c r="C260" t="n">
-        <v>194.86</v>
+        <v>186.63</v>
       </c>
       <c r="D260" t="n">
-        <v>187.61</v>
+        <v>155.1</v>
       </c>
       <c r="E260" t="n">
         <v>199.4</v>
@@ -5398,13 +5398,13 @@
         <v>45364</v>
       </c>
       <c r="B261" t="n">
-        <v>199.65</v>
+        <v>212.25</v>
       </c>
       <c r="C261" t="n">
-        <v>197.06</v>
+        <v>193.19</v>
       </c>
       <c r="D261" t="n">
-        <v>194.25</v>
+        <v>157.13</v>
       </c>
       <c r="E261" t="n">
         <v>199.73</v>
@@ -5415,13 +5415,13 @@
         <v>45365</v>
       </c>
       <c r="B262" t="n">
-        <v>203.02</v>
+        <v>213.51</v>
       </c>
       <c r="C262" t="n">
-        <v>201.66</v>
+        <v>194.15</v>
       </c>
       <c r="D262" t="n">
-        <v>198.15</v>
+        <v>159.22</v>
       </c>
       <c r="E262" t="n">
         <v>202.04</v>
@@ -5432,13 +5432,13 @@
         <v>45366</v>
       </c>
       <c r="B263" t="n">
-        <v>206.48</v>
+        <v>215.1</v>
       </c>
       <c r="C263" t="n">
-        <v>211.38</v>
+        <v>203.29</v>
       </c>
       <c r="D263" t="n">
-        <v>202.33</v>
+        <v>161.25</v>
       </c>
       <c r="E263" t="n">
         <v>201.88</v>
@@ -5449,13 +5449,13 @@
         <v>45369</v>
       </c>
       <c r="B264" t="n">
-        <v>208.96</v>
+        <v>216.74</v>
       </c>
       <c r="C264" t="n">
-        <v>212.34</v>
+        <v>206.45</v>
       </c>
       <c r="D264" t="n">
-        <v>205.08</v>
+        <v>162.26</v>
       </c>
       <c r="E264" t="n">
         <v>202.64</v>
@@ -5466,13 +5466,13 @@
         <v>45370</v>
       </c>
       <c r="B265" t="n">
-        <v>210.46</v>
+        <v>218.31</v>
       </c>
       <c r="C265" t="n">
-        <v>209.85</v>
+        <v>210.91</v>
       </c>
       <c r="D265" t="n">
-        <v>207.32</v>
+        <v>162.97</v>
       </c>
       <c r="E265" t="n">
         <v>188.14</v>
@@ -5483,13 +5483,13 @@
         <v>45371</v>
       </c>
       <c r="B266" t="n">
-        <v>204.18</v>
+        <v>216.55</v>
       </c>
       <c r="C266" t="n">
-        <v>197.16</v>
+        <v>196.88</v>
       </c>
       <c r="D266" t="n">
-        <v>194.3</v>
+        <v>157.62</v>
       </c>
       <c r="E266" t="n">
         <v>180.74</v>
@@ -5500,13 +5500,13 @@
         <v>45372</v>
       </c>
       <c r="B267" t="n">
-        <v>197.36</v>
+        <v>213.35</v>
       </c>
       <c r="C267" t="n">
-        <v>188.06</v>
+        <v>187.08</v>
       </c>
       <c r="D267" t="n">
-        <v>185.34</v>
+        <v>154.64</v>
       </c>
       <c r="E267" t="n">
         <v>176.54</v>
@@ -5517,13 +5517,13 @@
         <v>45373</v>
       </c>
       <c r="B268" t="n">
-        <v>191.91</v>
+        <v>209.24</v>
       </c>
       <c r="C268" t="n">
-        <v>183.34</v>
+        <v>177.79</v>
       </c>
       <c r="D268" t="n">
-        <v>177.88</v>
+        <v>152.06</v>
       </c>
       <c r="E268" t="n">
         <v>178.65</v>
@@ -5534,13 +5534,13 @@
         <v>45376</v>
       </c>
       <c r="B269" t="n">
-        <v>186.2</v>
+        <v>204.67</v>
       </c>
       <c r="C269" t="n">
-        <v>182.9</v>
+        <v>175.99</v>
       </c>
       <c r="D269" t="n">
-        <v>172.41</v>
+        <v>150.53</v>
       </c>
       <c r="E269" t="n">
         <v>175.34</v>
@@ -5551,13 +5551,13 @@
         <v>45377</v>
       </c>
       <c r="B270" t="n">
-        <v>179.94</v>
+        <v>199.17</v>
       </c>
       <c r="C270" t="n">
-        <v>179.62</v>
+        <v>176.07</v>
       </c>
       <c r="D270" t="n">
-        <v>166.31</v>
+        <v>147.93</v>
       </c>
       <c r="E270" t="n">
         <v>177.77</v>
@@ -5568,13 +5568,13 @@
         <v>45378</v>
       </c>
       <c r="B271" t="n">
-        <v>175.44</v>
+        <v>192.96</v>
       </c>
       <c r="C271" t="n">
-        <v>177.32</v>
+        <v>182.97</v>
       </c>
       <c r="D271" t="n">
-        <v>162.39</v>
+        <v>145.21</v>
       </c>
       <c r="E271" t="n">
         <v>177.54</v>
@@ -5585,13 +5585,13 @@
         <v>45379</v>
       </c>
       <c r="B272" t="n">
-        <v>171.31</v>
+        <v>185.5</v>
       </c>
       <c r="C272" t="n">
-        <v>177.76</v>
+        <v>180</v>
       </c>
       <c r="D272" t="n">
-        <v>158.62</v>
+        <v>143.54</v>
       </c>
       <c r="E272" t="n">
         <v>169.48</v>
@@ -5602,13 +5602,13 @@
         <v>45380</v>
       </c>
       <c r="B273" t="n">
-        <v>164.83</v>
+        <v>175.09</v>
       </c>
       <c r="C273" t="n">
-        <v>169.91</v>
+        <v>174.32</v>
       </c>
       <c r="D273" t="n">
-        <v>152.35</v>
+        <v>141.13</v>
       </c>
       <c r="E273" t="n">
         <v>162.5</v>
@@ -5619,13 +5619,13 @@
         <v>45383</v>
       </c>
       <c r="B274" t="n">
-        <v>158.66</v>
+        <v>164.15</v>
       </c>
       <c r="C274" t="n">
-        <v>163.35</v>
+        <v>164.14</v>
       </c>
       <c r="D274" t="n">
-        <v>147.01</v>
+        <v>138.6</v>
       </c>
       <c r="E274" t="n">
         <v>163.57</v>
@@ -5636,13 +5636,13 @@
         <v>45384</v>
       </c>
       <c r="B275" t="n">
-        <v>153.66</v>
+        <v>156.18</v>
       </c>
       <c r="C275" t="n">
-        <v>157.77</v>
+        <v>165.18</v>
       </c>
       <c r="D275" t="n">
-        <v>142.26</v>
+        <v>137.19</v>
       </c>
       <c r="E275" t="n">
         <v>173.8</v>
@@ -5653,13 +5653,13 @@
         <v>45385</v>
       </c>
       <c r="B276" t="n">
-        <v>157.38</v>
+        <v>154.92</v>
       </c>
       <c r="C276" t="n">
-        <v>157.98</v>
+        <v>172.53</v>
       </c>
       <c r="D276" t="n">
-        <v>146.91</v>
+        <v>139.69</v>
       </c>
       <c r="E276" t="n">
         <v>171.32</v>
@@ -5670,13 +5670,13 @@
         <v>45386</v>
       </c>
       <c r="B277" t="n">
-        <v>160.24</v>
+        <v>155.23</v>
       </c>
       <c r="C277" t="n">
-        <v>163.21</v>
+        <v>175.6</v>
       </c>
       <c r="D277" t="n">
-        <v>146.8</v>
+        <v>140.11</v>
       </c>
       <c r="E277" t="n">
         <v>175.66</v>
@@ -5687,13 +5687,13 @@
         <v>45387</v>
       </c>
       <c r="B278" t="n">
-        <v>166.36</v>
+        <v>157.2</v>
       </c>
       <c r="C278" t="n">
-        <v>175.63</v>
+        <v>175.78</v>
       </c>
       <c r="D278" t="n">
-        <v>151.26</v>
+        <v>142.15</v>
       </c>
       <c r="E278" t="n">
         <v>172.82</v>
@@ -5704,13 +5704,13 @@
         <v>45390</v>
       </c>
       <c r="B279" t="n">
-        <v>170.1</v>
+        <v>160.88</v>
       </c>
       <c r="C279" t="n">
-        <v>179.53</v>
+        <v>180.18</v>
       </c>
       <c r="D279" t="n">
-        <v>151.84</v>
+        <v>141.68</v>
       </c>
       <c r="E279" t="n">
         <v>170.83</v>
@@ -5721,13 +5721,13 @@
         <v>45391</v>
       </c>
       <c r="B280" t="n">
-        <v>171.79</v>
+        <v>166.85</v>
       </c>
       <c r="C280" t="n">
-        <v>178.66</v>
+        <v>172.96</v>
       </c>
       <c r="D280" t="n">
-        <v>152.53</v>
+        <v>140.84</v>
       </c>
       <c r="E280" t="n">
         <v>172.63</v>
@@ -5738,13 +5738,13 @@
         <v>45392</v>
       </c>
       <c r="B281" t="n">
-        <v>175.06</v>
+        <v>174.83</v>
       </c>
       <c r="C281" t="n">
-        <v>182.89</v>
+        <v>183.51</v>
       </c>
       <c r="D281" t="n">
-        <v>155.81</v>
+        <v>140.74</v>
       </c>
       <c r="E281" t="n">
         <v>177.67</v>
@@ -5755,13 +5755,13 @@
         <v>45393</v>
       </c>
       <c r="B282" t="n">
-        <v>180.12</v>
+        <v>183.21</v>
       </c>
       <c r="C282" t="n">
-        <v>193.08</v>
+        <v>180.38</v>
       </c>
       <c r="D282" t="n">
-        <v>162.49</v>
+        <v>142.12</v>
       </c>
       <c r="E282" t="n">
         <v>179.83</v>
@@ -5772,13 +5772,13 @@
         <v>45394</v>
       </c>
       <c r="B283" t="n">
-        <v>184.57</v>
+        <v>192.22</v>
       </c>
       <c r="C283" t="n">
-        <v>193.53</v>
+        <v>188.73</v>
       </c>
       <c r="D283" t="n">
-        <v>167.36</v>
+        <v>143.55</v>
       </c>
       <c r="E283" t="n">
         <v>175.79</v>
@@ -5789,13 +5789,13 @@
         <v>45397</v>
       </c>
       <c r="B284" t="n">
-        <v>185.39</v>
+        <v>201.48</v>
       </c>
       <c r="C284" t="n">
-        <v>183.38</v>
+        <v>175.95</v>
       </c>
       <c r="D284" t="n">
-        <v>165.83</v>
+        <v>141.62</v>
       </c>
       <c r="E284" t="n">
         <v>175.22</v>
@@ -5806,13 +5806,13 @@
         <v>45398</v>
       </c>
       <c r="B285" t="n">
-        <v>184.09</v>
+        <v>205.38</v>
       </c>
       <c r="C285" t="n">
-        <v>184.12</v>
+        <v>174.03</v>
       </c>
       <c r="D285" t="n">
-        <v>164.55</v>
+        <v>139.68</v>
       </c>
       <c r="E285" t="n">
         <v>166.63</v>
@@ -5823,13 +5823,13 @@
         <v>45399</v>
       </c>
       <c r="B286" t="n">
-        <v>177.24</v>
+        <v>203.57</v>
       </c>
       <c r="C286" t="n">
-        <v>173.08</v>
+        <v>157.18</v>
       </c>
       <c r="D286" t="n">
-        <v>156.92</v>
+        <v>135.05</v>
       </c>
       <c r="E286" t="n">
         <v>168.38</v>
@@ -5840,13 +5840,13 @@
         <v>45400</v>
       </c>
       <c r="B287" t="n">
-        <v>171.66</v>
+        <v>200.21</v>
       </c>
       <c r="C287" t="n">
-        <v>167.94</v>
+        <v>157.58</v>
       </c>
       <c r="D287" t="n">
-        <v>154.89</v>
+        <v>133</v>
       </c>
       <c r="E287" t="n">
         <v>171.11</v>
@@ -5857,13 +5857,13 @@
         <v>45401</v>
       </c>
       <c r="B288" t="n">
-        <v>169.77</v>
+        <v>196.38</v>
       </c>
       <c r="C288" t="n">
-        <v>165.79</v>
+        <v>154.89</v>
       </c>
       <c r="D288" t="n">
-        <v>154.98</v>
+        <v>131.78</v>
       </c>
       <c r="E288" t="n">
         <v>164.9</v>
@@ -5874,13 +5874,13 @@
         <v>45404</v>
       </c>
       <c r="B289" t="n">
-        <v>164.2</v>
+        <v>189.71</v>
       </c>
       <c r="C289" t="n">
-        <v>173.08</v>
+        <v>153.16</v>
       </c>
       <c r="D289" t="n">
-        <v>149.53</v>
+        <v>129.76</v>
       </c>
       <c r="E289" t="n">
         <v>172.98</v>
@@ -5891,13 +5891,13 @@
         <v>45405</v>
       </c>
       <c r="B290" t="n">
-        <v>164.28</v>
+        <v>184.64</v>
       </c>
       <c r="C290" t="n">
-        <v>171.57</v>
+        <v>158.96</v>
       </c>
       <c r="D290" t="n">
-        <v>151.19</v>
+        <v>131.32</v>
       </c>
       <c r="E290" t="n">
         <v>176.88</v>
@@ -5908,13 +5908,13 @@
         <v>45406</v>
       </c>
       <c r="B291" t="n">
-        <v>169.58</v>
+        <v>183</v>
       </c>
       <c r="C291" t="n">
-        <v>176.36</v>
+        <v>176.16</v>
       </c>
       <c r="D291" t="n">
-        <v>155.35</v>
+        <v>133.33</v>
       </c>
       <c r="E291" t="n">
         <v>171.76</v>
@@ -5925,13 +5925,13 @@
         <v>45407</v>
       </c>
       <c r="B292" t="n">
-        <v>171.73</v>
+        <v>181.86</v>
       </c>
       <c r="C292" t="n">
-        <v>171.63</v>
+        <v>169.66</v>
       </c>
       <c r="D292" t="n">
-        <v>153.66</v>
+        <v>133.57</v>
       </c>
       <c r="E292" t="n">
         <v>174.6</v>
@@ -5942,13 +5942,13 @@
         <v>45408</v>
       </c>
       <c r="B293" t="n">
-        <v>176.3</v>
+        <v>183.06</v>
       </c>
       <c r="C293" t="n">
-        <v>172.31</v>
+        <v>179.13</v>
       </c>
       <c r="D293" t="n">
-        <v>156.41</v>
+        <v>135.39</v>
       </c>
       <c r="E293" t="n">
         <v>171.05</v>
@@ -5959,13 +5959,13 @@
         <v>45411</v>
       </c>
       <c r="B294" t="n">
-        <v>177.57</v>
+        <v>185.06</v>
       </c>
       <c r="C294" t="n">
-        <v>169.49</v>
+        <v>180.74</v>
       </c>
       <c r="D294" t="n">
-        <v>154.81</v>
+        <v>135.67</v>
       </c>
       <c r="E294" t="n">
         <v>161.48</v>
@@ -5976,13 +5976,13 @@
         <v>45412</v>
       </c>
       <c r="B295" t="n">
-        <v>171.36</v>
+        <v>182.69</v>
       </c>
       <c r="C295" t="n">
-        <v>162.27</v>
+        <v>169.5</v>
       </c>
       <c r="D295" t="n">
-        <v>146.92</v>
+        <v>133.05</v>
       </c>
       <c r="E295" t="n">
         <v>157.11</v>
@@ -5993,13 +5993,13 @@
         <v>45413</v>
       </c>
       <c r="B296" t="n">
-        <v>163.38</v>
+        <v>176.72</v>
       </c>
       <c r="C296" t="n">
-        <v>157.21</v>
+        <v>156.19</v>
       </c>
       <c r="D296" t="n">
-        <v>141.14</v>
+        <v>131.25</v>
       </c>
       <c r="E296" t="n">
         <v>155.45</v>
@@ -6010,13 +6010,13 @@
         <v>45414</v>
       </c>
       <c r="B297" t="n">
-        <v>155.71</v>
+        <v>168.12</v>
       </c>
       <c r="C297" t="n">
-        <v>159.44</v>
+        <v>154.52</v>
       </c>
       <c r="D297" t="n">
-        <v>136.53</v>
+        <v>128.75</v>
       </c>
       <c r="E297" t="n">
         <v>149.93</v>
@@ -6027,13 +6027,13 @@
         <v>45415</v>
       </c>
       <c r="B298" t="n">
-        <v>150.75</v>
+        <v>158.8</v>
       </c>
       <c r="C298" t="n">
-        <v>156.56</v>
+        <v>161.83</v>
       </c>
       <c r="D298" t="n">
-        <v>132.11</v>
+        <v>125.37</v>
       </c>
       <c r="E298" t="n">
         <v>147.05</v>
@@ -6044,13 +6044,13 @@
         <v>45418</v>
       </c>
       <c r="B299" t="n">
-        <v>147.75</v>
+        <v>150.78</v>
       </c>
       <c r="C299" t="n">
-        <v>159.27</v>
+        <v>157.76</v>
       </c>
       <c r="D299" t="n">
-        <v>128.02</v>
+        <v>122.99</v>
       </c>
       <c r="E299" t="n">
         <v>142.05</v>
@@ -6061,13 +6061,13 @@
         <v>45419</v>
       </c>
       <c r="B300" t="n">
-        <v>142.43</v>
+        <v>145.13</v>
       </c>
       <c r="C300" t="n">
-        <v>152.25</v>
+        <v>152.5</v>
       </c>
       <c r="D300" t="n">
-        <v>123.28</v>
+        <v>119.68</v>
       </c>
       <c r="E300" t="n">
         <v>144.68</v>
@@ -6078,13 +6078,13 @@
         <v>45420</v>
       </c>
       <c r="B301" t="n">
-        <v>138.04</v>
+        <v>141.7</v>
       </c>
       <c r="C301" t="n">
-        <v>151.03</v>
+        <v>151.57</v>
       </c>
       <c r="D301" t="n">
-        <v>120.67</v>
+        <v>117.97</v>
       </c>
       <c r="E301" t="n">
         <v>162.13</v>
@@ -6095,13 +6095,13 @@
         <v>45421</v>
       </c>
       <c r="B302" t="n">
-        <v>141.19</v>
+        <v>142.24</v>
       </c>
       <c r="C302" t="n">
-        <v>146.69</v>
+        <v>165.29</v>
       </c>
       <c r="D302" t="n">
-        <v>126.6</v>
+        <v>120.31</v>
       </c>
       <c r="E302" t="n">
         <v>170.18</v>
@@ -6112,13 +6112,13 @@
         <v>45422</v>
       </c>
       <c r="B303" t="n">
-        <v>149.48</v>
+        <v>143.84</v>
       </c>
       <c r="C303" t="n">
-        <v>154.48</v>
+        <v>174.82</v>
       </c>
       <c r="D303" t="n">
-        <v>133.89</v>
+        <v>123.24</v>
       </c>
       <c r="E303" t="n">
         <v>168.29</v>
@@ -6129,13 +6129,13 @@
         <v>45425</v>
       </c>
       <c r="B304" t="n">
-        <v>153.84</v>
+        <v>145.67</v>
       </c>
       <c r="C304" t="n">
-        <v>160.78</v>
+        <v>176.03</v>
       </c>
       <c r="D304" t="n">
-        <v>137.77</v>
+        <v>125.83</v>
       </c>
       <c r="E304" t="n">
         <v>194.05</v>
@@ -6146,13 +6146,13 @@
         <v>45426</v>
       </c>
       <c r="B305" t="n">
-        <v>161.12</v>
+        <v>147.88</v>
       </c>
       <c r="C305" t="n">
-        <v>178.58</v>
+        <v>186.36</v>
       </c>
       <c r="D305" t="n">
-        <v>148.83</v>
+        <v>131.08</v>
       </c>
       <c r="E305" t="n">
         <v>183.28</v>
@@ -6163,13 +6163,13 @@
         <v>45427</v>
       </c>
       <c r="B306" t="n">
-        <v>168.55</v>
+        <v>150.85</v>
       </c>
       <c r="C306" t="n">
-        <v>179.26</v>
+        <v>183.57</v>
       </c>
       <c r="D306" t="n">
-        <v>151.78</v>
+        <v>131.84</v>
       </c>
       <c r="E306" t="n">
         <v>179.99</v>
@@ -6180,13 +6180,13 @@
         <v>45428</v>
       </c>
       <c r="B307" t="n">
-        <v>173.77</v>
+        <v>156.09</v>
       </c>
       <c r="C307" t="n">
-        <v>188.9</v>
+        <v>185.96</v>
       </c>
       <c r="D307" t="n">
-        <v>155.19</v>
+        <v>132.62</v>
       </c>
       <c r="E307" t="n">
         <v>180.01</v>
@@ -6197,13 +6197,13 @@
         <v>45429</v>
       </c>
       <c r="B308" t="n">
-        <v>175.75</v>
+        <v>168.86</v>
       </c>
       <c r="C308" t="n">
-        <v>186.3</v>
+        <v>185.6</v>
       </c>
       <c r="D308" t="n">
-        <v>159.9</v>
+        <v>133.63</v>
       </c>
       <c r="E308" t="n">
         <v>181.19</v>
@@ -6214,13 +6214,13 @@
         <v>45432</v>
       </c>
       <c r="B309" t="n">
-        <v>177.33</v>
+        <v>194.17</v>
       </c>
       <c r="C309" t="n">
-        <v>189.63</v>
+        <v>190.6</v>
       </c>
       <c r="D309" t="n">
-        <v>165.38</v>
+        <v>134.59</v>
       </c>
       <c r="E309" t="n">
         <v>184.76</v>
@@ -6231,13 +6231,13 @@
         <v>45433</v>
       </c>
       <c r="B310" t="n">
-        <v>179.39</v>
+        <v>202.64</v>
       </c>
       <c r="C310" t="n">
-        <v>187.7</v>
+        <v>191.71</v>
       </c>
       <c r="D310" t="n">
-        <v>171.06</v>
+        <v>135.66</v>
       </c>
       <c r="E310" t="n">
         <v>177.81</v>
@@ -6248,13 +6248,13 @@
         <v>45434</v>
       </c>
       <c r="B311" t="n">
-        <v>177.16</v>
+        <v>203.78</v>
       </c>
       <c r="C311" t="n">
-        <v>190.95</v>
+        <v>186.83</v>
       </c>
       <c r="D311" t="n">
-        <v>169.82</v>
+        <v>133.73</v>
       </c>
       <c r="E311" t="n">
         <v>174.72</v>
@@ -6265,13 +6265,13 @@
         <v>45435</v>
       </c>
       <c r="B312" t="n">
-        <v>173.43</v>
+        <v>201.36</v>
       </c>
       <c r="C312" t="n">
-        <v>187.68</v>
+        <v>172.39</v>
       </c>
       <c r="D312" t="n">
-        <v>168.02</v>
+        <v>130.76</v>
       </c>
       <c r="E312" t="n">
         <v>171.97</v>
@@ -6282,13 +6282,13 @@
         <v>45436</v>
       </c>
       <c r="B313" t="n">
-        <v>167.05</v>
+        <v>194.99</v>
       </c>
       <c r="C313" t="n">
-        <v>181.49</v>
+        <v>167.89</v>
       </c>
       <c r="D313" t="n">
-        <v>164</v>
+        <v>127.6</v>
       </c>
       <c r="E313" t="n">
         <v>168.47</v>
@@ -6299,13 +6299,13 @@
         <v>45439</v>
       </c>
       <c r="B314" t="n">
-        <v>160.93</v>
+        <v>184.57</v>
       </c>
       <c r="C314" t="n">
-        <v>166.82</v>
+        <v>161.41</v>
       </c>
       <c r="D314" t="n">
-        <v>160.15</v>
+        <v>125.31</v>
       </c>
       <c r="E314" t="n">
         <v>171.89</v>
@@ -6316,13 +6316,13 @@
         <v>45440</v>
       </c>
       <c r="B315" t="n">
-        <v>157.99</v>
+        <v>172.54</v>
       </c>
       <c r="C315" t="n">
-        <v>169.69</v>
+        <v>165.29</v>
       </c>
       <c r="D315" t="n">
-        <v>158.29</v>
+        <v>123.61</v>
       </c>
       <c r="E315" t="n">
         <v>177.55</v>
@@ -6333,13 +6333,13 @@
         <v>45441</v>
       </c>
       <c r="B316" t="n">
-        <v>159.51</v>
+        <v>165.49</v>
       </c>
       <c r="C316" t="n">
-        <v>175.24</v>
+        <v>167.64</v>
       </c>
       <c r="D316" t="n">
-        <v>161.22</v>
+        <v>127.09</v>
       </c>
       <c r="E316" t="n">
         <v>173.99</v>
@@ -6350,13 +6350,13 @@
         <v>45442</v>
       </c>
       <c r="B317" t="n">
-        <v>158.69</v>
+        <v>160.38</v>
       </c>
       <c r="C317" t="n">
-        <v>178.65</v>
+        <v>171.5</v>
       </c>
       <c r="D317" t="n">
-        <v>157.71</v>
+        <v>127.84</v>
       </c>
       <c r="E317" t="n">
         <v>174.84</v>
@@ -6367,13 +6367,13 @@
         <v>45443</v>
       </c>
       <c r="B318" t="n">
-        <v>159.83</v>
+        <v>157.73</v>
       </c>
       <c r="C318" t="n">
-        <v>167.94</v>
+        <v>179.33</v>
       </c>
       <c r="D318" t="n">
-        <v>157.37</v>
+        <v>129.04</v>
       </c>
       <c r="E318" t="n">
         <v>177.46</v>
@@ -6384,13 +6384,13 @@
         <v>45446</v>
       </c>
       <c r="B319" t="n">
-        <v>163.72</v>
+        <v>158.61</v>
       </c>
       <c r="C319" t="n">
-        <v>164.8</v>
+        <v>186.13</v>
       </c>
       <c r="D319" t="n">
-        <v>160.99</v>
+        <v>134.46</v>
       </c>
       <c r="E319" t="n">
         <v>174.95</v>
@@ -6401,13 +6401,13 @@
         <v>45447</v>
       </c>
       <c r="B320" t="n">
-        <v>167.81</v>
+        <v>160.71</v>
       </c>
       <c r="C320" t="n">
-        <v>167.01</v>
+        <v>186.95</v>
       </c>
       <c r="D320" t="n">
-        <v>162.68</v>
+        <v>135.95</v>
       </c>
       <c r="E320" t="n">
         <v>186.6</v>
@@ -6418,13 +6418,13 @@
         <v>45448</v>
       </c>
       <c r="B321" t="n">
-        <v>176.43</v>
+        <v>165.26</v>
       </c>
       <c r="C321" t="n">
-        <v>182.75</v>
+        <v>195.24</v>
       </c>
       <c r="D321" t="n">
-        <v>171.46</v>
+        <v>140.71</v>
       </c>
       <c r="E321" t="n">
         <v>180.11</v>
@@ -6435,13 +6435,13 @@
         <v>45449</v>
       </c>
       <c r="B322" t="n">
-        <v>180.36</v>
+        <v>172.44</v>
       </c>
       <c r="C322" t="n">
-        <v>175.88</v>
+        <v>186.74</v>
       </c>
       <c r="D322" t="n">
-        <v>170.53</v>
+        <v>141.08</v>
       </c>
       <c r="E322" t="n">
         <v>173.74</v>
@@ -6452,13 +6452,13 @@
         <v>45450</v>
       </c>
       <c r="B323" t="n">
-        <v>176.25</v>
+        <v>176.16</v>
       </c>
       <c r="C323" t="n">
-        <v>170.38</v>
+        <v>170.74</v>
       </c>
       <c r="D323" t="n">
-        <v>164.83</v>
+        <v>138.71</v>
       </c>
       <c r="E323" t="n">
         <v>179.24</v>
@@ -6469,13 +6469,13 @@
         <v>45453</v>
       </c>
       <c r="B324" t="n">
-        <v>174.34</v>
+        <v>178.37</v>
       </c>
       <c r="C324" t="n">
-        <v>171.99</v>
+        <v>171.16</v>
       </c>
       <c r="D324" t="n">
-        <v>166.34</v>
+        <v>139.09</v>
       </c>
       <c r="E324" t="n">
         <v>176.75</v>
@@ -6486,13 +6486,13 @@
         <v>45454</v>
       </c>
       <c r="B325" t="n">
-        <v>172.95</v>
+        <v>179.11</v>
       </c>
       <c r="C325" t="n">
-        <v>178.3</v>
+        <v>172.69</v>
       </c>
       <c r="D325" t="n">
-        <v>163.65</v>
+        <v>136.76</v>
       </c>
       <c r="E325" t="n">
         <v>176.19</v>
@@ -6503,13 +6503,13 @@
         <v>45455</v>
       </c>
       <c r="B326" t="n">
-        <v>171.31</v>
+        <v>177.74</v>
       </c>
       <c r="C326" t="n">
-        <v>168.88</v>
+        <v>174.19</v>
       </c>
       <c r="D326" t="n">
-        <v>161.46</v>
+        <v>134.56</v>
       </c>
       <c r="E326" t="n">
         <v>178.79</v>
@@ -6520,13 +6520,13 @@
         <v>45456</v>
       </c>
       <c r="B327" t="n">
-        <v>172.67</v>
+        <v>176.9</v>
       </c>
       <c r="C327" t="n">
-        <v>171.69</v>
+        <v>177.57</v>
       </c>
       <c r="D327" t="n">
-        <v>162.34</v>
+        <v>134.28</v>
       </c>
       <c r="E327" t="n">
         <v>178.08</v>
@@ -6537,13 +6537,13 @@
         <v>45457</v>
       </c>
       <c r="B328" t="n">
-        <v>174.22</v>
+        <v>176.02</v>
       </c>
       <c r="C328" t="n">
-        <v>178.63</v>
+        <v>175.76</v>
       </c>
       <c r="D328" t="n">
-        <v>161.56</v>
+        <v>133.26</v>
       </c>
       <c r="E328" t="n">
         <v>176.29</v>
@@ -6554,13 +6554,13 @@
         <v>45460</v>
       </c>
       <c r="B329" t="n">
-        <v>173.54</v>
+        <v>174</v>
       </c>
       <c r="C329" t="n">
-        <v>180.13</v>
+        <v>175.6</v>
       </c>
       <c r="D329" t="n">
-        <v>158.78</v>
+        <v>131.71</v>
       </c>
       <c r="E329" t="n">
         <v>174.77</v>
@@ -6571,13 +6571,13 @@
         <v>45461</v>
       </c>
       <c r="B330" t="n">
-        <v>171.24</v>
+        <v>171.21</v>
       </c>
       <c r="C330" t="n">
-        <v>169.13</v>
+        <v>172.07</v>
       </c>
       <c r="D330" t="n">
-        <v>155.7</v>
+        <v>130.44</v>
       </c>
       <c r="E330" t="n">
         <v>175</v>
@@ -6588,13 +6588,13 @@
         <v>45462</v>
       </c>
       <c r="B331" t="n">
-        <v>170.53</v>
+        <v>168.17</v>
       </c>
       <c r="C331" t="n">
-        <v>169.78</v>
+        <v>170.51</v>
       </c>
       <c r="D331" t="n">
-        <v>153.88</v>
+        <v>128.67</v>
       </c>
       <c r="E331" t="n">
         <v>177.94</v>
@@ -6605,13 +6605,13 @@
         <v>45463</v>
       </c>
       <c r="B332" t="n">
-        <v>175.5</v>
+        <v>168.93</v>
       </c>
       <c r="C332" t="n">
-        <v>174.36</v>
+        <v>179.36</v>
       </c>
       <c r="D332" t="n">
-        <v>157.89</v>
+        <v>130.82</v>
       </c>
       <c r="E332" t="n">
         <v>177.48</v>
@@ -6622,13 +6622,13 @@
         <v>45464</v>
       </c>
       <c r="B333" t="n">
-        <v>179.4</v>
+        <v>171.53</v>
       </c>
       <c r="C333" t="n">
-        <v>183.23</v>
+        <v>179.2</v>
       </c>
       <c r="D333" t="n">
-        <v>159.09</v>
+        <v>132.39</v>
       </c>
       <c r="E333" t="n">
         <v>173.79</v>
@@ -6639,13 +6639,13 @@
         <v>45467</v>
       </c>
       <c r="B334" t="n">
-        <v>176.22</v>
+        <v>171.76</v>
       </c>
       <c r="C334" t="n">
-        <v>170.6</v>
+        <v>171.82</v>
       </c>
       <c r="D334" t="n">
-        <v>153.08</v>
+        <v>129.62</v>
       </c>
       <c r="E334" t="n">
         <v>170.66</v>
@@ -6656,13 +6656,13 @@
         <v>45468</v>
       </c>
       <c r="B335" t="n">
-        <v>168.18</v>
+        <v>168.24</v>
       </c>
       <c r="C335" t="n">
-        <v>160.9</v>
+        <v>163.41</v>
       </c>
       <c r="D335" t="n">
-        <v>147.36</v>
+        <v>128.24</v>
       </c>
       <c r="E335" t="n">
         <v>177.29</v>
@@ -6673,13 +6673,13 @@
         <v>45469</v>
       </c>
       <c r="B336" t="n">
-        <v>173.12</v>
+        <v>170.47</v>
       </c>
       <c r="C336" t="n">
-        <v>168.51</v>
+        <v>179.03</v>
       </c>
       <c r="D336" t="n">
-        <v>154.45</v>
+        <v>130.49</v>
       </c>
       <c r="E336" t="n">
         <v>182.47</v>
@@ -6690,13 +6690,13 @@
         <v>45470</v>
       </c>
       <c r="B337" t="n">
-        <v>181.31</v>
+        <v>175.13</v>
       </c>
       <c r="C337" t="n">
-        <v>180.69</v>
+        <v>192.31</v>
       </c>
       <c r="D337" t="n">
-        <v>162.65</v>
+        <v>133.22</v>
       </c>
       <c r="E337" t="n">
         <v>178.01</v>
@@ -6707,13 +6707,13 @@
         <v>45471</v>
       </c>
       <c r="B338" t="n">
-        <v>183.96</v>
+        <v>182.39</v>
       </c>
       <c r="C338" t="n">
-        <v>181.75</v>
+        <v>184.65</v>
       </c>
       <c r="D338" t="n">
-        <v>161.83</v>
+        <v>133.67</v>
       </c>
       <c r="E338" t="n">
         <v>187.44</v>
@@ -6724,13 +6724,13 @@
         <v>45474</v>
       </c>
       <c r="B339" t="n">
-        <v>188.82</v>
+        <v>190.98</v>
       </c>
       <c r="C339" t="n">
-        <v>189.65</v>
+        <v>189.75</v>
       </c>
       <c r="D339" t="n">
-        <v>169.43</v>
+        <v>136.33</v>
       </c>
       <c r="E339" t="n">
         <v>184.86</v>
@@ -6741,13 +6741,13 @@
         <v>45475</v>
       </c>
       <c r="B340" t="n">
-        <v>191.8</v>
+        <v>200.11</v>
       </c>
       <c r="C340" t="n">
-        <v>191.73</v>
+        <v>190.1</v>
       </c>
       <c r="D340" t="n">
-        <v>172.15</v>
+        <v>137.25</v>
       </c>
       <c r="E340" t="n">
         <v>181.57</v>
@@ -6758,13 +6758,13 @@
         <v>45476</v>
       </c>
       <c r="B341" t="n">
-        <v>192.43</v>
+        <v>207.11</v>
       </c>
       <c r="C341" t="n">
-        <v>195.84</v>
+        <v>196.07</v>
       </c>
       <c r="D341" t="n">
-        <v>171.5</v>
+        <v>136.62</v>
       </c>
       <c r="E341" t="n">
         <v>183.01</v>
@@ -6775,13 +6775,13 @@
         <v>45477</v>
       </c>
       <c r="B342" t="n">
-        <v>193.03</v>
+        <v>210.38</v>
       </c>
       <c r="C342" t="n">
-        <v>193.8</v>
+        <v>196.66</v>
       </c>
       <c r="D342" t="n">
-        <v>173.66</v>
+        <v>136.65</v>
       </c>
       <c r="E342" t="n">
         <v>182.58</v>
@@ -6792,13 +6792,13 @@
         <v>45478</v>
       </c>
       <c r="B343" t="n">
-        <v>193.27</v>
+        <v>212.1</v>
       </c>
       <c r="C343" t="n">
-        <v>197.95</v>
+        <v>195.29</v>
       </c>
       <c r="D343" t="n">
-        <v>175.28</v>
+        <v>136.94</v>
       </c>
       <c r="E343" t="n">
         <v>187.35</v>
@@ -6809,13 +6809,13 @@
         <v>45481</v>
       </c>
       <c r="B344" t="n">
-        <v>195.26</v>
+        <v>214.31</v>
       </c>
       <c r="C344" t="n">
-        <v>190.12</v>
+        <v>200.95</v>
       </c>
       <c r="D344" t="n">
-        <v>181.05</v>
+        <v>138.84</v>
       </c>
       <c r="E344" t="n">
         <v>196.37</v>
@@ -6826,13 +6826,13 @@
         <v>45482</v>
       </c>
       <c r="B345" t="n">
-        <v>198.15</v>
+        <v>216.95</v>
       </c>
       <c r="C345" t="n">
-        <v>200.55</v>
+        <v>210.78</v>
       </c>
       <c r="D345" t="n">
-        <v>187.79</v>
+        <v>141.48</v>
       </c>
       <c r="E345" t="n">
         <v>197.42</v>
@@ -6843,13 +6843,13 @@
         <v>45483</v>
       </c>
       <c r="B346" t="n">
-        <v>201.11</v>
+        <v>219.53</v>
       </c>
       <c r="C346" t="n">
-        <v>200.34</v>
+        <v>212.37</v>
       </c>
       <c r="D346" t="n">
-        <v>191.91</v>
+        <v>142.97</v>
       </c>
       <c r="E346" t="n">
         <v>197.88</v>
@@ -6860,13 +6860,13 @@
         <v>45484</v>
       </c>
       <c r="B347" t="n">
-        <v>203.82</v>
+        <v>221.99</v>
       </c>
       <c r="C347" t="n">
-        <v>209.16</v>
+        <v>210.6</v>
       </c>
       <c r="D347" t="n">
-        <v>195.9</v>
+        <v>144.26</v>
       </c>
       <c r="E347" t="n">
         <v>209.86</v>
@@ -6877,13 +6877,13 @@
         <v>45485</v>
       </c>
       <c r="B348" t="n">
-        <v>208.23</v>
+        <v>224.86</v>
       </c>
       <c r="C348" t="n">
-        <v>205.29</v>
+        <v>218.62</v>
       </c>
       <c r="D348" t="n">
-        <v>203.85</v>
+        <v>147.1</v>
       </c>
       <c r="E348" t="n">
         <v>231.26</v>
@@ -6894,13 +6894,13 @@
         <v>45488</v>
       </c>
       <c r="B349" t="n">
-        <v>214.14</v>
+        <v>228.41</v>
       </c>
       <c r="C349" t="n">
-        <v>216.98</v>
+        <v>228.92</v>
       </c>
       <c r="D349" t="n">
-        <v>214.45</v>
+        <v>150.82</v>
       </c>
       <c r="E349" t="n">
         <v>246.39</v>
@@ -6911,13 +6911,13 @@
         <v>45489</v>
       </c>
       <c r="B350" t="n">
-        <v>220.52</v>
+        <v>232.91</v>
       </c>
       <c r="C350" t="n">
-        <v>221.15</v>
+        <v>233.03</v>
       </c>
       <c r="D350" t="n">
-        <v>225.49</v>
+        <v>155.83</v>
       </c>
       <c r="E350" t="n">
         <v>251.52</v>
@@ -6928,13 +6928,13 @@
         <v>45490</v>
       </c>
       <c r="B351" t="n">
-        <v>226.62</v>
+        <v>237.96</v>
       </c>
       <c r="C351" t="n">
-        <v>233.46</v>
+        <v>237.11</v>
       </c>
       <c r="D351" t="n">
-        <v>233.93</v>
+        <v>159.58</v>
       </c>
       <c r="E351" t="n">
         <v>252.94</v>
@@ -6945,13 +6945,13 @@
         <v>45491</v>
       </c>
       <c r="B352" t="n">
-        <v>232.57</v>
+        <v>243.81</v>
       </c>
       <c r="C352" t="n">
-        <v>234.24</v>
+        <v>248.38</v>
       </c>
       <c r="D352" t="n">
-        <v>242.89</v>
+        <v>162.48</v>
       </c>
       <c r="E352" t="n">
         <v>262.33</v>
@@ -6962,13 +6962,13 @@
         <v>45492</v>
       </c>
       <c r="B353" t="n">
-        <v>238.51</v>
+        <v>251.07</v>
       </c>
       <c r="C353" t="n">
-        <v>241.65</v>
+        <v>254.96</v>
       </c>
       <c r="D353" t="n">
-        <v>253.59</v>
+        <v>167.01</v>
       </c>
       <c r="E353" t="n">
         <v>263.26</v>
@@ -6979,13 +6979,13 @@
         <v>45495</v>
       </c>
       <c r="B354" t="n">
-        <v>244.27</v>
+        <v>259.04</v>
       </c>
       <c r="C354" t="n">
-        <v>247.56</v>
+        <v>257.48</v>
       </c>
       <c r="D354" t="n">
-        <v>262.68</v>
+        <v>170.12</v>
       </c>
       <c r="E354" t="n">
         <v>241.03</v>
@@ -6996,13 +6996,13 @@
         <v>45496</v>
       </c>
       <c r="B355" t="n">
-        <v>244.24</v>
+        <v>260.83</v>
       </c>
       <c r="C355" t="n">
-        <v>247.29</v>
+        <v>245.06</v>
       </c>
       <c r="D355" t="n">
-        <v>258.96</v>
+        <v>168.79</v>
       </c>
       <c r="E355" t="n">
         <v>248.23</v>
@@ -7013,13 +7013,13 @@
         <v>45497</v>
       </c>
       <c r="B356" t="n">
-        <v>245.7</v>
+        <v>261.83</v>
       </c>
       <c r="C356" t="n">
-        <v>252.19</v>
+        <v>251.94</v>
       </c>
       <c r="D356" t="n">
-        <v>263.21</v>
+        <v>171.24</v>
       </c>
       <c r="E356" t="n">
         <v>252.64</v>
@@ -7030,13 +7030,13 @@
         <v>45498</v>
       </c>
       <c r="B357" t="n">
-        <v>247.71</v>
+        <v>261.8</v>
       </c>
       <c r="C357" t="n">
-        <v>257.77</v>
+        <v>248.64</v>
       </c>
       <c r="D357" t="n">
-        <v>266.37</v>
+        <v>173.06</v>
       </c>
       <c r="E357" t="n">
         <v>256.56</v>
@@ -7047,13 +7047,13 @@
         <v>45499</v>
       </c>
       <c r="B358" t="n">
-        <v>250.11</v>
+        <v>261.23</v>
       </c>
       <c r="C358" t="n">
-        <v>260.18</v>
+        <v>255.47</v>
       </c>
       <c r="D358" t="n">
-        <v>269.42</v>
+        <v>174.82</v>
       </c>
       <c r="E358" t="n">
         <v>248.5</v>
@@ -7064,13 +7064,13 @@
         <v>45502</v>
       </c>
       <c r="B359" t="n">
-        <v>249.05</v>
+        <v>255.66</v>
       </c>
       <c r="C359" t="n">
-        <v>256.32</v>
+        <v>246.9</v>
       </c>
       <c r="D359" t="n">
-        <v>262.45</v>
+        <v>172.39</v>
       </c>
       <c r="E359" t="n">
         <v>249.23</v>
@@ -7081,13 +7081,13 @@
         <v>45503</v>
       </c>
       <c r="B360" t="n">
-        <v>248.53</v>
+        <v>249.45</v>
       </c>
       <c r="C360" t="n">
-        <v>257.38</v>
+        <v>250.83</v>
       </c>
       <c r="D360" t="n">
-        <v>258.68</v>
+        <v>171.72</v>
       </c>
       <c r="E360" t="n">
         <v>239.2</v>
@@ -7098,13 +7098,13 @@
         <v>45504</v>
       </c>
       <c r="B361" t="n">
-        <v>245.01</v>
+        <v>240.49</v>
       </c>
       <c r="C361" t="n">
-        <v>250.06</v>
+        <v>242.6</v>
       </c>
       <c r="D361" t="n">
-        <v>247.98</v>
+        <v>168.82</v>
       </c>
       <c r="E361" t="n">
         <v>251.51</v>
@@ -7115,13 +7115,13 @@
         <v>45505</v>
       </c>
       <c r="B362" t="n">
-        <v>245.85</v>
+        <v>236.09</v>
       </c>
       <c r="C362" t="n">
-        <v>248.33</v>
+        <v>253.55</v>
       </c>
       <c r="D362" t="n">
-        <v>250.66</v>
+        <v>172.34</v>
       </c>
       <c r="E362" t="n">
         <v>246.38</v>
@@ -7132,13 +7132,13 @@
         <v>45506</v>
       </c>
       <c r="B363" t="n">
-        <v>245.06</v>
+        <v>232.42</v>
       </c>
       <c r="C363" t="n">
-        <v>249.53</v>
+        <v>245.65</v>
       </c>
       <c r="D363" t="n">
-        <v>247.54</v>
+        <v>173.09</v>
       </c>
       <c r="E363" t="n">
         <v>215.99</v>
@@ -7149,13 +7149,13 @@
         <v>45509</v>
       </c>
       <c r="B364" t="n">
-        <v>238.18</v>
+        <v>226.21</v>
       </c>
       <c r="C364" t="n">
-        <v>250.65</v>
+        <v>236.69</v>
       </c>
       <c r="D364" t="n">
-        <v>233.84</v>
+        <v>168.62</v>
       </c>
       <c r="E364" t="n">
         <v>220.25</v>
@@ -7166,13 +7166,13 @@
         <v>45510</v>
       </c>
       <c r="B365" t="n">
-        <v>233.83</v>
+        <v>222.12</v>
       </c>
       <c r="C365" t="n">
-        <v>246.44</v>
+        <v>234.44</v>
       </c>
       <c r="D365" t="n">
-        <v>229.61</v>
+        <v>170.14</v>
       </c>
       <c r="E365" t="n">
         <v>219.8</v>
@@ -7183,13 +7183,13 @@
         <v>45511</v>
       </c>
       <c r="B366" t="n">
-        <v>229.83</v>
+        <v>218.49</v>
       </c>
       <c r="C366" t="n">
-        <v>241.05</v>
+        <v>234.55</v>
       </c>
       <c r="D366" t="n">
-        <v>224.64</v>
+        <v>169.58</v>
       </c>
       <c r="E366" t="n">
         <v>232.1</v>
@@ -7200,13 +7200,13 @@
         <v>45512</v>
       </c>
       <c r="B367" t="n">
-        <v>229.04</v>
+        <v>217.23</v>
       </c>
       <c r="C367" t="n">
-        <v>243.71</v>
+        <v>235.93</v>
       </c>
       <c r="D367" t="n">
-        <v>227.56</v>
+        <v>173.25</v>
       </c>
       <c r="E367" t="n">
         <v>222.62</v>
@@ -7217,13 +7217,13 @@
         <v>45513</v>
       </c>
       <c r="B368" t="n">
-        <v>225.6</v>
+        <v>215.66</v>
       </c>
       <c r="C368" t="n">
-        <v>242.47</v>
+        <v>229.51</v>
       </c>
       <c r="D368" t="n">
-        <v>222.45</v>
+        <v>171.58</v>
       </c>
       <c r="E368" t="n">
         <v>232.07</v>
@@ -7234,13 +7234,13 @@
         <v>45516</v>
       </c>
       <c r="B369" t="n">
-        <v>226.6</v>
+        <v>215.93</v>
       </c>
       <c r="C369" t="n">
-        <v>241.38</v>
+        <v>231.48</v>
       </c>
       <c r="D369" t="n">
-        <v>225.11</v>
+        <v>174.42</v>
       </c>
       <c r="E369" t="n">
         <v>216.86</v>
@@ -7251,13 +7251,13 @@
         <v>45517</v>
       </c>
       <c r="B370" t="n">
-        <v>222.75</v>
+        <v>214.8</v>
       </c>
       <c r="C370" t="n">
-        <v>229.36</v>
+        <v>224.39</v>
       </c>
       <c r="D370" t="n">
-        <v>217.07</v>
+        <v>170.71</v>
       </c>
       <c r="E370" t="n">
         <v>207.67</v>
@@ -7268,13 +7268,13 @@
         <v>45518</v>
       </c>
       <c r="B371" t="n">
-        <v>217.82</v>
+        <v>212.97</v>
       </c>
       <c r="C371" t="n">
-        <v>220.74</v>
+        <v>214.24</v>
       </c>
       <c r="D371" t="n">
-        <v>211.05</v>
+        <v>168.51</v>
       </c>
       <c r="E371" t="n">
         <v>198.88</v>
@@ -7285,13 +7285,13 @@
         <v>45519</v>
       </c>
       <c r="B372" t="n">
-        <v>211.78</v>
+        <v>210.25</v>
       </c>
       <c r="C372" t="n">
-        <v>210.61</v>
+        <v>203.07</v>
       </c>
       <c r="D372" t="n">
-        <v>204</v>
+        <v>164.47</v>
       </c>
       <c r="E372" t="n">
         <v>200.64</v>
@@ -7302,13 +7302,13 @@
         <v>45520</v>
       </c>
       <c r="B373" t="n">
-        <v>207.54</v>
+        <v>207.79</v>
       </c>
       <c r="C373" t="n">
-        <v>204.09</v>
+        <v>200.24</v>
       </c>
       <c r="D373" t="n">
-        <v>200.33</v>
+        <v>163.21</v>
       </c>
       <c r="E373" t="n">
         <v>191.76</v>
@@ -7319,13 +7319,13 @@
         <v>45523</v>
       </c>
       <c r="B374" t="n">
-        <v>202.57</v>
+        <v>204.85</v>
       </c>
       <c r="C374" t="n">
-        <v>198.32</v>
+        <v>202.03</v>
       </c>
       <c r="D374" t="n">
-        <v>195.07</v>
+        <v>161.37</v>
       </c>
       <c r="E374" t="n">
         <v>198.84</v>
@@ -7336,13 +7336,13 @@
         <v>45524</v>
       </c>
       <c r="B375" t="n">
-        <v>199.82</v>
+        <v>202.38</v>
       </c>
       <c r="C375" t="n">
-        <v>196.95</v>
+        <v>203.08</v>
       </c>
       <c r="D375" t="n">
-        <v>193.39</v>
+        <v>160.83</v>
       </c>
       <c r="E375" t="n">
         <v>200</v>
@@ -7353,13 +7353,13 @@
         <v>45525</v>
       </c>
       <c r="B376" t="n">
-        <v>197.26</v>
+        <v>200.24</v>
       </c>
       <c r="C376" t="n">
-        <v>193</v>
+        <v>200.47</v>
       </c>
       <c r="D376" t="n">
-        <v>191.41</v>
+        <v>160.29</v>
       </c>
       <c r="E376" t="n">
         <v>197.49</v>
@@ -7370,13 +7370,13 @@
         <v>45526</v>
       </c>
       <c r="B377" t="n">
-        <v>194.7</v>
+        <v>197.85</v>
       </c>
       <c r="C377" t="n">
-        <v>190.49</v>
+        <v>198.06</v>
       </c>
       <c r="D377" t="n">
-        <v>187.23</v>
+        <v>157.54</v>
       </c>
       <c r="E377" t="n">
         <v>207.83</v>
@@ -7387,13 +7387,13 @@
         <v>45527</v>
       </c>
       <c r="B378" t="n">
-        <v>197.25</v>
+        <v>197.81</v>
       </c>
       <c r="C378" t="n">
-        <v>195.71</v>
+        <v>210.01</v>
       </c>
       <c r="D378" t="n">
-        <v>192.24</v>
+        <v>160.61</v>
       </c>
       <c r="E378" t="n">
         <v>201.38</v>
@@ -7404,13 +7404,13 @@
         <v>45530</v>
       </c>
       <c r="B379" t="n">
-        <v>198.56</v>
+        <v>198.08</v>
       </c>
       <c r="C379" t="n">
-        <v>196.86</v>
+        <v>202.6</v>
       </c>
       <c r="D379" t="n">
-        <v>191.43</v>
+        <v>159.9</v>
       </c>
       <c r="E379" t="n">
         <v>214.14</v>
@@ -7421,13 +7421,13 @@
         <v>45531</v>
       </c>
       <c r="B380" t="n">
-        <v>204.28</v>
+        <v>199.64</v>
       </c>
       <c r="C380" t="n">
-        <v>204.19</v>
+        <v>207.96</v>
       </c>
       <c r="D380" t="n">
-        <v>199.75</v>
+        <v>165.68</v>
       </c>
       <c r="E380" t="n">
         <v>216.12</v>
@@ -7438,13 +7438,13 @@
         <v>45532</v>
       </c>
       <c r="B381" t="n">
-        <v>208.47</v>
+        <v>202.35</v>
       </c>
       <c r="C381" t="n">
-        <v>208.09</v>
+        <v>215.25</v>
       </c>
       <c r="D381" t="n">
-        <v>204.44</v>
+        <v>169.09</v>
       </c>
       <c r="E381" t="n">
         <v>222.72</v>
@@ -7455,13 +7455,13 @@
         <v>45533</v>
       </c>
       <c r="B382" t="n">
-        <v>213.31</v>
+        <v>207.28</v>
       </c>
       <c r="C382" t="n">
-        <v>206.86</v>
+        <v>226.66</v>
       </c>
       <c r="D382" t="n">
-        <v>211.43</v>
+        <v>172.45</v>
       </c>
       <c r="E382" t="n">
         <v>221.1</v>
@@ -7472,13 +7472,13 @@
         <v>45534</v>
       </c>
       <c r="B383" t="n">
-        <v>215.87</v>
+        <v>213.65</v>
       </c>
       <c r="C383" t="n">
-        <v>205.66</v>
+        <v>227.17</v>
       </c>
       <c r="D383" t="n">
-        <v>214.5</v>
+        <v>173.32</v>
       </c>
       <c r="E383" t="n">
         <v>223.27</v>
@@ -7489,13 +7489,13 @@
         <v>45537</v>
       </c>
       <c r="B384" t="n">
-        <v>219.03</v>
+        <v>218.87</v>
       </c>
       <c r="C384" t="n">
-        <v>217.24</v>
+        <v>229.75</v>
       </c>
       <c r="D384" t="n">
-        <v>221.27</v>
+        <v>175.55</v>
       </c>
       <c r="E384" t="n">
         <v>210.66</v>
@@ -7506,13 +7506,13 @@
         <v>45538</v>
       </c>
       <c r="B385" t="n">
-        <v>217.26</v>
+        <v>221.31</v>
       </c>
       <c r="C385" t="n">
-        <v>213.17</v>
+        <v>220.79</v>
       </c>
       <c r="D385" t="n">
-        <v>217.12</v>
+        <v>171.48</v>
       </c>
       <c r="E385" t="n">
         <v>220.32</v>
@@ -7523,13 +7523,13 @@
         <v>45539</v>
       </c>
       <c r="B386" t="n">
-        <v>218.98</v>
+        <v>222.9</v>
       </c>
       <c r="C386" t="n">
-        <v>212.51</v>
+        <v>224.16</v>
       </c>
       <c r="D386" t="n">
-        <v>223.91</v>
+        <v>173.33</v>
       </c>
       <c r="E386" t="n">
         <v>213.21</v>
@@ -7540,13 +7540,13 @@
         <v>45540</v>
       </c>
       <c r="B387" t="n">
-        <v>217.75</v>
+        <v>223.16</v>
       </c>
       <c r="C387" t="n">
-        <v>211.32</v>
+        <v>223.39</v>
       </c>
       <c r="D387" t="n">
-        <v>221.13</v>
+        <v>171.06</v>
       </c>
       <c r="E387" t="n">
         <v>209.21</v>
@@ -7557,13 +7557,13 @@
         <v>45541</v>
       </c>
       <c r="B388" t="n">
-        <v>213.74</v>
+        <v>221.11</v>
       </c>
       <c r="C388" t="n">
-        <v>213.9</v>
+        <v>204.64</v>
       </c>
       <c r="D388" t="n">
-        <v>212.89</v>
+        <v>166.09</v>
       </c>
       <c r="E388" t="n">
         <v>205.75</v>
@@ -7574,13 +7574,13 @@
         <v>45544</v>
       </c>
       <c r="B389" t="n">
-        <v>209.19</v>
+        <v>218.22</v>
       </c>
       <c r="C389" t="n">
-        <v>203.28</v>
+        <v>200.11</v>
       </c>
       <c r="D389" t="n">
-        <v>206.42</v>
+        <v>163.22</v>
       </c>
       <c r="E389" t="n">
         <v>206.28</v>
@@ -7591,13 +7591,13 @@
         <v>45545</v>
       </c>
       <c r="B390" t="n">
-        <v>204.98</v>
+        <v>214.8</v>
       </c>
       <c r="C390" t="n">
-        <v>195.44</v>
+        <v>193.03</v>
       </c>
       <c r="D390" t="n">
-        <v>200.89</v>
+        <v>160.25</v>
       </c>
       <c r="E390" t="n">
         <v>214.11</v>
@@ -7608,13 +7608,13 @@
         <v>45546</v>
       </c>
       <c r="B391" t="n">
-        <v>205.77</v>
+        <v>212.7</v>
       </c>
       <c r="C391" t="n">
-        <v>196.16</v>
+        <v>205.21</v>
       </c>
       <c r="D391" t="n">
-        <v>203.66</v>
+        <v>161.6</v>
       </c>
       <c r="E391" t="n">
         <v>210.6</v>
@@ -7625,13 +7625,13 @@
         <v>45547</v>
       </c>
       <c r="B392" t="n">
-        <v>204.5</v>
+        <v>210.36</v>
       </c>
       <c r="C392" t="n">
-        <v>203.67</v>
+        <v>199.75</v>
       </c>
       <c r="D392" t="n">
-        <v>199.45</v>
+        <v>160.66</v>
       </c>
       <c r="E392" t="n">
         <v>219.41</v>
@@ -7642,13 +7642,13 @@
         <v>45548</v>
       </c>
       <c r="B393" t="n">
-        <v>209.67</v>
+        <v>210.31</v>
       </c>
       <c r="C393" t="n">
-        <v>210</v>
+        <v>217.48</v>
       </c>
       <c r="D393" t="n">
-        <v>206.68</v>
+        <v>165.23</v>
       </c>
       <c r="E393" t="n">
         <v>230.17</v>
@@ -7659,13 +7659,13 @@
         <v>45551</v>
       </c>
       <c r="B394" t="n">
-        <v>215.62</v>
+        <v>211.71</v>
       </c>
       <c r="C394" t="n">
-        <v>212.36</v>
+        <v>225.03</v>
       </c>
       <c r="D394" t="n">
-        <v>213.28</v>
+        <v>170.41</v>
       </c>
       <c r="E394" t="n">
         <v>210.73</v>
@@ -7676,13 +7676,13 @@
         <v>45552</v>
       </c>
       <c r="B395" t="n">
-        <v>213.84</v>
+        <v>212.34</v>
       </c>
       <c r="C395" t="n">
-        <v>208.12</v>
+        <v>219.78</v>
       </c>
       <c r="D395" t="n">
-        <v>205.1</v>
+        <v>167.31</v>
       </c>
       <c r="E395" t="n">
         <v>216.27</v>
@@ -7693,13 +7693,13 @@
         <v>45553</v>
       </c>
       <c r="B396" t="n">
-        <v>212.9</v>
+        <v>212.4</v>
       </c>
       <c r="C396" t="n">
-        <v>206.44</v>
+        <v>219.1</v>
       </c>
       <c r="D396" t="n">
-        <v>204.01</v>
+        <v>167.41</v>
       </c>
       <c r="E396" t="n">
         <v>226.17</v>
@@ -7710,13 +7710,13 @@
         <v>45554</v>
       </c>
       <c r="B397" t="n">
-        <v>215.7</v>
+        <v>213.83</v>
       </c>
       <c r="C397" t="n">
-        <v>206.89</v>
+        <v>226.94</v>
       </c>
       <c r="D397" t="n">
-        <v>212.07</v>
+        <v>171.88</v>
       </c>
       <c r="E397" t="n">
         <v>228.13</v>
@@ -7727,13 +7727,13 @@
         <v>45555</v>
       </c>
       <c r="B398" t="n">
-        <v>219.04</v>
+        <v>216.12</v>
       </c>
       <c r="C398" t="n">
-        <v>211.85</v>
+        <v>237.93</v>
       </c>
       <c r="D398" t="n">
-        <v>217.77</v>
+        <v>174.49</v>
       </c>
       <c r="E398" t="n">
         <v>229.81</v>
@@ -7744,13 +7744,13 @@
         <v>45558</v>
       </c>
       <c r="B399" t="n">
-        <v>223.48</v>
+        <v>219.02</v>
       </c>
       <c r="C399" t="n">
-        <v>223.11</v>
+        <v>241.64</v>
       </c>
       <c r="D399" t="n">
-        <v>225.19</v>
+        <v>176.87</v>
       </c>
       <c r="E399" t="n">
         <v>230.29</v>
@@ -7761,13 +7761,13 @@
         <v>45559</v>
       </c>
       <c r="B400" t="n">
-        <v>227.01</v>
+        <v>222.61</v>
       </c>
       <c r="C400" t="n">
-        <v>231.7</v>
+        <v>244.43</v>
       </c>
       <c r="D400" t="n">
-        <v>230.25</v>
+        <v>178.58</v>
       </c>
       <c r="E400" t="n">
         <v>226.78</v>
@@ -7778,13 +7778,13 @@
         <v>45560</v>
       </c>
       <c r="B401" t="n">
-        <v>228.87</v>
+        <v>225.7</v>
       </c>
       <c r="C401" t="n">
-        <v>235.58</v>
+        <v>238.69</v>
       </c>
       <c r="D401" t="n">
-        <v>232.14</v>
+        <v>177.53</v>
       </c>
       <c r="E401" t="n">
         <v>227.87</v>
@@ -7795,13 +7795,13 @@
         <v>45561</v>
       </c>
       <c r="B402" t="n">
-        <v>230.77</v>
+        <v>228.44</v>
       </c>
       <c r="C402" t="n">
-        <v>236.26</v>
+        <v>246.57</v>
       </c>
       <c r="D402" t="n">
-        <v>236.37</v>
+        <v>178.01</v>
       </c>
       <c r="E402" t="n">
         <v>227.2</v>
@@ -7812,13 +7812,13 @@
         <v>45562</v>
       </c>
       <c r="B403" t="n">
-        <v>231.89</v>
+        <v>230.5</v>
       </c>
       <c r="C403" t="n">
-        <v>240.47</v>
+        <v>249.26</v>
       </c>
       <c r="D403" t="n">
-        <v>238.66</v>
+        <v>177.2</v>
       </c>
       <c r="E403" t="n">
         <v>243.92</v>
@@ -7829,13 +7829,13 @@
         <v>45565</v>
       </c>
       <c r="B404" t="n">
-        <v>234.87</v>
+        <v>233.4</v>
       </c>
       <c r="C404" t="n">
-        <v>240.01</v>
+        <v>253.23</v>
       </c>
       <c r="D404" t="n">
-        <v>247.15</v>
+        <v>179.94</v>
       </c>
       <c r="E404" t="n">
         <v>238.25</v>
@@ -7846,13 +7846,13 @@
         <v>45566</v>
       </c>
       <c r="B405" t="n">
-        <v>235.15</v>
+        <v>235.05</v>
       </c>
       <c r="C405" t="n">
-        <v>243.34</v>
+        <v>245.94</v>
       </c>
       <c r="D405" t="n">
-        <v>246.95</v>
+        <v>180.21</v>
       </c>
       <c r="E405" t="n">
         <v>250</v>
@@ -7863,13 +7863,13 @@
         <v>45567</v>
       </c>
       <c r="B406" t="n">
-        <v>237.89</v>
+        <v>237.81</v>
       </c>
       <c r="C406" t="n">
-        <v>245.32</v>
+        <v>258.12</v>
       </c>
       <c r="D406" t="n">
-        <v>254.13</v>
+        <v>182.51</v>
       </c>
       <c r="E406" t="n">
         <v>254.27</v>
@@ -7880,13 +7880,13 @@
         <v>45568</v>
       </c>
       <c r="B407" t="n">
-        <v>240.49</v>
+        <v>241.15</v>
       </c>
       <c r="C407" t="n">
-        <v>255.37</v>
+        <v>262.6</v>
       </c>
       <c r="D407" t="n">
-        <v>260.31</v>
+        <v>184.78</v>
       </c>
       <c r="E407" t="n">
         <v>257.02</v>
@@ -7897,13 +7897,13 @@
         <v>45569</v>
       </c>
       <c r="B408" t="n">
-        <v>242.45</v>
+        <v>244.68</v>
       </c>
       <c r="C408" t="n">
-        <v>256.09</v>
+        <v>264</v>
       </c>
       <c r="D408" t="n">
-        <v>265.24</v>
+        <v>187.21</v>
       </c>
       <c r="E408" t="n">
         <v>254.22</v>
@@ -7914,13 +7914,13 @@
         <v>45572</v>
       </c>
       <c r="B409" t="n">
-        <v>245.39</v>
+        <v>248.41</v>
       </c>
       <c r="C409" t="n">
-        <v>257.47</v>
+        <v>260.83</v>
       </c>
       <c r="D409" t="n">
-        <v>269.82</v>
+        <v>187.81</v>
       </c>
       <c r="E409" t="n">
         <v>260.46</v>
@@ -7931,13 +7931,13 @@
         <v>45573</v>
       </c>
       <c r="B410" t="n">
-        <v>248.96</v>
+        <v>252.95</v>
       </c>
       <c r="C410" t="n">
-        <v>253.69</v>
+        <v>263.28</v>
       </c>
       <c r="D410" t="n">
-        <v>276.62</v>
+        <v>191.54</v>
       </c>
       <c r="E410" t="n">
         <v>261.63</v>
@@ -7948,13 +7948,13 @@
         <v>45574</v>
       </c>
       <c r="B411" t="n">
-        <v>252.47</v>
+        <v>258.14</v>
       </c>
       <c r="C411" t="n">
-        <v>261.69</v>
+        <v>262.97</v>
       </c>
       <c r="D411" t="n">
-        <v>281.98</v>
+        <v>194.71</v>
       </c>
       <c r="E411" t="n">
         <v>258.02</v>
@@ -7965,13 +7965,13 @@
         <v>45575</v>
       </c>
       <c r="B412" t="n">
-        <v>254</v>
+        <v>261.69</v>
       </c>
       <c r="C412" t="n">
-        <v>258.32</v>
+        <v>259.42</v>
       </c>
       <c r="D412" t="n">
-        <v>282.78</v>
+        <v>196.02</v>
       </c>
       <c r="E412" t="n">
         <v>249.02</v>
@@ -7982,13 +7982,13 @@
         <v>45576</v>
       </c>
       <c r="B413" t="n">
-        <v>251.79</v>
+        <v>260.27</v>
       </c>
       <c r="C413" t="n">
-        <v>257.05</v>
+        <v>257.64</v>
       </c>
       <c r="D413" t="n">
-        <v>275.81</v>
+        <v>194.4</v>
       </c>
       <c r="E413" t="n">
         <v>240.66</v>
@@ -7999,13 +7999,13 @@
         <v>45579</v>
       </c>
       <c r="B414" t="n">
-        <v>246.27</v>
+        <v>252.68</v>
       </c>
       <c r="C414" t="n">
-        <v>248.36</v>
+        <v>242.85</v>
       </c>
       <c r="D414" t="n">
-        <v>261.73</v>
+        <v>189.45</v>
       </c>
       <c r="E414" t="n">
         <v>250.08</v>
@@ -8016,13 +8016,13 @@
         <v>45580</v>
       </c>
       <c r="B415" t="n">
-        <v>245.56</v>
+        <v>248.51</v>
       </c>
       <c r="C415" t="n">
-        <v>246.88</v>
+        <v>247.3</v>
       </c>
       <c r="D415" t="n">
-        <v>262.84</v>
+        <v>191.58</v>
       </c>
       <c r="E415" t="n">
         <v>240.83</v>
@@ -8033,13 +8033,13 @@
         <v>45581</v>
       </c>
       <c r="B416" t="n">
-        <v>241.71</v>
+        <v>241.62</v>
       </c>
       <c r="C416" t="n">
-        <v>241.54</v>
+        <v>236.3</v>
       </c>
       <c r="D416" t="n">
-        <v>251.89</v>
+        <v>187.81</v>
       </c>
       <c r="E416" t="n">
         <v>244.5</v>
@@ -8050,13 +8050,13 @@
         <v>45582</v>
       </c>
       <c r="B417" t="n">
-        <v>240.36</v>
+        <v>236.78</v>
       </c>
       <c r="C417" t="n">
-        <v>247.88</v>
+        <v>240.86</v>
       </c>
       <c r="D417" t="n">
-        <v>248.27</v>
+        <v>187.4</v>
       </c>
       <c r="E417" t="n">
         <v>241.05</v>
@@ -8067,13 +8067,13 @@
         <v>45583</v>
       </c>
       <c r="B418" t="n">
-        <v>237.49</v>
+        <v>232.04</v>
       </c>
       <c r="C418" t="n">
-        <v>242.67</v>
+        <v>233.49</v>
       </c>
       <c r="D418" t="n">
-        <v>240</v>
+        <v>185.24</v>
       </c>
       <c r="E418" t="n">
         <v>238.77</v>
@@ -8084,13 +8084,13 @@
         <v>45586</v>
       </c>
       <c r="B419" t="n">
-        <v>235.58</v>
+        <v>227.99</v>
       </c>
       <c r="C419" t="n">
-        <v>240.18</v>
+        <v>233.51</v>
       </c>
       <c r="D419" t="n">
-        <v>234.32</v>
+        <v>183.52</v>
       </c>
       <c r="E419" t="n">
         <v>217.8</v>
@@ -8101,13 +8101,13 @@
         <v>45587</v>
       </c>
       <c r="B420" t="n">
-        <v>230.49</v>
+        <v>223.31</v>
       </c>
       <c r="C420" t="n">
-        <v>236.11</v>
+        <v>227.19</v>
       </c>
       <c r="D420" t="n">
-        <v>223.78</v>
+        <v>178.8</v>
       </c>
       <c r="E420" t="n">
         <v>219.16</v>
@@ -8118,13 +8118,13 @@
         <v>45588</v>
       </c>
       <c r="B421" t="n">
-        <v>226.11</v>
+        <v>219.76</v>
       </c>
       <c r="C421" t="n">
-        <v>233.85</v>
+        <v>233.62</v>
       </c>
       <c r="D421" t="n">
-        <v>218.3</v>
+        <v>177.58</v>
       </c>
       <c r="E421" t="n">
         <v>219.57</v>
@@ -8135,13 +8135,13 @@
         <v>45589</v>
       </c>
       <c r="B422" t="n">
-        <v>221.86</v>
+        <v>216.95</v>
       </c>
       <c r="C422" t="n">
-        <v>230.84</v>
+        <v>225.64</v>
       </c>
       <c r="D422" t="n">
-        <v>213.33</v>
+        <v>176.5</v>
       </c>
       <c r="E422" t="n">
         <v>221.33</v>
@@ -8152,13 +8152,13 @@
         <v>45590</v>
       </c>
       <c r="B423" t="n">
-        <v>218.87</v>
+        <v>214.83</v>
       </c>
       <c r="C423" t="n">
-        <v>228.61</v>
+        <v>224.82</v>
       </c>
       <c r="D423" t="n">
-        <v>210.46</v>
+        <v>176.3</v>
       </c>
       <c r="E423" t="n">
         <v>220.89</v>
@@ -8169,13 +8169,13 @@
         <v>45593</v>
       </c>
       <c r="B424" t="n">
-        <v>215.66</v>
+        <v>213.1</v>
       </c>
       <c r="C424" t="n">
-        <v>222.67</v>
+        <v>220.4</v>
       </c>
       <c r="D424" t="n">
-        <v>206.68</v>
+        <v>175.41</v>
       </c>
       <c r="E424" t="n">
         <v>220.7</v>
@@ -8186,13 +8186,13 @@
         <v>45594</v>
       </c>
       <c r="B425" t="n">
-        <v>212.3</v>
+        <v>211.48</v>
       </c>
       <c r="C425" t="n">
-        <v>216.09</v>
+        <v>219.97</v>
       </c>
       <c r="D425" t="n">
-        <v>203.24</v>
+        <v>173.74</v>
       </c>
       <c r="E425" t="n">
         <v>218.85</v>
@@ -8203,13 +8203,13 @@
         <v>45595</v>
       </c>
       <c r="B426" t="n">
-        <v>209.21</v>
+        <v>210.07</v>
       </c>
       <c r="C426" t="n">
-        <v>214.36</v>
+        <v>211.06</v>
       </c>
       <c r="D426" t="n">
-        <v>200.14</v>
+        <v>172.38</v>
       </c>
       <c r="E426" t="n">
         <v>217.97</v>
@@ -8220,13 +8220,13 @@
         <v>45596</v>
       </c>
       <c r="B427" t="n">
-        <v>206.34</v>
+        <v>208.58</v>
       </c>
       <c r="C427" t="n">
-        <v>213.01</v>
+        <v>207.64</v>
       </c>
       <c r="D427" t="n">
-        <v>196.51</v>
+        <v>169.75</v>
       </c>
       <c r="E427" t="n">
         <v>213.65</v>
@@ -8237,13 +8237,13 @@
         <v>45597</v>
       </c>
       <c r="B428" t="n">
-        <v>203.76</v>
+        <v>207.04</v>
       </c>
       <c r="C428" t="n">
-        <v>207.73</v>
+        <v>202.08</v>
       </c>
       <c r="D428" t="n">
-        <v>193.41</v>
+        <v>167.36</v>
       </c>
       <c r="E428" t="n">
         <v>260.48</v>
@@ -8254,13 +8254,13 @@
         <v>45600</v>
       </c>
       <c r="B429" t="n">
-        <v>212.29</v>
+        <v>208.3</v>
       </c>
       <c r="C429" t="n">
-        <v>212.9</v>
+        <v>237.84</v>
       </c>
       <c r="D429" t="n">
-        <v>212.17</v>
+        <v>178.36</v>
       </c>
       <c r="E429" t="n">
         <v>269.19</v>
@@ -8271,13 +8271,13 @@
         <v>45601</v>
       </c>
       <c r="B430" t="n">
-        <v>222.87</v>
+        <v>210.27</v>
       </c>
       <c r="C430" t="n">
-        <v>233</v>
+        <v>258.53</v>
       </c>
       <c r="D430" t="n">
-        <v>225.72</v>
+        <v>185.6</v>
       </c>
       <c r="E430" t="n">
         <v>262.51</v>
@@ -8288,13 +8288,13 @@
         <v>45602</v>
       </c>
       <c r="B431" t="n">
-        <v>231.09</v>
+        <v>213.09</v>
       </c>
       <c r="C431" t="n">
-        <v>241.41</v>
+        <v>259.25</v>
       </c>
       <c r="D431" t="n">
-        <v>231.96</v>
+        <v>187.14</v>
       </c>
       <c r="E431" t="n">
         <v>259.52</v>
@@ -8305,13 +8305,13 @@
         <v>45603</v>
       </c>
       <c r="B432" t="n">
-        <v>236.67</v>
+        <v>217.88</v>
       </c>
       <c r="C432" t="n">
-        <v>256.21</v>
+        <v>263.49</v>
       </c>
       <c r="D432" t="n">
-        <v>238.81</v>
+        <v>188.5</v>
       </c>
       <c r="E432" t="n">
         <v>257.55</v>
@@ -8322,13 +8322,13 @@
         <v>45604</v>
       </c>
       <c r="B433" t="n">
-        <v>240.5</v>
+        <v>225.4</v>
       </c>
       <c r="C433" t="n">
-        <v>255.67</v>
+        <v>259.76</v>
       </c>
       <c r="D433" t="n">
-        <v>244.44</v>
+        <v>189.12</v>
       </c>
       <c r="E433" t="n">
         <v>249.85</v>
@@ -8339,13 +8339,13 @@
         <v>45607</v>
       </c>
       <c r="B434" t="n">
-        <v>242.84</v>
+        <v>231.83</v>
       </c>
       <c r="C434" t="n">
-        <v>260.89</v>
+        <v>267.47</v>
       </c>
       <c r="D434" t="n">
-        <v>248.18</v>
+        <v>187.79</v>
       </c>
       <c r="E434" t="n">
         <v>248.98</v>
@@ -8356,13 +8356,13 @@
         <v>45608</v>
       </c>
       <c r="B435" t="n">
-        <v>244.2</v>
+        <v>235.02</v>
       </c>
       <c r="C435" t="n">
-        <v>263.33</v>
+        <v>264.67</v>
       </c>
       <c r="D435" t="n">
-        <v>251.06</v>
+        <v>187.54</v>
       </c>
       <c r="E435" t="n">
         <v>242.84</v>
@@ -8373,13 +8373,13 @@
         <v>45609</v>
       </c>
       <c r="B436" t="n">
-        <v>243.47</v>
+        <v>235.98</v>
       </c>
       <c r="C436" t="n">
-        <v>264.31</v>
+        <v>262.31</v>
       </c>
       <c r="D436" t="n">
-        <v>251.1</v>
+        <v>186.35</v>
       </c>
       <c r="E436" t="n">
         <v>251.44</v>
@@ -8390,13 +8390,13 @@
         <v>45610</v>
       </c>
       <c r="B437" t="n">
-        <v>242.86</v>
+        <v>235.83</v>
       </c>
       <c r="C437" t="n">
-        <v>256.3</v>
+        <v>247.8</v>
       </c>
       <c r="D437" t="n">
-        <v>251.54</v>
+        <v>186.17</v>
       </c>
       <c r="E437" t="n">
         <v>288.53</v>
@@ -8407,13 +8407,13 @@
         <v>45611</v>
       </c>
       <c r="B438" t="n">
-        <v>249.23</v>
+        <v>238.88</v>
       </c>
       <c r="C438" t="n">
-        <v>269.61</v>
+        <v>281.83</v>
       </c>
       <c r="D438" t="n">
-        <v>269.58</v>
+        <v>196.46</v>
       </c>
       <c r="E438" t="n">
         <v>296.91</v>
@@ -8424,13 +8424,13 @@
         <v>45614</v>
       </c>
       <c r="B439" t="n">
-        <v>256.18</v>
+        <v>242.88</v>
       </c>
       <c r="C439" t="n">
-        <v>276.95</v>
+        <v>287.19</v>
       </c>
       <c r="D439" t="n">
-        <v>278.44</v>
+        <v>199.05</v>
       </c>
       <c r="E439" t="n">
         <v>321.22</v>
@@ -8441,13 +8441,13 @@
         <v>45615</v>
       </c>
       <c r="B440" t="n">
-        <v>267.44</v>
+        <v>249.98</v>
       </c>
       <c r="C440" t="n">
-        <v>289.92</v>
+        <v>300.42</v>
       </c>
       <c r="D440" t="n">
-        <v>292.89</v>
+        <v>207.1</v>
       </c>
       <c r="E440" t="n">
         <v>350</v>
@@ -8458,13 +8458,13 @@
         <v>45616</v>
       </c>
       <c r="B441" t="n">
-        <v>287.1</v>
+        <v>262.07</v>
       </c>
       <c r="C441" t="n">
-        <v>295.44</v>
+        <v>302.35</v>
       </c>
       <c r="D441" t="n">
-        <v>307.78</v>
+        <v>215.64</v>
       </c>
       <c r="E441" t="n">
         <v>328.49</v>
@@ -8475,13 +8475,13 @@
         <v>45617</v>
       </c>
       <c r="B442" t="n">
-        <v>300.45</v>
+        <v>274.46</v>
       </c>
       <c r="C442" t="n">
-        <v>305.91</v>
+        <v>313.27</v>
       </c>
       <c r="D442" t="n">
-        <v>312.09</v>
+        <v>216.33</v>
       </c>
       <c r="E442" t="n">
         <v>330.24</v>
@@ -8492,13 +8492,13 @@
         <v>45618</v>
       </c>
       <c r="B443" t="n">
-        <v>308.85</v>
+        <v>287.12</v>
       </c>
       <c r="C443" t="n">
-        <v>314.71</v>
+        <v>312.62</v>
       </c>
       <c r="D443" t="n">
-        <v>319.73</v>
+        <v>221.12</v>
       </c>
       <c r="E443" t="n">
         <v>311.18</v>
@@ -8509,13 +8509,13 @@
         <v>45621</v>
       </c>
       <c r="B444" t="n">
-        <v>310.38</v>
+        <v>295.55</v>
       </c>
       <c r="C444" t="n">
-        <v>319.06</v>
+        <v>310.89</v>
       </c>
       <c r="D444" t="n">
-        <v>320.14</v>
+        <v>221.85</v>
       </c>
       <c r="E444" t="n">
         <v>320.72</v>
@@ -8526,13 +8526,13 @@
         <v>45622</v>
       </c>
       <c r="B445" t="n">
-        <v>315.19</v>
+        <v>304.63</v>
       </c>
       <c r="C445" t="n">
-        <v>309.46</v>
+        <v>314.41</v>
       </c>
       <c r="D445" t="n">
-        <v>326.83</v>
+        <v>227.18</v>
       </c>
       <c r="E445" t="n">
         <v>338.74</v>
@@ -8543,13 +8543,13 @@
         <v>45623</v>
       </c>
       <c r="B446" t="n">
-        <v>324.49</v>
+        <v>316.15</v>
       </c>
       <c r="C446" t="n">
-        <v>315.31</v>
+        <v>329.23</v>
       </c>
       <c r="D446" t="n">
-        <v>338.19</v>
+        <v>235.93</v>
       </c>
       <c r="E446" t="n">
         <v>346</v>
@@ -8560,13 +8560,13 @@
         <v>45624</v>
       </c>
       <c r="B447" t="n">
-        <v>335.2</v>
+        <v>327.95</v>
       </c>
       <c r="C447" t="n">
-        <v>313.38</v>
+        <v>336.94</v>
       </c>
       <c r="D447" t="n">
-        <v>348.35</v>
+        <v>243.05</v>
       </c>
       <c r="E447" t="n">
         <v>342.03</v>
@@ -8577,13 +8577,13 @@
         <v>45625</v>
       </c>
       <c r="B448" t="n">
-        <v>341.8</v>
+        <v>336.42</v>
       </c>
       <c r="C448" t="n">
-        <v>322.59</v>
+        <v>326.15</v>
       </c>
       <c r="D448" t="n">
-        <v>351.68</v>
+        <v>245.09</v>
       </c>
       <c r="E448" t="n">
         <v>339.64</v>
@@ -8594,13 +8594,13 @@
         <v>45628</v>
       </c>
       <c r="B449" t="n">
-        <v>347.34</v>
+        <v>344.08</v>
       </c>
       <c r="C449" t="n">
-        <v>322.43</v>
+        <v>335.12</v>
       </c>
       <c r="D449" t="n">
-        <v>353.43</v>
+        <v>246.27</v>
       </c>
       <c r="E449" t="n">
         <v>352.56</v>
@@ -8611,13 +8611,13 @@
         <v>45629</v>
       </c>
       <c r="B450" t="n">
-        <v>358.66</v>
+        <v>352.34</v>
       </c>
       <c r="C450" t="n">
-        <v>327.28</v>
+        <v>340.31</v>
       </c>
       <c r="D450" t="n">
-        <v>360.38</v>
+        <v>250.35</v>
       </c>
       <c r="E450" t="n">
         <v>338.59</v>
@@ -8628,13 +8628,13 @@
         <v>45630</v>
       </c>
       <c r="B451" t="n">
-        <v>360.1</v>
+        <v>356.28</v>
       </c>
       <c r="C451" t="n">
-        <v>325.04</v>
+        <v>337.52</v>
       </c>
       <c r="D451" t="n">
-        <v>355.68</v>
+        <v>247.78</v>
       </c>
       <c r="E451" t="n">
         <v>338.23</v>
@@ -8645,13 +8645,13 @@
         <v>45631</v>
       </c>
       <c r="B452" t="n">
-        <v>360.67</v>
+        <v>359.55</v>
       </c>
       <c r="C452" t="n">
-        <v>332.62</v>
+        <v>336.24</v>
       </c>
       <c r="D452" t="n">
-        <v>355.61</v>
+        <v>250.55</v>
       </c>
       <c r="E452" t="n">
         <v>332.89</v>
@@ -8662,13 +8662,13 @@
         <v>45632</v>
       </c>
       <c r="B453" t="n">
-        <v>355.2</v>
+        <v>360.26</v>
       </c>
       <c r="C453" t="n">
-        <v>324.85</v>
+        <v>331.07</v>
       </c>
       <c r="D453" t="n">
-        <v>348.92</v>
+        <v>249.2</v>
       </c>
       <c r="E453" t="n">
         <v>345.16</v>
@@ -8679,13 +8679,13 @@
         <v>45635</v>
       </c>
       <c r="B454" t="n">
-        <v>356.52</v>
+        <v>362.51</v>
       </c>
       <c r="C454" t="n">
-        <v>327.87</v>
+        <v>342.94</v>
       </c>
       <c r="D454" t="n">
-        <v>353.42</v>
+        <v>256.16</v>
       </c>
       <c r="E454" t="n">
         <v>357.09</v>
@@ -8696,13 +8696,13 @@
         <v>45636</v>
       </c>
       <c r="B455" t="n">
-        <v>362.75</v>
+        <v>366.44</v>
       </c>
       <c r="C455" t="n">
-        <v>333.34</v>
+        <v>354.3</v>
       </c>
       <c r="D455" t="n">
-        <v>361.59</v>
+        <v>263.79</v>
       </c>
       <c r="E455" t="n">
         <v>351.42</v>
@@ -8713,13 +8713,13 @@
         <v>45637</v>
       </c>
       <c r="B456" t="n">
-        <v>367.36</v>
+        <v>369.71</v>
       </c>
       <c r="C456" t="n">
-        <v>337.28</v>
+        <v>354.43</v>
       </c>
       <c r="D456" t="n">
-        <v>363.52</v>
+        <v>266.39</v>
       </c>
       <c r="E456" t="n">
         <v>357.93</v>
@@ -8730,13 +8730,13 @@
         <v>45638</v>
       </c>
       <c r="B457" t="n">
-        <v>375.59</v>
+        <v>373.53</v>
       </c>
       <c r="C457" t="n">
-        <v>335.83</v>
+        <v>355.66</v>
       </c>
       <c r="D457" t="n">
-        <v>370.22</v>
+        <v>272.72</v>
       </c>
       <c r="E457" t="n">
         <v>369.49</v>
@@ -8747,13 +8747,13 @@
         <v>45639</v>
       </c>
       <c r="B458" t="n">
-        <v>386.74</v>
+        <v>377.94</v>
       </c>
       <c r="C458" t="n">
-        <v>341.94</v>
+        <v>359.39</v>
       </c>
       <c r="D458" t="n">
-        <v>378.46</v>
+        <v>278.97</v>
       </c>
       <c r="E458" t="n">
         <v>389.22</v>
@@ -8764,13 +8764,13 @@
         <v>45642</v>
       </c>
       <c r="B459" t="n">
-        <v>394.98</v>
+        <v>381.8</v>
       </c>
       <c r="C459" t="n">
-        <v>347.34</v>
+        <v>367.58</v>
       </c>
       <c r="D459" t="n">
-        <v>387.77</v>
+        <v>286.74</v>
       </c>
       <c r="E459" t="n">
         <v>389.79</v>
@@ -8781,13 +8781,13 @@
         <v>45643</v>
       </c>
       <c r="B460" t="n">
-        <v>396.59</v>
+        <v>384.61</v>
       </c>
       <c r="C460" t="n">
-        <v>356.91</v>
+        <v>373.94</v>
       </c>
       <c r="D460" t="n">
-        <v>392.11</v>
+        <v>290.35</v>
       </c>
       <c r="E460" t="n">
         <v>400.99</v>
@@ -8798,13 +8798,13 @@
         <v>45644</v>
       </c>
       <c r="B461" t="n">
-        <v>395.55</v>
+        <v>387.06</v>
       </c>
       <c r="C461" t="n">
-        <v>366.95</v>
+        <v>380.98</v>
       </c>
       <c r="D461" t="n">
-        <v>399.83</v>
+        <v>296.89</v>
       </c>
       <c r="E461" t="n">
         <v>424.77</v>
@@ -8815,13 +8815,13 @@
         <v>45645</v>
       </c>
       <c r="B462" t="n">
-        <v>394.24</v>
+        <v>389.01</v>
       </c>
       <c r="C462" t="n">
-        <v>376.79</v>
+        <v>395.39</v>
       </c>
       <c r="D462" t="n">
-        <v>409.51</v>
+        <v>304.45</v>
       </c>
       <c r="E462" t="n">
         <v>418.1</v>
@@ -8832,13 +8832,13 @@
         <v>45646</v>
       </c>
       <c r="B463" t="n">
-        <v>393.9</v>
+        <v>390.39</v>
       </c>
       <c r="C463" t="n">
-        <v>383.85</v>
+        <v>404.35</v>
       </c>
       <c r="D463" t="n">
-        <v>413.98</v>
+        <v>307.52</v>
       </c>
       <c r="E463" t="n">
         <v>436.23</v>
@@ -8849,13 +8849,13 @@
         <v>45649</v>
       </c>
       <c r="B464" t="n">
-        <v>393.65</v>
+        <v>391.6</v>
       </c>
       <c r="C464" t="n">
-        <v>394.64</v>
+        <v>414.14</v>
       </c>
       <c r="D464" t="n">
-        <v>422.19</v>
+        <v>313.85</v>
       </c>
       <c r="E464" t="n">
         <v>463.02</v>
@@ -8866,13 +8866,13 @@
         <v>45650</v>
       </c>
       <c r="B465" t="n">
-        <v>392.59</v>
+        <v>392.74</v>
       </c>
       <c r="C465" t="n">
-        <v>406.88</v>
+        <v>421.24</v>
       </c>
       <c r="D465" t="n">
-        <v>433.49</v>
+        <v>322.52</v>
       </c>
       <c r="E465" t="n">
         <v>479.86</v>
@@ -8883,13 +8883,13 @@
         <v>45651</v>
       </c>
       <c r="B466" t="n">
-        <v>391.63</v>
+        <v>393.67</v>
       </c>
       <c r="C466" t="n">
-        <v>418.01</v>
+        <v>438.06</v>
       </c>
       <c r="D466" t="n">
-        <v>443.65</v>
+        <v>329.77</v>
       </c>
       <c r="E466" t="n">
         <v>440.13</v>
@@ -8900,13 +8900,13 @@
         <v>45652</v>
       </c>
       <c r="B467" t="n">
-        <v>391.44</v>
+        <v>394.11</v>
       </c>
       <c r="C467" t="n">
-        <v>422.88</v>
+        <v>428.95</v>
       </c>
       <c r="D467" t="n">
-        <v>436.48</v>
+        <v>322.77</v>
       </c>
       <c r="E467" t="n">
         <v>436.17</v>
@@ -8917,13 +8917,13 @@
         <v>45653</v>
       </c>
       <c r="B468" t="n">
-        <v>391.47</v>
+        <v>394.28</v>
       </c>
       <c r="C468" t="n">
-        <v>425.32</v>
+        <v>427.19</v>
       </c>
       <c r="D468" t="n">
-        <v>434.1</v>
+        <v>322.8</v>
       </c>
       <c r="E468" t="n">
         <v>421.06</v>
@@ -8934,13 +8934,13 @@
         <v>45656</v>
       </c>
       <c r="B469" t="n">
-        <v>391.84</v>
+        <v>394.1</v>
       </c>
       <c r="C469" t="n">
-        <v>421.62</v>
+        <v>414.63</v>
       </c>
       <c r="D469" t="n">
-        <v>424.83</v>
+        <v>318.99</v>
       </c>
       <c r="E469" t="n">
         <v>430.6</v>
@@ -8951,13 +8951,13 @@
         <v>45657</v>
       </c>
       <c r="B470" t="n">
-        <v>392.18</v>
+        <v>393.8</v>
       </c>
       <c r="C470" t="n">
-        <v>422.55</v>
+        <v>422.84</v>
       </c>
       <c r="D470" t="n">
-        <v>421.05</v>
+        <v>321.11</v>
       </c>
       <c r="E470" t="n">
         <v>462.28</v>
@@ -8968,13 +8968,13 @@
         <v>45658</v>
       </c>
       <c r="B471" t="n">
-        <v>391.81</v>
+        <v>393.84</v>
       </c>
       <c r="C471" t="n">
-        <v>429.93</v>
+        <v>436.6</v>
       </c>
       <c r="D471" t="n">
-        <v>429.78</v>
+        <v>331.85</v>
       </c>
       <c r="E471" t="n">
         <v>454.13</v>
@@ -8985,13 +8985,13 @@
         <v>45659</v>
       </c>
       <c r="B472" t="n">
-        <v>391.56</v>
+        <v>393.91</v>
       </c>
       <c r="C472" t="n">
-        <v>434.6</v>
+        <v>437</v>
       </c>
       <c r="D472" t="n">
-        <v>428.93</v>
+        <v>334.25</v>
       </c>
       <c r="E472" t="n">
         <v>431.66</v>
@@ -9002,13 +9002,13 @@
         <v>45660</v>
       </c>
       <c r="B473" t="n">
-        <v>391.81</v>
+        <v>393.75</v>
       </c>
       <c r="C473" t="n">
-        <v>435.4</v>
+        <v>430.5</v>
       </c>
       <c r="D473" t="n">
-        <v>420.65</v>
+        <v>331.66</v>
       </c>
       <c r="E473" t="n">
         <v>417.41</v>
@@ -9019,13 +9019,13 @@
         <v>45663</v>
       </c>
       <c r="B474" t="n">
-        <v>392.46</v>
+        <v>393.2</v>
       </c>
       <c r="C474" t="n">
-        <v>425.91</v>
+        <v>429.43</v>
       </c>
       <c r="D474" t="n">
-        <v>409.31</v>
+        <v>328.04</v>
       </c>
       <c r="E474" t="n">
         <v>403.84</v>
@@ -9036,13 +9036,13 @@
         <v>45664</v>
       </c>
       <c r="B475" t="n">
-        <v>393.4</v>
+        <v>392.38</v>
       </c>
       <c r="C475" t="n">
-        <v>421.8</v>
+        <v>421.81</v>
       </c>
       <c r="D475" t="n">
-        <v>398.44</v>
+        <v>325.65</v>
       </c>
       <c r="E475" t="n">
         <v>379.28</v>
@@ -9053,13 +9053,13 @@
         <v>45665</v>
       </c>
       <c r="B476" t="n">
-        <v>394.74</v>
+        <v>391.27</v>
       </c>
       <c r="C476" t="n">
-        <v>418.83</v>
+        <v>410.03</v>
       </c>
       <c r="D476" t="n">
-        <v>385.8</v>
+        <v>321.15</v>
       </c>
       <c r="E476" t="n">
         <v>410.44</v>
@@ -9070,13 +9070,13 @@
         <v>45666</v>
       </c>
       <c r="B477" t="n">
-        <v>394.87</v>
+        <v>390.82</v>
       </c>
       <c r="C477" t="n">
-        <v>417.29</v>
+        <v>411.65</v>
       </c>
       <c r="D477" t="n">
-        <v>391.98</v>
+        <v>333.66</v>
       </c>
       <c r="E477" t="n">
         <v>411.05</v>
@@ -9087,13 +9087,13 @@
         <v>45667</v>
       </c>
       <c r="B478" t="n">
-        <v>394.94</v>
+        <v>390.56</v>
       </c>
       <c r="C478" t="n">
-        <v>415.17</v>
+        <v>415.68</v>
       </c>
       <c r="D478" t="n">
-        <v>391.31</v>
+        <v>338.25</v>
       </c>
       <c r="E478" t="n">
         <v>394.36</v>
@@ -9104,13 +9104,13 @@
         <v>45670</v>
       </c>
       <c r="B479" t="n">
-        <v>395.45</v>
+        <v>390.18</v>
       </c>
       <c r="C479" t="n">
-        <v>416.26</v>
+        <v>411.86</v>
       </c>
       <c r="D479" t="n">
-        <v>385.62</v>
+        <v>338.55</v>
       </c>
       <c r="E479" t="n">
         <v>394.94</v>
@@ -9121,13 +9121,13 @@
         <v>45671</v>
       </c>
       <c r="B480" t="n">
-        <v>395.56</v>
+        <v>389.71</v>
       </c>
       <c r="C480" t="n">
-        <v>411.32</v>
+        <v>408.47</v>
       </c>
       <c r="D480" t="n">
-        <v>381.08</v>
+        <v>339.74</v>
       </c>
       <c r="E480" t="n">
         <v>394.74</v>
@@ -9138,13 +9138,13 @@
         <v>45672</v>
       </c>
       <c r="B481" t="n">
-        <v>395.53</v>
+        <v>389.27</v>
       </c>
       <c r="C481" t="n">
-        <v>400.07</v>
+        <v>398.47</v>
       </c>
       <c r="D481" t="n">
-        <v>377.88</v>
+        <v>341.31</v>
       </c>
       <c r="E481" t="n">
         <v>403.31</v>
@@ -9155,13 +9155,13 @@
         <v>45673</v>
       </c>
       <c r="B482" t="n">
-        <v>395.5</v>
+        <v>389.3</v>
       </c>
       <c r="C482" t="n">
-        <v>404.39</v>
+        <v>405.02</v>
       </c>
       <c r="D482" t="n">
-        <v>382.25</v>
+        <v>348.48</v>
       </c>
       <c r="E482" t="n">
         <v>396.36</v>
@@ -9172,13 +9172,13 @@
         <v>45674</v>
       </c>
       <c r="B483" t="n">
-        <v>395.55</v>
+        <v>389.52</v>
       </c>
       <c r="C483" t="n">
-        <v>404.19</v>
+        <v>406.04</v>
       </c>
       <c r="D483" t="n">
-        <v>383</v>
+        <v>350.97</v>
       </c>
       <c r="E483" t="n">
         <v>428.22</v>
@@ -9189,13 +9189,13 @@
         <v>45677</v>
       </c>
       <c r="B484" t="n">
-        <v>395.22</v>
+        <v>390.21</v>
       </c>
       <c r="C484" t="n">
-        <v>410.11</v>
+        <v>430.56</v>
       </c>
       <c r="D484" t="n">
-        <v>396.3</v>
+        <v>364.91</v>
       </c>
       <c r="E484" t="n">
         <v>413.82</v>
@@ -9206,13 +9206,13 @@
         <v>45678</v>
       </c>
       <c r="B485" t="n">
-        <v>394.97</v>
+        <v>391.03</v>
       </c>
       <c r="C485" t="n">
-        <v>404.58</v>
+        <v>422.01</v>
       </c>
       <c r="D485" t="n">
-        <v>394.03</v>
+        <v>363.58</v>
       </c>
       <c r="E485" t="n">
         <v>426.5</v>
@@ -9223,13 +9223,13 @@
         <v>45679</v>
       </c>
       <c r="B486" t="n">
-        <v>394.29</v>
+        <v>391.95</v>
       </c>
       <c r="C486" t="n">
-        <v>416.37</v>
+        <v>425.69</v>
       </c>
       <c r="D486" t="n">
-        <v>403.19</v>
+        <v>371.97</v>
       </c>
       <c r="E486" t="n">
         <v>424.07</v>
@@ -9240,13 +9240,13 @@
         <v>45680</v>
       </c>
       <c r="B487" t="n">
-        <v>393.55</v>
+        <v>392.74</v>
       </c>
       <c r="C487" t="n">
-        <v>421.78</v>
+        <v>429.13</v>
       </c>
       <c r="D487" t="n">
-        <v>405.16</v>
+        <v>371.93</v>
       </c>
       <c r="E487" t="n">
         <v>415.11</v>
@@ -9257,13 +9257,13 @@
         <v>45681</v>
       </c>
       <c r="B488" t="n">
-        <v>393.38</v>
+        <v>393.34</v>
       </c>
       <c r="C488" t="n">
-        <v>419.49</v>
+        <v>424.72</v>
       </c>
       <c r="D488" t="n">
-        <v>403.79</v>
+        <v>369.54</v>
       </c>
       <c r="E488" t="n">
         <v>412.38</v>
@@ -9343,17 +9343,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.07</t>
+          <t>20.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>15.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>5.03</t>
         </is>
       </c>
     </row>
@@ -9385,17 +9385,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.30</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>0.77</t>
         </is>
       </c>
     </row>
@@ -9427,17 +9427,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>23.47</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>59.61</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>55.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>1.77</t>
         </is>
       </c>
     </row>
